--- a/LLM_results.xlsx
+++ b/LLM_results.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A woman with blonde hair, wearing a blue t-shirt, stands in a corner of a room with her arms crossed. She is speaking directly to the camera, making various facial expressions, including looking annoyed and then smiling. Text overlays appear on the screen, stating, 'This is the actual timeout corner for my kids' and 'I just noticed it has so many dirty spots 😂'. The background shows a white wall and a doorway with blue lighting.</t>
+          <t>#timeout #momsoftiktok #break #parenting #duetthis</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -771,7 +771,18 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>The video is a news segment from 'Good Morning America' (GMA) that highlights a parenting technique created by Nikki Mullen-Cruz. It features her son Kalev in a specially designed 'cool-down corner' or 'calming corner' that he uses to manage his emotions. The video shows Kalev in various states, including sitting quietly, reading a book, and playing with a light-up toy within this corner. The segment explains that Mullen-Cruz replaced traditional timeouts with this approach, which she says is more effective for helping her son process big emotions in a healthy way. The video includes text overlays explaining her reasoning and the positive impact on Kalev.</t>
+          <t>Nikki Mullen-Cruz’s “cool-down corner” for her son Kalev is parenting goals.
+Subscribe to GMA's YouTube page:  https://bit.ly/2Zq0dU5 
+Visit Good Morning America's homepage:
+https://www.goodmorningamerica.com/ 
+Follow GMA:
+Facebook: https://www.facebook.com/GoodMorningAmerica
+Twitter: https://twitter.com/gma
+Instagram: https://instagram.com/goodmorningamerica
+Watch full episodes of GMA:
+http://abc.go.com/shows/good-morning-america
+https://hulu.tv/2YnifTH
+#GMA #Parenting #TimeOut #TikTok</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -909,7 +920,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>A man, identified as Ryan Allen, is speaking directly to the camera in what appears to be an office or home setting. He is wearing a blue collared shirt and has a lavalier microphone clipped to it. He is discussing the topic of 'timeouts' as a parenting strategy. As he speaks, text captions appear on the screen, summarizing his points. He argues that while there is a narrative that timeouts are damaging, research actually shows they are an effective form of discipline with no long-term negative effects. He clarifies that the problems arise when timeouts are used ineffectively, such as too frequently, too harshly, or out of anger, rather than being part of a broader behavior management plan.</t>
+          <t>Time outs.... 😬.. #tiktoktherapist #discipline #timeout #parentsoftiktok #teachersoftiktok</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -1047,7 +1058,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>A man in a pink collared shirt is speaking directly to the camera, providing advice on parenting. He is responding to a comment from a user named 'audreyhernandez00' about when to start using time-outs for a child. The man explains that time-outs are only recommended for children aged two and up. For younger children, he suggests setting limits paired with positive redirection and using distraction. He also advises against giving attention to negative behavior. The video has closed captions and a microphone clipped to his shirt.</t>
+          <t>Reply to @audreyhernandez00 #tiktoktherapist #parentsoftiktok #teachersoftiktok #timeout</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -1185,7 +1196,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>A man, identified as Ryan Allen, is speaking directly to the camera in what appears to be a home office. He is giving a '60 second tip' on how to effectively use timeouts as a parenting strategy. He explains the steps, including setting limits, using timeouts as a consequence for the third time a limit is broken, and the importance of connecting with the child afterward. The video is presented in a clear, educational style.</t>
+          <t>Effectively using timeouts. #tiktoktherapist #timeout #discipline #parentsoftiktok #edutok #learnontiktok #childrearing</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -1319,7 +1330,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>The video is a nostalgic clip from the creator's childhood. It begins with a young boy, presumably the creator at age 7, looking out a window. He then runs into a living room, grabs a blanket, and runs back outside. The scene is set in a suburban neighborhood during what appears to be dusk. The video is accompanied by a text overlay that reads, '7 year old me asking my friend to come outside after he got in trouble 😭'. The audio features an adult woman yelling aggressively at someone off-screen, telling them to get off her porch.</t>
+          <t>Free my boy✊🏽😭 #timeout #freemyboy #yallrememberthis #goodtimes #childhoodmemories #ftk</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1457,7 +1468,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>The video shows a young toddler girl sitting on the bottom step of a staircase, seemingly in a time-out. She is crying and appears to be testing her mother's patience by trying to get her to come over. The mother's voice can be heard saying 'sit' and 'no' as the child continues to cry and fuss. The child then stands up and walks towards the camera, smiling. The video is shot in a home setting with a baby swing and other toys visible.</t>
+          <t>#foryourpage #fyp #toddlersoftiktok #toddlertok #tantrum #timeout #parenting #parentsoftiktok #punishment #parents #momsoftiktok</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1591,7 +1602,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>A young child is shown kneeling on a carpeted floor with their back to the camera, facing a wall. The child is in a room with a window covered by vertical blinds and a wooden door. The video is a screen recording of a video call, likely Facetime, as indicated by the on-screen text. In the bottom right corner, a woman is visible in a smaller window, watching the child. The video has several text overlays, including 'FLANKE'W AJENOU!' (Haitian Creole for 'Time out!'), a sad emoji, a 'PARENT APPROVED!' sticker, and a Haitian flag. The child remains in the same position throughout the clip.</t>
+          <t>#Parenting #HaitianCulture #Ajenou #🇭🇹 #daddyduties #facetime #timeout #putontimeout #quaratinetime #haitian #haitiantiktok</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1725,7 +1736,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>A woman with long, dark braids is sitting in a chair and speaking directly to the camera. She is wearing a black shirt and white earphones. She is responding to a comment about time-outs and time-ins. She explains that she uses 'time-outs' for herself as a parent when she is overwhelmed, and 'time-ins' for her child when they are out of control. She uses hand gestures to emphasize her points.</t>
+          <t>Reply to @copacetic4 #parenting #spanking #timeout #timein #circleofsecurity #childtherapist</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1863,7 +1874,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>The video shows a young toddler, a girl with dark hair in a small ponytail, standing in a corner of a room with dark wood floors. She is wearing a light-colored onesie with a pattern. An adult female voice is heard instructing her to turn around and face the wall, stating, "Ava, you're in timeout." The child turns to face the wall and stands there, sometimes looking back at the camera with a smile. The adult then specifies the duration of the timeout as "five minutes." The scene is a simple, real-life moment of a parent disciplining their child.</t>
+          <t>Today we introduced #timeout to our 19 month old. I think she gets it now. 🥴 #notsobabyanymore  #toddlersoftiktok #earlyterribletwos #discipline</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1997,7 +2008,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>The video is a comedic skit about a father giving his daughter a time-out. It begins with the father yelling at his daughter, Audrey, for throwing her brother. He then directs her to go to her time-out spot. The daughter walks up the stairs and into a closet, where she lies down on a blanket. The father then appears and hands her a blue cup, which she drinks from. The video is presented as a humorous take on the parenting strategy of time-out.</t>
+          <t>Where is your time-out spot? #parenting #parentingtips #timeout #daddydaughter</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -2131,7 +2142,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>A man in a maroon sweater stands in a room with a decorative wall piece behind him, speaking directly to the camera. He is giving a series of tips on how to use timeouts as a parenting strategy. As he speaks, large animated numbers (1, 2, 3, 4, 5) appear on screen to mark each tip. Text overlays appear at the bottom of the screen, summarizing his points. He uses hand gestures to emphasize his words and maintains a friendly, engaging expression throughout the video.</t>
+          <t>Do your timeouts look like this? #parentcoach #childtherapy #consciousparent #learnontiktok #discipline #raisingkids</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -2269,7 +2280,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>The video is a tour of a child's 'time-in' or 'calm-down corner' in a home. The camera pans across the corner, showing a large, fluffy white body pillow for sitting, two framed posters on the wall—one with calming techniques like 'Breathe deeply' and 'Read a book,' and another with pictures of children's faces representing different emotions like 'happy,' 'sad,' and 'angry.' A white bookshelf holds children's books, and a wooden basket contains various sensory items such as a sensory bottle, a yellow pop-it toy, a blue textured mat, and a 'Colors &amp; Shapes' coloring book with markers. The video is presented as a guide to creating a positive space for children to self-regulate.</t>
+          <t>#gentleparenting #parenting #consciousparenting #toddler #timeout #timeoutcorner #calmdown #calmdowncorner #montessori #bigfeelings #childdevelopment</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -2399,7 +2410,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>The video is a comedic skit about a child being put in time-out. It begins with a young girl in a room, looking surprised. An off-screen adult male voice scolds her, telling her to go to time-out. The girl then walks up a carpeted staircase and into a bedroom. She is then shown lying on the floor inside a closet, which is the 'time-out' spot. The adult male voice continues to give instructions. Finally, a hand reaches into the closet and hands the girl a blue sippy cup, implying she is allowed to have a drink during her time-out.</t>
+          <t>Sometimes I give 2 cups #timeout #parenting #fypシ</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -2533,7 +2544,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>A woman with long dark hair, wearing a mauve-colored shirt and a necklace, stands in a living room and speaks directly to the camera. She is holding a glass with ice and a beverage. Behind her, a decorated Christmas tree is visible to the left, and a couch with pillows is to the right. The text overlay on the screen reads 'Time-Ins vs. Time Outs'. She uses hand gestures as she talks, discussing the topic of parenting strategies.</t>
+          <t>Time-Ins vs. Time Outs #timein #timeouts #gentleparenting #conciousparenting #fyp</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -2671,7 +2682,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>The video is a parenting tip compilation that argues against using 'time-out' as a disciplinary method for children. It opens with a toddler playing with balls in a water table, with text overlay stating 'Don't put your child in TIME-OUT'. The video then presents four alternative strategies: 1. Give related consequences (shown with a toddler mopping up a spill), 2. Offer connection (shown with a mother hugging her child), 3. Have a 'time-in' / calming corner (shown with a cozy corner setup), and 4. Go outside together (shown with a toddler playing in a park). The video uses quick cuts and text overlays to convey its message.</t>
+          <t>#parenting #ftm #newmom #timeout #gentleparenting #consciousparenting #toddler #whenimolder #whatsgoingon #routine #mustbenice</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -2809,7 +2820,39 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>The video features a woman speaking directly to the camera in a home setting with a staircase in the background. She discusses the parenting strategy of 'time-outs'. The video includes cutaway scenes to a younger girl with a confused expression, accompanied by thought bubbles that read 'What did I even do?' and 'I hate her!'. The speaker explains that research shows time-outs are ineffective for young children because their brains are not developed enough for reflection. She then introduces 'time-ins' as a better alternative, explaining the steps involved. A red banner with the text 'Time Out' is displayed on screen for a portion of the video, and a white banner with 'Time In' appears later. The speaker is identified as Grace Riyas.</t>
+          <t>#shorts
+Positive Discipline Techniques for Toddlers &amp; Preschoolers: Time-Outs vs Time-Ins
+Timeouts might seem like a better alternative to spanking, yelling, etc. because there is no physical abuse!
+However, research shows that reflection doesn’t happen with kids under 5 or even until the age of 9.
+Because.....
+The prefrontal cortex (the part of the brain that is responsible for logic and reasoning) is not well developed 🤷‍♀️
+So during timeouts, there is no reflection/learning as kids just sit and think about how mean we are for giving them a time out 😜🤷‍♀️
+Instead of time-outs, try time-ins 👈
+Time ins:
+💥 IDENTIFY the cause for the behavior
+💥 EMPATHIZE &amp; ARTICULATE
+💥 Keep the child CLOSE
+💥 CONNECT &amp; Help CALM down
+💥 PROBLEM SOLVE
+For instance,
+If your child has a hard time playing together with a friend.
+🌱 Identify the cause/reason for the behavior – Why did my child hit her friend? Is my child tired, hungry, overstimulated, etc?
+🌱 Empathize &amp; Articulate – I know you are having a hard time now. Let’s take a break and come back later!
+🌱 Keep the child close – Sit down with the child in the other room.
+🌱 Try to connect – Do you need a hug? Do you want to talk about it?
+🌱 Problem Solve – We know that hands are for hugging! But it can be frustrating when a friend grabs your toy! What do you think we can do?
+Disciplining is not punishing a child for his/her behavior, it is teaching the skill needed for the child to make a better choice next time 👈
+What are your thoughts?
+Would love to know 😊
+👉👉👉 For more parenting tips, follow me on Instagram: https://www.instagram.com/grace_riyas/ 
+Say Hi on Social: 
+🔅 Website: www.lurnsmart.com
+🔅 Instagram: https://www.instagram.com/grace_riyas/
+🔅 Facebook Page: www.facebook.com/lurnsmart
+🔅 Facebook Group: https://www.facebook.com/groups/277753503017358
+Music Credit: Bensounds
+Keywords: positive discipline techniques, positive discipline, positive discipline for toddlers,  positive discipline parenting, 
+positive discipline for preschoolers, gentle parenting</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -2945,7 +2988,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a white sweater, sits on the floor and speaks directly to the camera. She is in a room with a white dresser and a patterned rug. A text box in the upper left corner shows a comment from a user asking for a video on time-outs for a 2-year-old. The woman, identified by on-screen text as Kelsey, a therapist who specializes in parenting and young children, responds to the comment. She explains that while time-outs can temporarily stop unwanted behavior, they are not a good long-term solution. She argues that children learn best when their nervous system feels calm, which is achieved through trust, co-regulation, and safety. She states that leaving a child alone to process emotions makes them feel rejected, scared, and alone, which is not conducive to learning. She concludes by saying that a dysregulated child needs a calm adult.</t>
+          <t>Reply to @foxonthebeachh time in vs time out #positiveparenting#gentleparenting#timeout#responsiveparenting#childtherapist#tiktoktherapy#parentcoaching#parentingadvice#toddlerlifemom#consciousparenting#toddlertantrums#discipline#parentingadvice#toddler101#toddleradvice#parentingcoach</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -3083,7 +3126,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>A young woman with brown hair and blue eyes, wearing a green tank top and a beige cardigan, sits in a car and speaks directly to the camera. She is responding to a comment about her parenting style, specifically addressing the use of timeouts. She explains that while her family uses timeouts, she does not allow other people to use them with her children. She clarifies that timeouts are only used for her three-year-old, not the two-year-old, and only in cases of continued offense. She emphasizes that timeouts must be used properly and that she and her husband are the only ones who use them.</t>
+          <t>Reply to @papashetphase time outs can be an awesome tool when used properly, and I don’t want someone else undoing the hard work we’ve put in to make them a positive thing #gentleparenting #SmellLikeIrishSpring #fyp #momsoftiktok #timeout #authoritativeparenting</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -3221,7 +3264,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>The video is a comedic skit about a father giving his daughter a 'Blippi time-out'. The father, in a dark t-shirt, tells his daughter to go to her room. The scene cuts to the daughter sitting on the floor watching Blippi on TV. The father then appears in her bedroom, and the scene cuts to him dramatically emerging from a closet wearing a Blippi costume. He then puts on a grotesque monster mask and playfully scares his daughter, who is initially shocked but then laughs. The video uses the popular children's character Blippi as a humorous device to parody the concept of a 'time-out'.</t>
+          <t>Don’t watch too much Blippi kids #blippi @Stevin John #timeout #parenting</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -3365,7 +3408,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>The video is a comedic skit about a father using the 'Blippi time-out' as a punishment for his daughter. It begins with the father, in a monster mask, telling the girl to go to 'Blippi time-out.' The scene cuts to the father in normal clothes, sternly enforcing the punishment. The daughter, sitting on the floor watching Blippi on TV, is then shown being 'sent' to the closet. The father dramatically emerges from the closet wearing a Blippi costume, only to then transform back into the monster mask and scare the girl, who is now sitting on her bed. The video uses jump scares and exaggerated expressions for comedic effect.</t>
+          <t>Too much Blippi can get you into trouble. #blippi #timeout #instagood #tv #kids #parents #parenting #parent #mom #dad #explore #explorepage #comedy #reels #themccartys</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -3510,7 +3553,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>A man with a beard and short brown hair, wearing a black fleece jacket with a white and blue geometric pattern, speaks directly to the camera in what appears to be a kitchen. He is animated, using hand gestures and varied facial expressions as he talks. The camera is handheld and moves slightly with him. Text overlays appear on the screen, asking, 'ARE YOU YELLING ALL THE TIME?' and 'And nothing is changing?!'. The background shows kitchen cabinets and a window.</t>
+          <t>Why it’s not working anymore! #behaviorchange #kids #parenting101 #howtochange #parentingkids #toddlers #meltdowns #timeout #parenting</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -3648,7 +3691,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>The video is a comedic skit about a child's 'time-out'. A man, presumably the father, tells his young daughter to go to 'Little Mermaid time-out'. The daughter, sitting on the floor, looks confused. The father then pretends to be the character Ursula from 'The Little Mermaid', emerging from a closet in a full costume with a red wig and a green mermaid tail. He then pretends to be the character Ariel, sitting on the daughter's bed and speaking to her. The video uses exaggerated acting and a playful tone to parody the concept of a time-out.</t>
+          <t>When Disney meets Annabel #littlemermaid #timeout #parenting</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -3799,7 +3842,8 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a white collared shirt, speaks directly to the camera in a well-lit room. Behind her is a dark bookshelf with books and framed photos. She uses hand gestures as she talks, and red text overlays appear on the screen, highlighting key points of her message. The Instagram handle 'tiaparentingcoach' is visible in the bottom left corner.</t>
+          <t>Ready to make a change and stop constantly battling your kids?
+Watch this! https://tiaslightham.click/watch</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -3937,7 +3981,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>The video is shot from a first-person perspective, following a young toddler girl in a green shirt and patterned leggings as she moves through a home. She is holding a blue ball and appears to be in trouble, as indicated by the on-screen text 'Im in trouble 😂'. She walks past a dog lying on the floor, then runs towards a pink play tent. The camera follows her as she enters the tent and hides behind the mesh walls, peeking out at the camera. The setting is a lived-in home with various toys and household items visible.</t>
+          <t>#Toddler #KnuckleSandwichesToddler #CaliRose #TimeOut #Blacktiktok -#MyGirl 🥰</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -4071,7 +4115,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>A young child is sitting on a bed, covered with a grey comforter. An adult's hand holds a blue and light-blue bento-style lunchbox in front of the child. The child, wearing a light-colored patterned shirt, looks at the lunchbox and then at the adult, speaking and gesturing. The child then pulls the comforter over their head, peeks out, and continues to talk while holding the lunchbox. The adult's hand reappears, and the child continues to interact with them.</t>
+          <t>Mendisiplinkan anak tanpa perlu marah-marah #austinkoh #timeout #parenting #tipsparenting #fyp #viral2022 #viral #fypシ #bayilucu #serunyaditiktok #parentingtips #parentingindonesia #bayigemes #bayitiktok #GoyangGemasMochiBaby</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -4205,7 +4249,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>The video is a static image with animated text overlays. It features a cartoon illustration of a mother and daughter, both wearing hijabs, sitting together and reading a book. The background is a solid peach color with abstract, colorful shapes. The text on the screen is in Indonesian and provides a series of Islamic amalans (good deeds) that parents can perform for their children, attributed to Habib Rifky Alaydrus. The text appears sequentially, suggesting a spoken narration.</t>
+          <t>Yuk amalkan moms, Semoga Bermanfaat 🥰 #tipsparenting #habibrifkyalaydrus #parenting #doauntukanak #masukberanda #ibuhebat</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -4331,7 +4375,8 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>A woman with long, curly brown hair and glasses is speaking directly to the camera in a close-up shot. She is in a room with patterned wallpaper and a clock visible in the background. A green text box is overlaid on the video, asking, 'How long does it take for gentle parenting to work?'. She is discussing the time it takes to see results from practicing gentle parenting, stating that it can take years or even decades.</t>
+          <t>Following on from yesterday’s post - how long does it take to see results when you practice Gentle Parenting? 
+#gentleparenting</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -4459,11 +4504,7 @@
           <t>Throw out timeout!!! #parenting #discipline #parentingtips #timeout</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>A woman is sitting in a rolling office chair in what appears to be a home office or living room, filming herself with a smartphone mounted on a tripod. She is speaking directly to the camera, gesturing with her hands as she explains her opinion on a parenting strategy. A clipboard with papers rests on her lap. The video is titled 'Why I don't like timeout'.</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
         <v>1660275339</v>
       </c>
@@ -4599,7 +4640,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>A man wearing a red and grey baseball cap and a white t-shirt stands indoors, speaking directly to the camera. He is discussing the parenting strategy of timeouts. The background shows a room with a wooden ceiling and white walls, with a window and sheer curtains visible. The text 'Timeouts' is overlaid at the top of the screen. The man uses various facial expressions and hand gestures as he talks.</t>
+          <t xml:space="preserve">Timeouts: some brief thoughts. If you want me to get into this more just ask in the comments. #parentingtips #parenting101 #gentleparenting </t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -4737,7 +4778,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>A woman is sitting on a chair in a room, speaking directly to the camera which is mounted on a tripod. She is holding a clipboard and a pen, gesturing with her hands as she talks. The room has a bed, a wardrobe, and a clock on the wall. A text overlay on the video reads 'Don't use Time Out'. The woman appears to be giving advice or sharing her opinion on parenting strategies.</t>
+          <t>Don’t use timeout #timeout #consequences #discipline #howtodiscipline #parent #parentingtips #parenting #parentingwisdom #parentadvice</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -4871,7 +4912,21 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>A woman with long dark hair, wearing a grey tank top, speaks directly to the camera in a brightly lit room with a turquoise wall. On the wall behind her are colorful butterfly decorations and a whiteboard with drawings of children. She is explaining the 'Just Right Challenge,' a concept in occupational therapy. As she speaks, text overlays appear on the screen, reinforcing her key points. She uses hand gestures, such as raising her index finger, to emphasize her words.</t>
+          <t>The just right challenge is NOT about desensitizing your child. 
+It’s not about increasing their tolerance to XYZ.
+It’s about building pathways to regulation in the context environments or tasks that right now might be sending them straight into fight or flight.
+It’s about giving them multiple opportunities to feel accomplished and be successful.
+It’s about giving them the confidence to try new things, even unrelated to the goal you may have for them.
+To be a neurodiverse affirming parent, it’s important that you spend some time reflecting on the goals that you create for your child. 
+Really make sure the goal you’re trying to attain is not one that makes it more convenient for you or one that makes your child appear more neurotypical. 
+But that the goal will truly add to your child’s quality of life. 
+The next most important tip that we often forget, is that when you do offer the just right challenge, make sure it’s in a way that’s playful, non forceful, AND… AND AND AND…. Is at a neutral time!!
+For example… playing and practicing with nail clippers at a time when you’re not expected to actually cut their nails. 
+Playing in the tub when it’s not bath time. 
+Exploring food when it’s not breakfast, lunch, dinner or snack time.
+If you have a sensory sensitive kid and you want to learn how to do the just right challenge with them, join the Sensory W.I.S.E. Solutions fall cohort, enrollment closes tonight at midnight PST and the cohort starts on Sunday! 
+Send me a DM for more information or head to the link in my bio to learn more. 
+#OccupationalTherapy #Pediatrics #SensoryChallenges #SensorySensitive #SensoryProcessing #SensitiveChild #SensoryProcessingDisorder #Sensory #SensoryLearning #SensoryPlay #SensoryIntegration #SensoryActivities #SensoryKids #SensorySeeker #GentleParenting #ParentingHelp #MindfulParenting #ToddlerTips #neurodiversity #Neurodivergent #NeurodivergentBrain #NeurodiversityAcceptance #Neurodiversityisbeautiful</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -5003,7 +5058,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>The video is a comedic skit about a 'timeout' punishment. It begins with a young girl hitting a toddler with a baseball bat. An adult male then takes the toddler and pretends to be a scary clown, hiding in a closet and then jumping out to scare the girl, who is sitting on her bed. The video uses jump scares and exaggerated reactions for comedic effect.</t>
+          <t xml:space="preserve">Scariest time-out youll ever see #jinglejangle #timeout #clown #parenting </t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -5141,7 +5196,15 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a black top, speaks directly to the camera in what appears to be a home setting. She is presenting a list of reasons why timeouts are ineffective for disciplining children. As she speaks, text overlays appear on the screen to highlight each point she makes, such as 'They lead to power struggles,' 'They ignore the cause,' and 'They rupture relationships.' She uses hand gestures to emphasize her points.</t>
+          <t>• 5 Reasons Why Timeouts Don't Work! • 
+⁠
+During a tantrum or meltdown, remember it's so important to acknowledge and let your child know you're there for them as they're dealing with these big emotions.⁠
+Just hold space and be there. 
+⁠
+Withdrawing love - like timeouts - doesn't solve the issue or teach a child anything.⁠
+⁠
+Rather than being dismissive and reactive, model &amp; guide them to redirect their behavior.⁠ Understand the underlying needs and teach them skills that cultivate impulse control and regulation. 
+#shorts #children #gentleparenting  #timeout #tantrum #behaviour #naturalparenting  #parentwithoutfear #motherhood #honestmotherhood #motherisaverb #connectedparenting #connected #babyhood #normalizegentleparenting #gentlediscipline #emotionalregulation #parentalsupport #connectedchildraising #responsiveparenting #positiveparentingsolutions #positiveparentingtips #dadlife #momlife #cryitout #positiveparenting #montessori #montessoriathome #consciousparenting #peacefulparenting #gentleparenting #responsiveparenting  #respectfulparenting</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -5279,7 +5342,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a beige sweater, sits at a table and speaks directly to the camera. She is in a home setting, with a dining area and a white hutch visible in the background. She speaks passionately and uses hand gestures to emphasize her points. A text overlay on the screen reads 'Stop with the timeouts!!!'.</t>
+          <t xml:space="preserve">Stop with the timeouts!!! #timeout #parenting #tipsforparenting #calmleadershipparenting #parentingquestions #parentingwisdom #parentinghacks #discipline #howtodiscipline </t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -5417,7 +5480,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>The video is a static image, likely a screenshot from a TikTok post, featuring an infographic about the stages of baby tooth eruption. The background shows a scenic mountain view. The infographic, titled 'Kapan Bayi Tumbuh Gigi?' (When Do Babies Grow Teeth?), displays a timeline with age ranges in months (e.g., 16-23 months, 13-19 months) and corresponding illustrations of baby teeth. The post is from the account 'Senyum Anak Official' and includes a text overlay asking, 'Catat baik-baik ya papa bunda biar tahu perkembangan gigi sikecil' (Write this down, parents, so you know your child's tooth development). The audio is a cheerful, upbeat song.</t>
+          <t xml:space="preserve">Menginjak usia enam bulan, bayi umumnya akan memasuki tahapan tumbuh gigi. Nah Moms, yuk, pahami tahapan usia tumbuh gigi bayi berikut ini!⁠ ⁠ Si kecil lagi ada di fase tumbuh gigi yang mana, Moms?⁠ ⁠@CuddleMe Distributor @Senyum Anak ID #parentingindonesia #quoteswa #tipsparenting #StaycationHematChallenge #literasi15detik #parentingtips #parentingm #parent #MenjadiIndonesia #parenting #parentinghacks #quotesislam #parentingislami #quotesparenting #parenting101 </t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -5549,11 +5612,7 @@
           <t>TikTok video #7167082318707002670</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>A woman with long brown hair, wearing a white and green sweater, sits in the driver's seat of a car and speaks directly to the camera. She is discussing the topic of 'timeouts' in parenting. Text overlays appear on the screen throughout the video, highlighting key phrases from her speech such as 'Child Psychologist,' 'TIMEOUTS HAVE RECENTLY FALLEN OUT OF FAVOR IN THE MENTAL HEALTH COMMUNITY,' and 'THE RELATIONSHIP WITH THE CAREGIVER.' She uses hand gestures to emphasize her points and shares a personal anecdote about her son needing a timeout. The video is shot in a vertical format, typical of social media content.</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
         <v>1668716409</v>
       </c>
@@ -5685,7 +5744,8 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>The video is a comedic skit about a parent disciplining their children. It begins with a man, presumably the father, sternly telling his two children to stop fighting and go to 'Grunch time out.' The children, a girl and a boy in costumes, look confused. The scene then cuts to the father in a bedroom with the children, who are now sitting on a bed. Suddenly, a person in a Grinch costume, wearing a Santa hat, bursts into the room and scares the children, implying that the 'Grunch' is the scary entity they are being sent to. The video uses humor to play on the children's fear of the Grinch.</t>
+          <t>Fear the Grunch, not the grinch!
+#timeout #parents #parenting #parentingtips #grinch #christmas #grinchmas #omg #mom #dad #discipline #grinchchristmas #funny #themccartys #explore #reels</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -5821,7 +5881,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>A man wearing a black baseball cap and a grey t-shirt speaks directly to the camera in a home setting. He discusses the parenting strategy of giving children timeouts. He argues that timeouts are a form of 'time out from positive reinforcement' and suggests that instead of giving a child a timeout, a parent should 'take a timeout with them' to help the child co-regulate. Text overlays appear on the screen to emphasize his points, such as 'Stop GIVING your kids a TIMEOUT' and 'Instead TAKE a TIMEOUT with them!'. He uses animated facial expressions and gestures to engage the viewer.</t>
+          <t xml:space="preserve">Is giving Timeouts effective… ? Well it depends on the goal. Long term learning and empathy? No. Lifelong emotional regulation? Nope. Teaching your kid to self isolate and suppress feelings for your short term convenience? Yup.   That said, sometimes they do need to calm down and reset. So instead of giving them a punitive timeout… just take one with them.   #timein #timeouts #parentingadvice #parenting101 #effectivediscipline </t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -5959,7 +6019,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>The video shows a playful interaction between two cats in a modern apartment at night. Initially, a calico cat is seen wrestling with a black and white cat on the floor. The calico cat then gets up and walks away, eventually stopping by a large window with a view of a city skyline. A person's hand enters the frame and points at the calico cat, which then sits down and looks up at the person. The text overlay reads, 'The time I put Elie on a time out.'</t>
+          <t xml:space="preserve">Would she listen? #fyp </t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -6093,7 +6153,18 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>The video is a clip from the television show 'Supernanny,' featuring a stern woman, the 'Supernanny,' confronting a young woman in a school uniform. The Supernanny is imposing a series of punishments, including making the young woman do the dinner, wash the dishes, and wash the kitchen floor, all without help. The young woman protests, calling the punishment 'unfair' and 'mean,' and becomes visibly upset, crying and threatening to leave. The Supernanny remains firm, stating she is not her child and will not be dictated to. The scene captures a tense disciplinary moment between a caregiver and a young person.</t>
+          <t>▶ SUBSCRIBE FOR MORE: http://bit.ly/SupernannyYT
+#Supernanny #JoFrost 
+▶ SUPERNANNY NEW SEASON 8: https://bit.ly/3fqGEPj
+▶ WATCH FULL EPISODES HERE: http://bit.ly/SupernannyS2FE
+▶ SUPERNANNY MOMENTS WE LOVE THE MOST: https://bit.ly/2MiofHH
+Supernanny is here to tackle tantrums, fights and naughty kids all over the world! Have you ever given your parents a hard time? How do you compare to these kids?
+Supernanny will help families get their behavior back on track- but it won’t be easy!! 😭 Expect lots of extreme tantrums, fighting kids and broken rules!
+🎥 These episodes were originally on  TV from 2004 to 2012, so it might look like it was filmed on a potato! 
+▶︎CHECK OUT THE SUPERNANNY WEBSITE ⇨ www.Supernanny.co.uk
+▶︎LIKE US ON FACEBOOK ⇨ www.facebook.com/OfficialSupernanny
+▶︎FOLLOW US ON TWITTER ⇨ www.twitter.com/Supernanny
+🌍 Check out the World’s Strictest Parents YouTube Channel for more tantrums, fights &amp; naughty kids from around the world:  ▶︎ http://bit.ly/worldsstrictestparents</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -6231,7 +6302,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>The video is a short, educational piece that critiques the common parenting practice of using time-outs. It begins with a woman looking directly at the camera with a serious expression, accompanied by text questioning the effectiveness of time-outs. The scene then cuts to a closed white door, with text appearing on screen to represent the internal thoughts a child might have during a time-out, such as 'I'm a bad kid' and 'I don't know what to do with these big feelings.' The video then shows the woman sitting on the floor in front of the door, hugging her knees, visually representing a child in distress. The overall message is that time-outs can be harmful and that a more supportive approach, like a 'time-in,' is better for a child's emotional development.</t>
+          <t xml:space="preserve">I used to use time-outs with my son when he was 2. I thought that was what I was supposed to do.    I was still operating from an Authoritarian approach where I would use punishment as a way to ‘control’ my toddler.   Yes, time-outs are much better than spanking or hurting children in any way. And if we are completely dysregulated, it’s best to walk away than do something we may regret later.   But, if you are in control of yourself and can remain calm, there is an even more effective way to handle your child’s meltdowns.    Time-outs can make children feel isolated and misunderstood, leading to increased feelings of anger and resentment later. This can also damage the parent-child relationship, as the child may feel rejected or abandoned.   Additionally, time-outs do not teach children how to regulate their emotions or solve problems in a healthy way. Instead, they simply provide a temporary fix to a behavior issue without addressing the root cause.   Since becoming a gentle parent, I have ditched the time-outs and now do “time-ins” with my son. It’s been easier to remain calm now that I understand what is going on when my son has tantrums.    As long as my son remains safe (not throwing things or hurting anyone), I sit with him while he lets the feelings of anger, disappointment, frustration, etc. move through his body.    These strong emotions can often feel uncomfortable and scary for a child as they are still learning what they are and how they feel. Rather than having them experience these feelings by themselves, we can sit with them and let them know they are not alone.    Sitting with them let’s your child know their feelings are safe and temporary. We can also be there to guide them on behaviors that are appropriate and not appropriate when they are upset. - T A G S - #gentleparenting #consciousparenting #respectfulparenting  #tantrums #momtips #momtipsandtricks #reparenting #powerstruggles #selfregulation #triggers #parentingtriggers #positiveparenting #cyclebreaker #generationaltrauma #breakingthecycle #timeouts #timeins #reparentingmyself #reparenting #motherhoodunplugged </t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -6369,7 +6440,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>A man, presumably the father, is talking to his young son in a hallway. The son is standing with his back to the camera, wearing a black and red 'Itachi' shirt. The father asks the son if his mother put him in time out, and the son confirms. The father then asks how long the time out was, and the son replies it was 60 minutes. The father then asks the son how long he was given, and the son replies it was 5 minutes. The father is standing with his back to the camera, and the son is standing in front of him.</t>
+          <t xml:space="preserve">So much for the appeal process..😅 #family #couplecomedy #fyp </t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -6511,7 +6582,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a camouflage jacket over a maroon shirt, sits in a brown leather armchair and speaks directly to the camera. She is in a well-lit room, possibly a living room, with a white couch and a painting visible in the background. She uses various facial expressions, including smiling, squinting, and raising her eyebrows, to emphasize her points as she talks.</t>
+          <t>A child’s brain operates like a computer hard drive.  It takes in information and downloads it to the subconscious.
+But, the subconscious does not filter out good or bad, right or wrong.
+This means the words we say have power because the subconscious of a child believes whatever we say. 
+In the heat of the moment, it is easy to say things we don’t mean and don’t want our children to remember. 
+But the subconscious remembers everything.
+The amazing news is that words of encouragement spoken and repeated over time can transform a child’s unconscious negative programming. 
+Got a child who is picking up on everything they hear?
+Congratulations!!! You’re raising an intelligent kid 😍
+Need help showing up reprogramming their negative thinking? DM me or schedule a discovery brainstorm call with me at mothersintraining.org. 
+I am for you!! 🤍
+#calmness #competent #smartparenting #strongwilled #strongwilledchild #boymom #girlmomma #instamommy #igmom #toddlermoms #mothersintraining #gentleparenting #motherhood #motherdaughter #motherson #ohiomom #njmom</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -6643,7 +6724,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>The video is a comedic skit presented as a text message conversation. A man, the main speaker, is shown in a small video overlay reacting to messages. The conversation starts with someone telling him his daughter is 'acting up' and he should come get her. He refuses to believe it and demands to see pictures of his 'baby girl.' The other person then sends a picture of a baby, which the man reacts to with exaggerated affection. The conversation then takes a humorous turn when the other person sends a message saying, 'She poured milk on your PS5.' The man's reaction shifts from loving to shocked and exasperated, playing on the trope of a parent's favorite things being ruined by their child.</t>
+          <t xml:space="preserve">Replying to @wildandfree.1 SEE NOW WE GOT BEEF. #greenscreen </t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -6777,7 +6858,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>A woman with blonde hair and pink tips is speaking directly to the camera in a selfie-style video. She is wearing a dark grey sweater and white wireless earbuds. She discusses the topic of sending children to their room as a form of discipline, explaining that while it gets a bad reputation, there are circumstances where it is necessary. She uses the example of her own children wrestling, stating that when their play gets too rough, she sends them to their room to decompress and cool down. She emphasizes that the goal is to prevent them from getting hurt when their energy levels become too high.</t>
+          <t xml:space="preserve">Is it okay to send kids to their room? #punishment #timeout #gentleparenting #gentleparentingtips #authoritativeparent #parentinghacks </t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -6915,7 +6996,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a black top, speaks directly to the camera in what appears to be a home setting. She is discussing the parenting strategy of 'time out' and expressing her strong disapproval of it. As she speaks, text overlays appear on the screen, highlighting key phrases from her speech such as 'Are you still doing timeout? Do this instead.' and 'I can't stand time out.' She uses hand gestures to emphasize her points and describes the negative emotional impact she believes time out has on a child, suggesting it makes them feel miserable and like they are 'sitting there crying.' She then proposes an alternative consequence, such as having to clean up after dinner or a '24 hour media blackout.' The video is presented in a direct-to-camera, vlog-style format.</t>
+          <t xml:space="preserve">Are you still doing Time out? Do this instead. #timeout #parenting #parent #calmleadershipparenting #howtoparent #tipsforparenting #discipline #tipsforparents #parentinghacks #parentingtips #parentingwisdom #howtodiscipline </t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -7051,11 +7132,7 @@
           <t>TikTok video #7191210577086156078</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>A young girl is sitting at a kitchen table, seemingly in a playful discussion with an off-screen adult. The adult is giving her a choice of punishments for saying a bad word. The girl initially suggests a bag of Doritos, then considers 'no iPad for a week,' and finally settles on 'time out for one hour.' She then negotiates, suggesting '5 minutes' instead. The adult agrees to the 5-minute time-out, and they shake hands to seal the deal. The girl is smiling and appears to be enjoying the interaction.</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
         <v>1674334199</v>
       </c>
@@ -7183,7 +7260,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a black top, sits in a chair and speaks directly to the camera. She is in a room with a grey wall, a white cabinet with potted plants on top, and a dark couch in the background. She is discussing and criticizing three common parenting discipline methods. Text overlays appear on the screen to highlight her points, such as 'Top 3 discipline methods I can't stand,' 'the least bad one is timeout,' 'number 2 is the diversion method,' and 'my absolute least favorite common discipline method is the countdown.' She uses hand gestures and expressive facial movements as she explains her views.</t>
+          <t xml:space="preserve">Top three common discipline methods I can’t stand #timeout #countdown #diversion #parenting #behaviormanagement #parent #calmleadershipparenting #howtoparent #tipsforparents #parentinghacks #parentingwisdom #parentingtips #howtodiscipline #discipline #tipsforparenting #toddlers #parentingtoddlers </t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -7321,7 +7398,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>A woman with long, dark curly hair and a red sweater is speaking directly to the camera in what appears to be a home setting. She is responding to a comment about needing a timeout as a parent. She expresses her strong opinion that timeouts for children are harmful, stating they are a form of punishment that damages the parent-child bond. She argues that timeouts send the message that a child is 'unlovable' when they are upset. She then suggests an alternative, stating, 'Hold your child instead of giving them a timeout!'</t>
+          <t>Replying to @raimyroamss Hold your child instead of giving them a time out! #timeouts #timeout #ReadySetLift #shamingkids #kidswhohit #consciousparenting #gentleparenting #unschoolingmom #parent #unschoolinglife #noncoerciveparenting #tiktokviral #mom #chooseloveinstead #girls #boundarieswithkids #parentingwithlove #mykidhitsback #adultism #cursingkids</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -7459,7 +7536,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>The video is a compilation of clips from a parenting reality show, likely 'Supernanny'. It begins with a young boy on a staircase, with text overlay 'Disciplining kids with soap'. The scene cuts to a woman, presumably the mother, who is then shown in a kitchen with her son. She uses a bottle of orange liquid soap, which she claims is hand soap, and forces her son to drink it as a form of punishment. The video then cuts to a different woman, likely the show's nanny or a guest expert, who is shocked and concerned by the mother's actions. The final scene shows the mother and the expert in a discussion, with the expert questioning the mother's parenting choices.</t>
+          <t>Mum used hand soap to teach her kids a leason #supernanny#notascousebird#jofrost#mom#dad#parenting#fails#angry#sad#kids#family#lol#humour#outrage#usa#america#timeout#fyp#foryou#foryourpage#uk#lol#shock</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -7606,7 +7683,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>In a carpeted hallway, a young boy and a young girl are standing with their hands pressed against a wall, facing away from the camera. An adult man walks into the frame from the right, approaches them, and also places his hands on the wall. The children appear to be in a 'time-out' position. The man then turns to the camera and speaks, seemingly to explain the situation.</t>
+          <t xml:space="preserve">#humor #parentsoftiktok #parenting #parentingtips #hack #timeout #family #fyp </t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -7749,7 +7826,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>A woman wearing a hijab and a cream-colored sweater sits in a well-lit room with a potted plant behind her. She speaks directly to the camera, gesturing with her hands. Text overlays appear on the screen to illustrate her points. The video contrasts the parent's perception of what a child learns during a timeout with what the child is actually learning, arguing that timeouts can damage a child's sense of security and unconditional love.</t>
+          <t>Timeout (naughty corner) is a form of punishment.  Yeah maybe not physically, but definitely emotionally. We have enough science and research that proves that today. We know better now.  Children don’t learn what they are supposed to do instead of hitting, when we leave them alone to figure out what they did wrong. How will they know how to react if we don’t model that to them or guide them into how they can respond instead?!  Children learn what they’re supposed to do when we first model our response, then talk to them and tell them what they’re supposed to do. Our role as parents isn’t to make our children feel more terrible for their behaviour. I don’t know a child who doesn’t already feel terrible after he/she realises how he/she behaved. They already feel ashamed, scared and confused!  Our role is to set very clear boundaries while loving them unconditionally. It’s to guide them into expressing their feelings in a nonviolent way. #timeout #naughtycorner #timeouts #consciousparenting #parenting #parentingtips #parenting101 #parents #parentadvice #respectfulparenting #dubaiparent #parentcoach #unconditional #unconditionallove #unconditionalparenting #dubai</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -7883,7 +7960,14 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>A woman wearing a hijab and a cream-colored sweater sits in a well-lit room with a plant in the background. She speaks directly to the camera, gesturing with her hands as she explains a parenting concept. Text overlays appear on the screen to emphasize her points. The video contrasts the intended lesson of a 'time-out' with the actual lesson a child might learn, suggesting that time-outs can lead to feelings of isolation and insecurity rather than reflection.</t>
+          <t>Timeout (naughty corner) is a form of punishment. 
+Yeah maybe not physically, but definitely emotionally.
+We have enough science and research that proves that today. We know better now. 
+Children don’t learn what they are supposed to do instead of hitting, when we leave them alone to figure out what they did wrong. How will they know how to react if we don’t model that to them or guide them into how they can respond instead?! 
+Children learn what they’re supposed to do when we first model our response, then talk to them and tell them what they’re supposed to do.
+Our role as parents isn’t to make our children feel more terrible for their behaviour. I don’t know a child who doesn’t already feel terrible after he/she realises how he/she behaved. They already feel ashamed, scared and confused! 
+Our role is to set very clear boundaries while loving them unconditionally. It’s to guide them into expressing their feelings in a nonviolent way.
+#timeout #naughtycorner #timeouts #consciousparenting #parenting #parentingtips #parenting101 #parents #parentadvice #respectfulparenting #dubaiparent #parentcoach #unconditional #unconditionallove #unconditionalparenting #dubai</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -8019,7 +8103,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>The video is a fast-paced montage of a young man, identified as Lenny Freestyle, interacting with children in various settings. It begins on a soccer field at night, then cuts to a McDonald's play area where he plays with a young boy. Next, he is seen in a park, smiling and playing with a young boy who holds a soccer ball. The scene shifts to him hugging a young girl at what appears to be a community event. The video then shows a large group of children and adults posing together indoors. Finally, it ends with the young man on a stage, reaching out to a crowd of excited children at an outdoor festival. The overall theme is of a public figure or influencer engaging in positive and fun activities with children.</t>
+          <t xml:space="preserve">Prêt à être daron ahah 😂 Ig : lennyfreestyle </t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -8153,7 +8237,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>A man and a young child are sitting on a red leather bench in a living room, playing a video game together. The man is holding a game controller and the child is wearing a headset. The child suddenly gets up and runs away, and the man looks concerned. The child then returns, and the man smiles. The child then runs away again, and the man looks concerned again. The child then returns, and the man smiles again.</t>
+          <t xml:space="preserve">That was a close one😅 #couplecomedy #family #fyp </t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -8292,7 +8376,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>The video begins with a shot of a young child lying on a small blue couch in a classroom's 'Calming Corner,' reading a book. The scene then cuts to a close-up of the same child, who has a bandage on her forehead, being interviewed by an off-screen adult. The child explains that she went to the calming corner on her own because she wanted some time to herself to 'recharge.' She mentions that she read a book about African animals and that her friend Lulu tried to join her, but she wanted to be alone. The video is narrated by the child's parent, who expresses surprise at seeing her child in the calming corner, initially thinking it was a punishment.</t>
+          <t xml:space="preserve">My first thought and reaction was oh no she must’ve done something disruptive in class. It really goes to show how our own experiences affect our mind set. This also shows how effective and positive it is to have a calming corner versus the traditional time out corner, where it was used for children only when they “misbehave.” Calming corner is all encompassing and can be used as a safe space to calm the mind. #alonetime #prek #calmingcorner #timeout #kindergarten #parenting #parentingtips #gentleparenting </t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -8430,7 +8514,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>An older woman, identified as Dr. Meena A Shah, is sitting in a black office chair and speaking directly to the camera. She is wearing a black outfit with lace details and a colorful, patterned shawl. She uses various hand gestures as she talks. Behind her, on a white wall, are two framed items: a large certificate from 'FASHION INDIA' and a smaller, dark-framed photograph.</t>
+          <t>#disciplinechild #discipline #postplanmanager #makbelajar #inspiration #parentinginspiration #parentingeducation #parentinginspiring #educationparenting #homeeducation #education #homeschooling #inspiringparenting #learnforalife #inpiring #selfdiscipline #disciplineadult #deepcallsuntodeep #character #timeouttechnique #timeout #ankitmehta #disciplinetechnique #pediatrichealth #parenting #child #disciplinekids #kids #disciplinechildren #children</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -8562,7 +8646,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>A woman, identified as Danielle Aubin, LCSW, is walking outdoors on a sunny day while speaking directly to the camera in a vlog-style video. She is discussing the concept of 'time out' as a parenting strategy. She explains that 'time out' is a form of positive reinforcement where a child is removed from a desirable situation, such as being with their family, to act as a deterrent. She argues that this process is designed to cause pain, which she refers to as 'social pain and mental and psychological pain,' and therefore, she does not recommend its use. She states that she works with other methods to teach children better behavior without using pain or negative reinforcement.</t>
+          <t xml:space="preserve">That’s why kids cry when they go to time out.. because it hurts. #timeout #gentleparenting #parentcoach #traumainformed #therapist #fyp </t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -8700,7 +8784,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>A man with a beard, wearing a grey t-shirt, speaks directly to the camera in a selfie-style video. In the background, a baby is lying on a couch, covered with a blanket and sucking on a pacifier. The man is discussing his parenting philosophy, specifically his decision to stop using time-outs for his children.</t>
+          <t xml:space="preserve">Sorry gang Dads in time out.. #timeout #dadtok #homegrownhumour #dadjoke #parents #parenting </t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -8838,7 +8922,11 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>The video is a short-form educational talk from a series called 'Parenting with Mimansa'. It features a woman, Mimansa Singh Tanwar, a Clinical Psychologist, speaking directly to the camera. She is discussing the parenting strategy of 'time-outs'. The video begins with a colorful animated title card introducing the topic and speaker, then transitions to the speaker in a plain room with a curtain background. She uses hand gestures as she explains her points. The video concludes with an end card providing a YouTube handle and a helpline number.</t>
+          <t>Parenting with Mimansa: Chapter 4
+Mimansa Singh Tanwar, Clinical Psychologist &amp; Head - Fortis School Mental Health Program, Department of Mental Health and Behavioural Sciences, Fortis Healthcare on time-outs.
+#shorts #parenting #timeout #validate #balance #expectations #expectation  #parentingtips #parents #children #learning #rolemodel #parenthood #parentingtalk #parenttalk  #positive  #tips #awareness #psychology #mindspace #prioritise #wellbeing #psychology #youtube #youtubeshorts #insights #child #counselling #confidence #conflict #regulate #growth #adapt #belief #belief #beliefssystem 
+Music: Mes(s)merized
+Musician: Philip E Morris</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -8974,7 +9062,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>The video is a comparison between two parenting strategies: 'Time Out' and 'Time In'. A woman, the main speaker, acts out both scenarios. In the 'Time Out' segment, she adopts a stern, authoritative tone, telling a child to go to their room to calm down. This is contrasted with the 'Time In' segment, where she takes a calming breath, acknowledges her own need to regulate, and then invites the child to come and talk together. The video uses on-screen text to explain the concepts and their effects, arguing that 'Time Out' isolates a child and fails to teach them how to improve, while 'Time In' is a collaborative process that helps both parent and child regulate emotions and problem-solve.</t>
+          <t xml:space="preserve">#timeout is often considered an okay practice in #gentleparenting, but research suggests that isolating a child who is misbehaving doesn’t decrease that misbehavior. It’s typically treated as punishment, and punishments aren’t an effective means to deter inappropriate behavior. Shame is often the result of “timeouts”which directly contributes to feelings of low self esteem and anxiety. Time-Ins, however, are a great way to teach your child how to regulate their emotions AND to talk to them about ways they can navigate challenges with decorum. It’s also a good opportunity for parents to regulate with their child so both can approach the situation from a place of calm and intention. Have you tried Time-ins with your child? Sound off below! #blackmamatok #momtok#consciousparenting #breakgenerationalcurses </t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -9112,7 +9200,11 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>The video is a short-form educational clip from a series called 'Parenting with Mimansa'. It features Mimansa Singh Tanwar, a Clinical Psychologist, who speaks directly to the camera against a plain background. She is discussing how to handle a difficult conversation with a child, using the example of a six-year-old asking about a 'crush'. She outlines two approaches: dismissing the topic or sitting down calmly to understand the child's perspective. The video is branded with the Fortis Healthcare logo and includes a helpline number.</t>
+          <t>Parenting with Mimansa: Chapter 5, Part 1
+Mimansa Singh Tanwar, Clinical Psychologist &amp; Head - Fortis School Mental Health Program, Department of Mental Health and Behavioural Sciences, Fortis Healthcare on how to handle a difficult conversation.
+#shorts #conversation  #parenting #timeout #validate #balance #expectations #expectation  #parentingtips #parents #children #learning #rolemodel #parenthood #parentingtalk #parenttalk  #positive  #tips #awareness #psychology #mindspace #prioritise #wellbeing #psychology #youtube #youtubeshorts #insights #child #counselling #confidence #conflict #regulate #growth #adapt #belief #belief #beliefssystem 
+Music: Mes(s)merized
+Musician: Philip E Morris</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -9244,7 +9336,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>The video is a compilation of various simple, hand-drawn illustrations in a sketchbook. The drawings include a cartoon character with a cap, a trash can with an angry face, a cartoon version of the Tasmanian Devil, and a character holding a spray paint can. The video is set to a background rap song and features text overlays in Portuguese, such as 'desenhos para fazer no caderno' (drawings to do in a notebook), 'nivel: medio' (level: medium), and 'aprenda a viralizar o seu tiktok chama no pv' (learn to make your TikTok go viral, call it in the PV). The overall theme is a tutorial or showcase of easy-to-draw doodles.</t>
+          <t xml:space="preserve">desenhos para fazer no caderno #graffiti #Anime #arte #desenho #caderno </t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -9374,7 +9466,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>The video is a personal vlog-style story from a woman named Marcela Collier, a parenting coach. She recounts a recent experience with her seven-year-old son when she tried to enforce screen time limits. Initially, he reacted with defiance. She explains that she then shifted her approach, applying her coaching principles by giving him a choice between finishing his screen time now or doing it later at night. Her son chose to end it immediately, resulting in a peaceful resolution. The video is presented as a lesson in 'gentle parenting' and 'parenting with understanding,' contrasting a traditional, authoritarian style with a more empathetic, choice-based one.</t>
+          <t xml:space="preserve">It’s developmentally appropriate for a 7 year old to want autonomy, and strong willed children crave that autonomy.  My son chose to end screentime on his own with no drama after he felt he had a choice.  How is screentime limits going for you? Are gentle parenting limits working? How do you feel in yoir parenting. Please let me know how you’re doing in the comments. #gentleparenting #consciousparenting #respectfulparenting #parentingwithunderstanding </t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -9508,7 +9600,18 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>The video is a short educational reel from the Instagram account 'mamaslearn'. It features a static, upward-looking shot of palm tree fronds against a bright sky. Overlaid on the video are text cards that sequentially present common misconceptions about conscious parenting. Each misconception is introduced with a large white 'X' symbol, followed by the false statement. The video then explains why the statement is a myth, providing a more accurate perspective on the topic.</t>
+          <t>⬇️Feel free to add more misconceptions in the comments below!⬇️
+I explain the ones I mentioned in the Reel in depth below:
+❌Parents NEVER say “No” to their kids - False
+✅Parents definitely do say “No” by creating clear boundaries while still acknowledging the child’s feelings. It could sound like this: “Are you sad because I said you can’t watch TV right now? I know you really like watching that show. No TV on weekdays, but we can go paint together. What do you think?”
+❌Parents don’t teach their children discipline - False
+✅Disciple doesn’t have to happen in the form of punishment. Parents have more awareness of how the child’s brain works and therefore choose to connect with the child before correcting the behaviour. Parents also acknowledge certain behaviours to be a form of communicating a feeling or unmet need.
+❌Parents don’t let their kids cry - False
+✅Parents acknowledge that crying is a way of expressing emotions and neither force it nor prevent it. For example, parents don’t please children or give them what they want just to prevent them from crying.
+❌Parent are ALWAYS calm - False 
+✅Parents are learning to be more aware of their dysregulated nervous system, but that doesn’t mean that they are ALWAYS calm. They’re human too. 
+What else would you like to add?⬇️ Let me know in the comments!
+#consciousparenting #gentleparenting #positiveparenting #parentingreels #misconceptions #myth #false #nottrue #peacefulparenting #parenting #tips #parentinginformation #dubaimom #nature</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -9644,7 +9747,11 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>The video is a short-form educational clip from a series called 'Parenting with Mimansa,' featuring Mimansa Singh Tanwar, a Clinical Psychologist. The video opens with a title card introducing the topic, 'Chapter 6: Building the connection.' Mimansa then speaks directly to the camera, explaining that parents may feel their children are becoming distant or indifferent. She suggests this can happen when parents overwhelm their children by being too prescriptive or by overcompensating due to guilt. She uses hand gestures and a beaded necklace as a prop while speaking. The video concludes with a screen providing contact information for Fortis 24x7 Helpline and a YouTube channel handle.</t>
+          <t>Parenting with Mimansa: Chapter 6
+Mimansa Singh Tanwar, Clinical Psychologist &amp; Head - Fortis School Mental Health Program, Department of Mental Health and Behavioural Sciences, Fortis Healthcare on building the connection with your child 
+#shorts #connection #conversation  #parenting #timeout #validate #balance #expectations #expectation  #parentingtips #parents #children #learning #rolemodel #parenthood #parentingtalk #parenttalk  #positive  #tips #awareness #psychology #mindspace #prioritise #wellbeing #psychology #youtube #youtubeshorts #insights #child #counselling #confidence #conflict #regulate #growth #adapt #belief #belief #beliefssystem 
+Music: Mes(s)merized
+Musician: Philip E Morris</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -9780,7 +9887,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>A young woman with long dark hair, wearing a white tank top and multiple necklaces, sits on the floor in a bedroom and speaks directly to the camera. She is explaining her parenting philosophy, specifically why she does not use timeouts. She uses expressive hand gestures and facial expressions as she talks. The video is a response to a viewer's request, as indicated by on-screen text. She explains that timeouts don't teach the child about the consequences of their actions and can be counterproductive. She mentions that her approach is what works for her and her children.</t>
+          <t xml:space="preserve">Replying to @samanthamckinnon25 “TIME IN” instead of “TIME OUT” sounds cheesy but it’s a good way of describing it. The root of bad behavior = unmet needs.  DISCLAIMER: I’m no “parent coach” or anyone official. This is the parenting style I’ve adopted and use with my girls. It’s what work for me and them, and what I’ve found extremely successful. Take what you need and leave what you don’t. If it doesn’t resonate with you, that’s okay too.❤️ #consciousparenting #gentleparenting #toddlermom #respectfulparenting #momtok </t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -9918,7 +10025,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>A woman with blonde hair, wearing a green sweatshirt and a necklace, speaks directly to the camera in a home setting. She is discussing the parenting strategy of 'timeouts'. She explains that when a child's behavior, like refusing to clean up, is driven by the function of 'escape', a timeout can be counterproductive as it allows the child to achieve their goal of avoiding the task. She identifies herself as a behavior analyst and a parent coach.</t>
+          <t xml:space="preserve">Time outs are an age old parenting and behavior tool. Opinions on time outs have changed over the years. Here is a behaviora approach to understanding how and when to use time outs! #timeout #parents #parenting #parentingtips #behavior #behaviorchange #function #understandingbehavior </t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -10052,7 +10159,20 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>The video is a parenting tip presented by a woman in a home setting. It contrasts two disciplinary methods for children: 'Time Out' and 'Time In'. The creator first acts out a scenario where she, as a parent, uses a 'Time Out' by telling a child to face a wall and think about their behavior. She then explains the drawbacks of this method, such as teaching children to ignore their feelings. The video then transitions to promoting 'Time In' as a better alternative. In this scenario, the creator sits with the child, acknowledges their frustration, and guides them through calming techniques like deep breathing. The video uses on-screen text to highlight key points and phrases for both methods.</t>
+          <t>Most parents have heard of or used the “Time Out” method when our children are misbehaving.  This method is appealing to most parents as it is more gentle compared to spanking our child.  I definitely think the “Time Out” method is better than spanking but I personally don’t believe this is the most effective way because of the following 
+❗️Punishment discourages our children from expressing their big feelings to others.
+❗️Indirectly, we as parents are telling them we will ignore their feelings in moments when they are having big feelings.
+An alternative that I personally find more effective is “Time In”.  Given “Time In” is less familiar to most, let me give a quick summary.  It’s very similar to “Time Out” where we provide our little ones a break to calm down and express themselves.  The major difference is we as parents will be in the presence of the child during this period to provide empathy, support and guidance as they learn to navigate their big feelings.  Our presence is really important because if we remove ourselves and leave them alone, it makes our children more stressed and isolated.  Here are a few ideas I following during “Time In” 
+🔅Remove the child from the stressful situation together
+🔅Label / Give language to their emotions by using phrases
+🔅Provide comfort until they are calm enough to communicate with you
+🔅Empathize and offer alternative ideas for handling the emotions and situations
+💬🔽Have you heard of Time In?  Let me know down below if you have any ideas, stories that you want to share with us.
+💫Share with friends who can benefit from this.
+💫Follow @mom.ma.g for more positive discipline + gentle parenting tips.
+.
+.
+#Mindfulparenting #parentingquotes #parentingtip #parenting101 #parentingskills #parentinggoals #respectfulparenting #parentcoach #childdevelopment #motherhoodquotes #parenthood_unveiled #lifewithlittles #mindfulmama #asianmama #positiveparenting #positiveparentingsolutions #motherhoodunited #gentleparenting #consciousparenting #parentsupport #timeout #timein #childhoodunplugged #teachermom #homeeducator #parenteducator #asianpareting #asiaparent</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -10188,7 +10308,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>The video is a parenting advice segment where a woman demonstrates two different disciplinary approaches for a child's tantrum. Initially, she acts out a scenario where she is frustrated and demands a 'time out' from the child, who is portrayed by the same woman. This is presented as a less helpful method. The scene then transitions to her demonstrating an alternative approach called 'Time In'. She sits with the child, validates their feelings, and guides them through calming down together, emphasizing empathy and support.</t>
+          <t>Most parents have heard of or used the “Time Out” method when our children are misbehaving.  This method is appealing to most parents as it is more gentle compared to spanking our child.  I definitely think the “Time Out” method is better than spanking but I personally don’t believe this is the most effective way because of the following  ❗️Punishment discourages our children from expressing their big feelings to others. ❗️Indirectly, we as parents are telling them we will ignore their feelings in moments when they are having big feelings. An alternative that I personally find more effective is “Time In”.  Given “Time In” is less familiar to most, let me give a quick summary.  It’s very similar to “Time Out” where we provide our little ones a break to calm down and express themselves.  The major difference is we as parents will be in the presence of the child during this period to provide empathy, support and guidance as they learn to navigate their big feelings.  Our presence is really important because if we remove ourselves and leave them alone, it makes our children more stressed and isolated.  Here are a few ideas I following during “Time In”  🔅Remove the child from the stressful situation together 🔅Label / Give language to their emotions by using phrases 🔅Provide comfort until they are calm enough to communicate with you 🔅Empathize and offer alternative ideas for handling the emotions and situations 💬🔽Have you heard of Time In?  Let me know down below if you have any ideas, stories that you want to share with us. 💫Share with friends who can benefit from this. 💫Follow for more positive discipline + gentle parenting tips. . . #Mindfulparenting #parentingquotes #parentingtip #parenting101 #parentingskills #parentinggoals #respectfulparenting #parentcoach #childdevelopment #motherhoodquotes #parenthood_unveiled #lifewithlittles #mindfulmama #asianmama #positiveparenting #positiveparentingsolutions #motherhoodunited #gentleparenting #consciousparenting #parentsupport #timeout #timein #childhoodunplugged #teachermom #homeeducator #parenteducator #asianpareting #asiaparent</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -10322,7 +10442,13 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>The video is a parenting tutorial demonstrating how to handle a toddler's tantrum. It begins with a young boy crying and gesturing in a room. A woman, presumably his mother, kneels down to his level to talk to him calmly. She explains that he needs to be respectful and nice to others, and if he chooses not to, he won't be able to play with others. When the boy continues to cry, she guides him to a quiet corner where he sits against the wall. She explains that this is a time for him to calm down. After a moment, she helps him up, and he is able to return to playing. The video uses on-screen text to explain the reasoning behind each step.</t>
+          <t>I understand that sometimes it can be confusing to know when to use timeouts and when not to use them. 
+The main thing to remember is that timeout should not be used as the form of discipline. 
+It is simply just your child taking a break from what's going on around them. Taking some time to cool down and breathe for a minute. Then, we can come together and find a solution! 😃
+.
+.
+.
+#mindfulparenting #mindfulmama #positiveparenting #parentinggoals #parenting101 #parentcoach #parentingtip #parentingskills #parentsupport #parenting #parentingquotes #toddler #toddlermom #toddlerlife #toddlertantrums #toddlertips #toddlertime #tantrum #tantrums #2under2club #2under2 #motherhood #mother #motherhoodunited #momlife #momlifeisthebestlife #momlifeunfiltered #momlifebelike</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -10458,7 +10584,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>A woman with long dark hair and sunglasses on her head is sitting on a couch and speaking directly to the camera. She is responding to a comment from a viewer named Lauren Patricia, who requested a video on consequences for discipline. The woman is discussing the topic of age-appropriate discipline for young children, emphasizing the importance of consistency and positive reinforcement. The background shows a shelf with framed family photos.</t>
+          <t xml:space="preserve">Replying to @Lauren Patricia I hope this helps! Consequences are an important part of teaching children right from wrong. It is important for you as the parent to be in charge, not your child. #consequences #lossofprivilege #timeout #naturalconsequences #lifelessons #parenting #parentsoftiktok #parentingtips #momsoftiktok #mom #dad #teacher #preschool #preschoolvibes #preschoolteacher #teachertok </t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -10592,7 +10718,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>A woman stands in a well-lit room with large windows and sheer curtains, speaking directly to the camera. She is wearing a navy blue shirt and light blue jeans. She uses hand gestures to emphasize her points as she discusses parenting strategies. Text overlays appear on the screen, highlighting key phrases such as 'WHY TIMEOUTS DONT WORK' and 'NUMBER ONE WHEN WE SEND OUR CHILD TO THEIR ROOM'. She explains that timeouts are ineffective because children need parental support to regulate their emotions and that hitting is often a result of overwhelming emotions. She suggests alternative strategies like coaching and empathy to help children manage their behavior.</t>
+          <t xml:space="preserve">Sending kids into their room for a timeout will not stop them from hitting or hurting. It won’t change behaviour. ##parentingtips #parentinghack #gentleparenting #connectedparenting #helpforparents #toddler #siblingsfighting </t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -10730,7 +10856,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a grey tank top and a white smartwatch, sits at a table and speaks directly to the camera. She is in a room with a black couch, a white cabinet, and potted plants in the background. She is passionately explaining why she dislikes the parenting strategy of 'time out'. Text overlays appear on the screen, reinforcing her points, such as 'Why I hate timeout so much', 'I think it's humiliating', and 'it's negative'. She describes the experience of being sent to a corner and then being berated by a parent, comparing it to a negative work environment. Towards the end, she promotes her own resources, mentioning a free 'behavior board' on her website and a course for parents of children aged 3-12 on how to 'set yourself up as a calm leader'.</t>
+          <t xml:space="preserve">Why I hate timeout so much. #timeout #parenting #howtoparent #calmleadershipparenting #parentingtips #parentingwisdom #parenthelp #parents </t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -10864,7 +10990,8 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in what appears to be a home office. He is addressing a viewer's question about whether leaving their partner will 'turn their children's lives upside down.' He explains that while separation is difficult and disruptive for children, it is often better for the parents' well-being and can be beneficial if the relationship was unhealthy. He concludes by advising the viewer to make a decision that feels right for them and to support their children through the process.</t>
+          <t>Q&amp;A Will I turn my children’s lives upside down if I leave their father?
+#davidcoleman #drdavidcoleman #psychology #clinicalpsychology #clinicalpsychologist #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -10992,7 +11119,8 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>A man, identified as a clinical psychologist, sits in a home office with a wooden ceiling and bookshelves in the background. He speaks directly into a microphone, addressing the question of whether it is better for a child to start school at four and a half or five and a half years old. He explains that he would always recommend erring on the side of the child being slightly older, citing the numerous social, academic, and psychological demands placed on children when they begin school. He suggests that a slightly older child is better equipped to handle the new environment, meeting new people, and being away from parents for longer periods.</t>
+          <t>Q&amp;A best age for starting school? 
+#davidcoleman #drdavidcoleman #psychology #clinicalpsychology #clinicalpsychologist #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -11120,7 +11248,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>The video shows a scene from the TV show 'How I Met Your Mother'. A man in a colorful jacket and white pants runs into a room and surprises a woman in a black and white checkered dress. He lifts her up in a hug, and she exclaims, "Surprise!". The woman then asks, "Am I getting married?". The scene takes place in what appears to be a bar or lounge setting, with other people sitting at tables in the background. The video is a clip from the show, not a real-life event.</t>
+          <t>If you don’t know which scene this is from then that tells me you are behind on how I Met your father and I’m here to remind you that there is a new episode that dropped today, so catch up … 😘</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -11251,7 +11379,21 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>The video shows a young girl in a living room being told to go to 'time out' by her mother. The girl initially refuses and then slowly walks to a corner by the fireplace. Her father then enters, pretends to be in time out as well, and joins her in the corner. The mother then also joins them, and the family is shown standing together in the corner, humorously treating it as a 'club' they are all part of.</t>
+          <t>✅ Subscribe: youtube.com/channel/UCWY0kGk9qNfw7PVvace0MOA
+Family adventures, challenges, and parenting stories await you! Watch our pregnancy updates, toddler fun, and heartwarming milestones.
+🌟 Popular Videos
+Lanie Is Pregnant! youtube.com/watch?v=NFnSaGqwCNg
+World's Biggest Gender Reveal! https://youtu.be/E_kPsUlv60s
+Telling My Husband &amp; Kids I'm Pregnant! https://www.youtube.com/watch?v=HhL6wsr-Sy4
+📸 Follow Us
+Family: @thechurcofamily
+Lanie: @laniechurco
+Nick: @nickchurco
+Blakeley: @blakeley_churco
+Bryer: @bryer.churco
+🍼 Who Are We?
+The Churco Family brings you love, laughter, and togetherness through every milestone and adventure.
+Subscribe today and join the fun!</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -11389,7 +11531,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>The video is a short clip from the anime 'One Piece,' featuring a comparison of the character Sanji before and after the timeskip. It starts with a scene of Sanji laughing, followed by a scene of him smoking a cigarette. The video then cuts to a man speaking directly to the camera against a green checkered background, discussing his opinion on the anime.</t>
+          <t xml:space="preserve">Do yall think one piece was better before or after the timeskip? #anime #onepiece #sanji #luffy </t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -11523,7 +11665,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>The video is a comedic skit about parenting. It begins in a bedroom where a mother is on her phone. Her young son approaches her asking for a snack, but she tells him to eat dinner first. The scene then cuts to the kitchen where the father is dancing with headphones on. The son runs to him with the same request, and the father immediately gives him the snack, saying 'You can.' The son then runs back to the mother, who is now angry and tells the father, 'You are in timeout.' The father looks surprised and confused. The video ends with the father and son standing together, looking at a framed picture on the wall.</t>
+          <t xml:space="preserve">It never fails 😭🤣 @The Trench Family❤️ #timeout #parenting #relatable #marriedlife #kids </t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -11668,11 +11810,7 @@
           <t>It never fails 😭🤣 #timeout #parenting #relatable #marriedlife #kids</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>The video is a comedic skit about parenting. It begins with a mother in bed telling her young son 'no' when he asks for a snack. The scene then cuts to the father in the kitchen, who is listening to music on his refrigerator's screen. When the son asks the father for the same snack, the father immediately says 'yes' and gives it to him. The final scene shows the father and son together, with the father looking at a picture on the wall, implying he is about to give the son a time-out, which is the opposite of what he just did.</t>
-        </is>
-      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
         <v>1689003541</v>
       </c>
@@ -11814,7 +11952,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>The video shows a playful family scene where a young girl, the baby sister, is acting as the authority figure. She walks up to her older sister, who is standing in a corner with her hands behind her back, and tells her to stop talking. The older sister is then joined by their father, who also stands in the corner. The baby sister continues to assert her dominance by telling both of them to stop talking, creating a humorous situation where the adults are being disciplined by the child.</t>
+          <t>Timeouts aren’t just for kids anymore! Baby sister showing her authority by giving big sis and dad a taste of timeout. 😅 #SiblingRivalry #LittleBoss #explore #dad #dadhumor #parenting #timeout #timeoutchallenges</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -11955,7 +12093,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>The video features a woman, Marcela Collier, a certified parenting coach, who is demonstrating and discussing the limitations of 'gentle parenting' techniques, specifically the 'calm down basket'. She shows items from the basket, such as a bubble wand and a rainbow-colored pop-it toy, while explaining that these tools are only effective for children who are already regulated and cannot be used as a strategy for children who are already in a state of dysregulation (e.g., hitting, kicking, throwing). She argues that these are 'preventative tools' and not effective for managing a child's immediate meltdown. The video concludes with her promoting her professional services, a Zoom class, to help parents manage their children's behavior.</t>
+          <t xml:space="preserve">This is why gentle parenting doesn’t work.  Are you into gentle parenting? Let me know #gentleparenting #respectfulparenting #parentingwithunderstanding #consciousparenting #parentingtips </t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -12093,7 +12231,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>The video is an educational piece about infant sleep positions. It features a close-up of a sleeping newborn baby on a colorful Hello Kitty-themed blanket. As the baby sleeps, text overlays in Indonesian appear sequentially, explaining the risks of certain sleep positions. The video first states that some sleep positions can cause SIDS or suffocation. It then warns against the 'Tidur Tengkurap' (prone sleeping) position, citing risks like suffocation and overheating. Next, it advises against the 'Tidur Posisi Miring' (side sleeping) position, warning of the risk of rolling onto the back and suffocation. Finally, it cautions against using a 'Bantal' (pillow), stating it can cause overheating, suffocation, and SIDS. The video uses a dramatic, high-energy electronic music track throughout.</t>
+          <t xml:space="preserve">#tipsparenting #tidurbayi #newborn </t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -12231,7 +12369,21 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>The video shows a woman and a young girl sitting together on a set of indoor stairs. The woman, presumably the mother, is sitting with her legs drawn up, while the girl sits beside her, looking up at her. The scene is meant to be a visual representation of a parenting tip. Text overlays appear sequentially, first suggesting to stop sending kids to time-out, and then offering an alternative approach: to stay with the child, acknowledge their feelings, and offer support. The woman leans in towards the girl, demonstrating the suggested supportive interaction.</t>
+          <t>𝗣𝗮𝗿𝗲𝗻𝘁𝗶𝗻𝗴 𝗦𝘁𝗿𝘂𝗴𝗴𝗹𝗲𝘀 (𝗔-𝗭): 𝗗 - 𝗗𝗶𝘀𝗰𝗶𝗽𝗹𝗶𝗻𝗲
+When our kids are misbehaving or experiencing big emotions, often our immediate reaction is to send our kids to timeout and have them calm down either in a corner facing a wall or in their rooms.
+Though this might seem like a good idea because it’s hard to talk during moments when emotions are heightened, it can be quite detrimental for kids.
+Sending your kids to time out as a method of discipline can indirectly teach them a couple of things.
+1. No one really accepts or understands me
+2. The love from people in my life is conditional
+3. Next time if I do something wrong in my parent’s eyes, I would try to hide it and not let them find out
+4. Out of fear of getting a time-out, I would pretend to be obedient
+5. Bad” emotions are not accepted in our household
+When our kids act out and experience these big emotions, remember that these emotions can be extremely overwhelming. Even we, as parents, struggle with emotions from time to time. So for kids who are new to emotions and do not have as much experience with emotions, it’s important for us to be physically close to them when they are experiencing it to help them navigate the complexity of emotions.
+So next time instead of @mom.ma.g
+🔅 “I can see that you are upset.” - Acknowledge their feelings and allow them to express their feelings safely
+🔅 “Tell me about it, I am here to listen.” - Let them know you are always here to guide and support them even through hard time
+🔅 “How can I help/ Can I give you a hug to make you feel better?” - Come up with healthy ways to express the emotions together and provide comfort if needed
+#parentingquotes #parenting101 #respectfulparenting #parentcoach #childdevelopment #motherhoodquotes #parenthood_unveiled #lifewithlittles #mindfulmama  #positiveparenting #positiveparentingsolutions #motherhoodunited #gentleparenting #consciousparenting #parentsupport #montessori #montessorikids #teachermom #homeeducator #parenteducator #timeout #timeout #parentingadvice #parenting #parentingproblems #parentingstruggles #parentinglife #parentingtips #parentingkids #earlychildhood #earlychildhooddevelopment</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -12367,7 +12519,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>The video is a short educational clip from a TikTok account. A woman with long blonde hair, identified as Dr. Kristen Cook, speaks directly to the camera. She is in an office setting with a bookshelf behind her. The video's title is 'How to Create an Effective Time Out'. She provides step-by-step instructions on how to implement a time-out for a child, including giving one warning, initiating the time-out calmly, and having a discussion afterward. The video uses on-screen text to emphasize key points.</t>
+          <t xml:space="preserve">How to create an effective time out #parenting #parentingtips #pediatricianmom #timeout #parentsoftiktok </t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -12497,7 +12649,8 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>A man, identified as a clinical psychologist, sits in an office with a wooden ceiling and bookshelves behind him. He speaks directly into a microphone, addressing a question from a viewer about their six-year-old child's tendency to cry when things don't go their way. He explains that the crying is likely a genuine expression of upset and frustration, not necessarily 'fake.' He advises parents to acknowledge the child's feelings without indulging the behavior, to be kind, and to move on from the moment without getting overly frustrated by the crying itself.</t>
+          <t>Q&amp;A 6 year old fake crying…
+#davidcoleman #drdavidcoleman #psychology #clinicalpsychology #clinicalpsychologist #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #parentingadvice</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -12629,7 +12782,13 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>The video is an educational talk by Mimansa Singh Tanwar, a Clinical Psychologist, for the Fortis National Mental Health Program. She discusses the signs of mental health problems in children. The video is presented in a vertical format, with the speaker in the center and text overlays appearing at the top to highlight each point. She outlines four key signs: 1. Changes in behavior (e.g., social withdrawal, lack of interest), 2. Changes in their emotions (e.g., sadness, anxiety), 3. Changes in performance (e.g., at school), and 4. Physiological changes. The video concludes with a call to action to 'Reach out to a Mental Health Expert' and provides the Fortis 24x7 helpline number.</t>
+          <t>Parenting with Mimansa: Chapter 8
+Mimansa Singh Tanwar, Clinical Psychologist &amp; Head - Fortis School Mental Health Program, Department of Mental Health and Behavioural Sciences, Fortis Healthcare on signs of Mental health problems in children.
+#short #mentalhealth #problem #mentalhealthmatters #childpsychology #childhood #children #connection #conversation  #parenting #timeout #validate #balance #expectations #expectation  #parentingtips #parents #children #learning #rolemodel #parenthood #parentingtalk #parenttalk  #positive  #tips #awareness #psychology #mindspace #prioritise #wellbeing #psychology #youtube #youtubeshorts #insights #child #counselling #confidence #conflict #regulate #growth #adapt #belief #belief #beliefssystem
+Music: See You
+Musician: @iksonmusic
+Music: Early Hours
+Musician: @iksonmusic</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -12761,7 +12920,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>A woman with dark hair pulled back and wearing a white top stands outdoors in front of a green hedge on a sunny day. She speaks directly to the camera, explaining her parenting philosophy. Text overlays appear on the screen, highlighting key points of her message. She discusses setting screen time limits for her children and contrasts 'collaborative discipline' with 'unilateral discipline'. She shares a story about her twins and how they responded to a screen time limit by unplugging their iPads and playing with other toys, which she attributes to the collaborative approach. She promotes her ebook, 'Discipline Without Harm', as a resource for more information.</t>
+          <t xml:space="preserve">Screen time limits that work! And using gentle parenting. Story time!  #gentleparentingdiscipline #gentleparenting #respectfulparenting #parentingwithunderstanding #parentingtips #screentimeforkids </t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -12899,7 +13058,11 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>A clinical psychologist named Mimansa Singh Tanwar speaks directly to the camera, providing advice on how to navigate online gaming with children. She outlines a four-step process, with each step appearing as a text overlay on the screen as she discusses it. The video is part of the 'Fortis National Mental Health Program' and includes the psychologist's name, title, and a helpline number.</t>
+          <t>Parenting with Mimansa: Chapter 8
+Mimansa Singh Tanwar, Clinical Psychologist &amp; Head - Fortis School Mental Health Program, Department of Mental Health and Behavioural Sciences, Fortis Healthcare on learning to navigate online gaming with your child.
+#shorts #onlinegaming #gamingaddiction #gaming #connection #conversation  #parenting #timeout #validate #balance #expectations #expectation  #parentingtips #parents #children #learning #rolemodel #parenthood #parentingtalk #parenttalk  #positive  #tips #awareness #psychology #mindspace #prioritise #wellbeing #psychology #youtube #youtubeshorts #insights #child #counselling #confidence #conflict #regulate #growth #adapt #belief #belief #beliefssystem
+Music: Early Hours
+Musician: @iksonmusic</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -13027,7 +13190,20 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>A woman with blonde hair in a bun, wearing a black tank top, speaks directly to the camera in what appears to be a home office. She is discussing the parenting strategy of 'time out'. She explains that while parents often use it for disobedience or acting out, she believes it's harmful because it isolates the child and withdraws affection, making the child feel abandoned. She argues that all behavior communicates a feeling and a need, and instead of time out, she suggests using a 'calm down corner' to help children identify their emotions. Towards the end of the video, she holds up a product called 'Calm Down Corner' and shows a phone screen with a 'on sale NOW' banner, indicating she is promoting this product.</t>
+          <t>A child who is forced into isolation when they show big emotions/behaviors learns: 👇🏼
+1. “My emotions aren’t safe to show others.”
+2. “When I show my most authentic self, people disconnect.”
+3. “I have to appear okay on the outside to regain connection, even if I’m not really okay.”
+4. “To feel safe and loved in relationships, I have to shift my thoughts, feelings and opinions to please or appease others, even if it’s not really what I think, feel or believe.”
+5. “It’s normal to experience emotional neglect in relationships.”
+6. “I am not loved and should not experience love when I’m at my worst.”
+7. “I’m bad for having any emotion other than happiness.”
+To teach a child how to connect with others positively, we have to connect with them positively. To teach a child how to have “good” behavior, we have to model TO them what we are demanding FROM them. 
+It really is that simple.
+If you’ve used time out as a discipline strategy and this is a huge eye-opener for you, give yourself so much grace. We are all learning together here.
+If you’d like a CONNECTIVE alternative to time out, my Calm Down Corner Kits are the perfect next step! I have Kids and Preteen &amp; Up kits available and, this week only, they’re 25% off making them just over $5 USD!!!!
+Tag a friend below if you find this helpful!
+#parenting #respectfulparenting #timeout</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -13159,7 +13335,8 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>A man, identified as a clinical psychologist, speaks directly to the camera in what appears to be a home office. He is addressing a common parental concern: a child watching pornography. He provides advice on how to handle the situation, emphasizing the importance of open communication with the child. He describes pornography as 'explicit,' 'degrading,' and 'misleading,' and stresses that it does not represent normal relationships. He recommends ongoing conversations to minimize the impact and suggests a website called 'Culture Reframed' as a resource for parents.</t>
+          <t>Q&amp;A 12 year old watching pornography…
+#davidcoleman #drdavidcoleman #psychology #clinicalpsychology #clinicalpsychologist #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #tipsparenting #parentinglife #dad #familytime #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -13287,7 +13464,8 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>A man, identified as David Coleman, a clinical psychologist, sits in front of a microphone and speaks directly to the camera. He is in a room with a wooden ceiling and a bookshelf in the background. He is discussing his opinion on a social media app called 'Just Talk' that is popular among children in third and fourth grade. He expresses his belief that the app is a 'total disaster' and unnecessary, arguing that children can use existing platforms like WhatsApp or FaceTime to contact their friends. He concludes by advising parents to be mindful of their children's social media use.</t>
+          <t>Q&amp;A My take on the “JusTalk” kids app…
+#davidcoleman #drdavidcoleman #psychology #clinicalpsychology #clinicalpsychologist #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -13423,7 +13601,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>The video shows two men in a dance studio with light blue walls and a wooden floor. One man, wearing a pink shirt and a cap, is standing and appears to be preparing to do a move. The other man, in a light-colored shirt and shorts, runs from the right side of the frame and performs a spinning kick, hitting the first man in the head. The first man is knocked backward and falls to the floor, landing on his back. The man who kicked him then runs out of the frame. The video is a short clip of a failed stunt or prank.</t>
+          <t>I guess he was trying to break dance? 😂🕺  #NationalDanceDay #fail</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -13553,7 +13731,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>A woman with blonde hair, wearing an orange sweater, is sitting in a car and speaking to the camera. She is reacting to a prompt displayed as text on the screen, which asks viewers to share a time they were sent to their room as a child and actually thought about what they did. Her facial expressions and tone of voice suggest she is playfully refusing to answer the question.</t>
+          <t xml:space="preserve">Fess up, you were plotting your revenge or working out how to NOT get caught next time. This is why traditional time outs don’t have the intended outcome in my opinion - but thankfully there are other ways which work more effectively #positivediscipline #mumlife #naughtystep #timeout #gentleparenting </t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -13687,7 +13865,8 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in what appears to be a home office. He is addressing a question from a viewer about whether their parenting style, specifically episodes of 'mom rage,' could have influenced their son's temperament. He explains that while children learn from their parents' behavior, a child's temperament is also innate. He suggests that parents can still influence their child's behavior by regulating their own emotions and avoiding yelling, even if they don't reach a 'rage stage.'</t>
+          <t>Q&amp;A Could I have have given my son a bad temper because I get really angry sometimes? 
+#davidcoleman #drdavidcoleman #psychology #clinicalpsychology #clinicalpsychologist #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -13819,7 +13998,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>A woman with her hair in a bun, wearing a beige long-sleeved shirt and a gold chain necklace, sits in a living room and speaks directly to the camera. She is passionately arguing against the use of 'time out' as a disciplinary method for children. She uses hand gestures to emphasize her points. The background includes a black leather couch, a white cabinet, and framed photos on the wall. Text overlays appear on the screen, reinforcing her message, such as 'Stop using timeout,' 'throw out time out,' and 'it's a form of shaming and humiliation.' She explains that time out is shaming and humiliating, offers no real lesson, and compares it to a workplace scenario where an employee is sent to a corner to think after making a mistake.</t>
+          <t xml:space="preserve">Stop using time out. #timeout #discipline #howtodiscipline #howtodisciplinekids #parentingadvice #parentingtipsandtricks #parentingcoach #parentcoach #calmleadershipparenting #leadershipparenting #parentadvice #parenting #parent #parentingchallenges </t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -13957,7 +14136,24 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>A woman with her hair in a bun, wearing a beige long-sleeved shirt and a gold chain necklace, sits in a living room and speaks directly to the camera. She is passionately arguing against the use of 'time out' as a disciplinary method for children. She uses hand gestures to emphasize her points. The background includes a black couch, a white cabinet with potted plants, and framed photos on the wall. Text overlays appear on the screen, reinforcing her message, such as 'Stop using timeout,' 'throw out time out,' and 'it's a form of shaming and humiliation.'</t>
+          <t>Get your FREE Behaviour Board HERE https://bratbusters.podia.com
+Welcome to Bratbusters. I’m Lisa Bunnage, and I love sharing what I’ve learned from decades of working with children. 
+If you’re a parent who wants to get mutual respect with your children, and learn how to become a calm leader, this is the place for you. 
+Where to Get Started:
+➡️ Get Respect in 5 Weeks Course (For Kids Aged 3-12) https://bratbusters.podia.com/126b3bf6-b5aa-4088-a040-0bb54beb82c8 
+➡️ Toddler Tantrum Busting Course https://bratbusters.podia.com/tantrum-busting
+➡️ Potty Training Course https://bratbusters.podia.com/parenting-made-easy-er 
+➡️ Toddler Biting / Hitting Course https://bratbusters.podia.com/toddlers-biting-hitting-etc 
+➡️ Private Coaching  https://bratbusters.com/coaching/ 
+➡️ FREE Behaviour Board  https://bratbusters.podia.com/
+Let’s Connect: 
+Instagram: https://www.instagram.com/bratbustersparenting/?hl=en 
+TikTok: https://www.tiktok.com/@bratbustersparenting?lang=en 
+YouTube: https://www.youtube.com/@BratBustersParenting 
+Website: https://bratbusters.com/ 
+#ParentingCoach #ParentCoach #ParentCoaching 
+Disclaimer:
+I am a Parenting Coach and a Mom.  I am not a licensed psychologist or counselor.  My services do not replace the care of psychologists or other healthcare professionals. Coaching is in no way to be construed or substituted as psychological counseling or any other type of therapy or medical advice.</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -14095,7 +14291,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>A woman is filming a video in a Kmart store, excitedly showing off a sensory toy she found. She holds up a small, colorful box for a 'Quick Pop Game Console,' which is a fidget toy with bubbles to pop. She mentions seeing the toy on TikTok and being happy to find it in-store for $9. She displays the toy from different angles, showing the pink, blue, and orange versions available.</t>
+          <t xml:space="preserve">@kmart australia #kmartsensory #quickpop #kmartfinds #kmartaustralia #rundontwalk </t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -14225,7 +14421,8 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>A bald man, identified as a clinical psychologist, sits in a home office with a wooden ceiling and bookshelves in the background. He speaks directly into a microphone, addressing a viewer's question about their 12-year-old son stealing money. He provides parenting advice, suggesting a shift from a punishment model to one that appeals to the child's better nature and encourages moral reasoning and reparative actions.</t>
+          <t>Q&amp;A 12 year old stealing money…
+#davidcoleman #drdavidcoleman #psychology #clinicalpsychology #clinicalpsychologist #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -14361,7 +14558,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>A woman with brown hair in a bun, wearing a black long-sleeved shirt, sits in a chair and speaks directly to the camera. She is in a room with a dark couch to her left and a white cabinet with potted plants on top to her right. Throughout the video, text overlays appear on the screen, reinforcing her message. She uses hand gestures as she speaks, emphasizing her points about parenting strategies.</t>
+          <t>Stop doing Time-Out! Time-out is humiliating and mean.  Imagine if you made a mistake at work and your boss sent you to the corner to think about what you did?  Kids feel that same humiliation, shame and sense of worthlessness. You never want to impose a consequence that makes kids feel bad about themselves.  They may hate the consequence but it shouldn’t make them feel bad about themselves. Check out the link in bio for my courses and coaching information. Lisa \#timeout #parenting #calmleadershipparenting #howtoparent #howtodiscipline #discipline #parenting #parent #kidsbehaviour #behaviourmanagement #behaviormanagement #parentinghelp #parentingadvice #parentingtips #parentadvice #parentingcoach #leadershipparenting</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -14499,7 +14696,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>A woman with long, wavy red hair and glasses is sitting in the driver's seat of a car, speaking directly to the camera. She is wearing a grey turtleneck sweater and gold hoop earrings. She holds a small green object in her hand and gestures with it as she talks. The video is a single, continuous shot from a fixed camera angle. Text overlays appear on the screen, including the main title 'Stop using timeout with your toddler and use THIS instead' and subtitles of her speech. She discusses the ineffectiveness of timeout for toddlers, explaining that it doesn't stop their negative emotions but rather makes them feel unsafe expressing them. She promotes an alternative approach, mentioning her experience coaching other parents and raising her own three children. She concludes by advertising her 'Toddler Tantrums Guide' as a resource for parents.</t>
+          <t xml:space="preserve">Stop using timeout with your toddler. Is timeout bad or good? Handle bad behaviors with toddlers using gentle parenting respectful parenting.  #toddlersoftiktok #parenting #raisingtoddlers #toddlermama #gentleparenting #2under2 #toddlertok #toddlertips #momtok #momsoftiktok #consciousparenting❤ </t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -14637,7 +14834,25 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>A woman with brown hair tied in a bun, wearing a black long-sleeved shirt, sits in a chair and speaks directly to the camera. She is in a room with a dark couch to her left and a white cabinet with potted plants on top to her right. She uses hand gestures as she talks. Text overlays appear on the screen, including 'Time-out makes kids feel like crap' at the bottom and various phrases at the top that change as she speaks, such as 'stop doing time outs' and 'when you send a child in a corner to think about what they did as a punishment'. She is discussing her opinion on the parenting strategy of time-outs.</t>
+          <t>Get your FREE Behaviour Board HERE https://bratbusters.podia.com
+Welcome to Bratbusters. I’m Lisa Bunnage, and I love sharing what I’ve learned from decades of working with children. 
+If you’re a parent who wants to get mutual respect with your children, and learn how to become a calm leader, this is the place for you. 
+Where to Get Started:
+➡️ Bratbusters Bootcamp: Your 5 Week Transformation (For Kids Aged 3-12) https://bratbusters.podia.com/126b3bf6-b5aa-4088-a040-0bb54beb82c8 
+➡️ Bedtime Battles Course https://bratbusters.podia.com/bedtime-battles 
+➡️ Toddler Tantrum Busting Course https://bratbusters.podia.com/tantrum-busting
+➡️ Potty Training Course https://bratbusters.podia.com/parenting-made-easy-er 
+➡️ Toddler Biting / Hitting Course https://bratbusters.podia.com/toddlers-biting-hitting-etc 
+➡️ Private Coaching  https://bratbusters.com/coaching/ 
+➡️ FREE Behaviour Board  https://bratbusters.podia.com/
+Let’s Connect: 
+Instagram: https://www.instagram.com/bratbustersparenting/?hl=en 
+TikTok: https://www.tiktok.com/@bratbustersparenting?lang=en 
+YouTube: https://www.youtube.com/@BratBustersParenting 
+Website: https://bratbusters.com/ 
+#ParentingCoach #ParentCoach #ParentCoaching 
+Disclaimer:
+I am a Parenting Coach and a Mom.  I am not a licensed psychologist or counselor.  My services do not replace the care of psychologists or other healthcare professionals. Coaching is in no way to be construed or substituted as psychological counseling or any other type of therapy or medical advice.</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -14773,7 +14988,15 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>The video shows two young boys sitting at a wooden table in what appears to be an outdoor restaurant or bar. The boy on the left, wearing a light blue t-shirt, is laughing and clapping his hands. The boy on the right, wearing a blue baseball cap and jersey, is also clapping and looking towards the camera. They seem to be engaged in a playful activity, possibly singing or playing a game together, which is keeping them occupied.</t>
+          <t>Sitting in restaurants with energetic kids is not easy and usually uncomfortable. I love them, but they can make a lot of noise. We're not ashamed to pull the screen out and let them watch something while we wait for our food, but this time we decided not to. 
+Why?
+Because we sailed for 4 hours, and they already had tons of screen time for today.
+So I used a gig we learned not long ago, and it actually kept them busy through most of the waiting. 
+I love it when things work! 
+.
+.
+#ScreenTime #NotPerfect #FamilyTime #FamilyThing #247Together #AlwaysTogether #TimeOut #ScreenTime #GetThingsDone #GetShitDone #ShoppingWithKids #FamilyLife #SailingFamily #DontJudge #LoveThem #NeverAlone #NomadFamily #Parenting #ParentingThoughts #ParentingHacks
+#OurJourney #FollowYourDreams #FollowThe5un</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -14905,7 +15128,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>A woman with long brown hair in two braids, wearing a grey beanie and a black zip-up hoodie, speaks directly to the camera in what appears to be a living room. She is discussing the parenting strategy of 'timeout,' expressing her strong disapproval. She argues that it is 'mean' and 'humiliating,' using the example of a boss making an adult sit in a corner for a number of minutes equal to their age. She suggests alternative disciplinary methods, such as 'consistent corrective actions' for children under three and a 'behavior board' with rules and consequences for children three and older. She promotes her 'bootcamp course' as a way to learn leadership skills for parenting.</t>
+          <t>Timeout is mean Timeout is mean and humiliating.  Use consistent corrective actions with toddlers under 3 and my behaviour board for kids 3+. Also check out my bootcamp course to learn how to set yourself up as a leader your children respect. Work on your Parenting Leadership Skills … they are EVERYTHING! Check out the link in bio for FREE Behaviour Board, Toddlers Courses, Bootcamp Course (3-12 year olds) &amp; my Coaching Services. Lisa. \#timeout #howtodiscipline #discipline #disciplinekids #howtodiscipline #behaviourboard #rulesforkids #parenting #calmleadershipparenting #howtoparent #howtodiscipline #discipline #parenting #parent #kidsbehaviour #behaviourmanagement #behaviormanagement #parentinghelp #parentingadvice #parentingtips #parentadvice #parentingcoach #leadershipparenting</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -15039,7 +15262,8 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>A woman in a pink dress is giving a presentation on a stage. She is holding a microphone in one hand and a clicker in the other, gesturing as she speaks. The background is a large screen with text related to her talk. She discusses the effectiveness of disciplinary methods like time-outs, questioning what is meant by 'it works' and highlighting the importance of connection in parenting. She argues that time-outs can send a negative message to children about their worth and the conditional nature of love.</t>
+          <t>Do time-outs and its related ways of disciplining children work? Depends on how we define 'work' because they certainly come at a cost!
+Check out my Discipline Without Damage online course and book for more of a deep dive into this topic 💗</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -15175,7 +15399,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage from BratBusters Parenting, is speaking directly to the camera in what appears to be a home setting. She is wearing a black beanie and a black top, with her hair in two pigtails. She is discussing her strong negative opinion on the parenting strategy of 'time out'. She argues against sending a child away to a room, stating that she wants to discipline them while they are right in front of her. She uses an analogy of being sent to a corner at work to illustrate how humiliating she believes time out is for a child. Text overlays appear on the screen, summarizing her points, such as 'Thoughts on Time Out for Kids?' and 'I hate time out'.</t>
+          <t>Get your FREE Behaviour Board HERE https://bratbusters.podia.com
+Welcome to Bratbusters. I’m Lisa Bunnage, and I love sharing what I’ve learned from decades of working with children. 
+If you’re a parent who wants to get mutual respect with your children, and learn how to become a calm leader, this is the place for you. 
+Where to Get Started:
+➡️ Bratbusters Bootcamp: Your 5 Week Transformation (For Kids Aged 3-12) https://bratbusters.podia.com/126b3bf6-b5aa-4088-a040-0bb54beb82c8 
+➡️ Bedtime Battles Course https://bratbusters.podia.com/bedtime-battles 
+➡️ Toddler Tantrum Busting Course https://bratbusters.podia.com/tantrum-busting
+➡️ Potty Training Course https://bratbusters.podia.com/parenting-made-easy-er 
+➡️ Toddler Biting / Hitting Course https://bratbusters.podia.com/toddlers-biting-hitting-etc 
+➡️ Private Coaching  https://bratbusters.com/coaching/ 
+➡️ FREE Behaviour Board  https://bratbusters.podia.com/
+Let’s Connect: 
+Instagram: https://www.instagram.com/bratbustersparenting/?hl=en 
+TikTok: https://www.tiktok.com/@bratbustersparenting?lang=en 
+YouTube: https://www.youtube.com/@BratBustersParenting 
+Website: https://bratbusters.com/ 
+#ParentingCoach #ParentCoach #ParentCoaching 
+Disclaimer:
+I am a Parenting Coach and a Mom.  I am not a licensed psychologist or counselor.  My services do not replace the care of psychologists or other healthcare professionals. Coaching is in no way to be construed or substituted as psychological counseling or any other type of therapy or medical advice.</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -15311,7 +15553,25 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage from BratBusters Parenting, is speaking directly to the camera in what appears to be a home office or living room. She is wearing a black beanie and a black zip-up top. Behind her is a black leather couch, a white cabinet, and a wall decorated with photos and string lights. She is discussing how to handle a 3-year-old child who is 'roughhousing' or playing too roughly. She suggests using a 'behavior board' as a tool to teach the child that hurting others is not allowed, and proposes a consequence where the child who roughhoused too much gets to play with another child's favorite toy for a limited time.</t>
+          <t>Get your FREE Behaviour Board HERE https://bratbusters.podia.com
+Welcome to Bratbusters. I’m Lisa Bunnage, and I love sharing what I’ve learned from decades of working with children. 
+If you’re a parent who wants to get mutual respect with your children, and learn how to become a calm leader, this is the place for you. 
+Where to Get Started:
+➡️ Bratbusters Bootcamp: Your 5 Week Transformation (For Kids Aged 3-12) https://bratbusters.podia.com/126b3bf6-b5aa-4088-a040-0bb54beb82c8 
+➡️ Bedtime Battles Course https://bratbusters.podia.com/bedtime-battles 
+➡️ Toddler Tantrum Busting Course https://bratbusters.podia.com/tantrum-busting
+➡️ Potty Training Course https://bratbusters.podia.com/parenting-made-easy-er 
+➡️ Toddler Biting / Hitting Course https://bratbusters.podia.com/toddlers-biting-hitting-etc 
+➡️ Private Coaching  https://bratbusters.com/coaching/ 
+➡️ FREE Behaviour Board  https://bratbusters.podia.com/
+Let’s Connect: 
+Instagram: https://www.instagram.com/bratbustersparenting/?hl=en 
+TikTok: https://www.tiktok.com/@bratbustersparenting?lang=en 
+YouTube: https://www.youtube.com/@BratBustersParenting 
+Website: https://bratbusters.com/ 
+#ParentingCoach #ParentCoach #ParentCoaching 
+Disclaimer:
+I am a Parenting Coach and a Mom.  I am not a licensed psychologist or counselor.  My services do not replace the care of psychologists or other healthcare professionals. Coaching is in no way to be construed or substituted as psychological counseling or any other type of therapy or medical advice.</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -15443,7 +15703,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>The video is a comedic skit featuring a young man playing two roles: a child in timeout and his mother. The child is shown in various states of distress, including sitting with his hood up, lying on the floor, and making pained expressions. The mother, wearing a hat and glasses, is seen in the kitchen, dramatically 'resetting the timer' on a microwave. The skit culminates in the mother revealing it was a 'test' and that the child has 'failed,' implying the timeout was a ruse to teach a lesson.</t>
+          <t>I LEARNED MY LESSON I SWEAR 😭</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -15581,7 +15841,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a black sweater, is speaking directly to the camera in what appears to be a home setting. She is discussing parenting strategies for toddlers, specifically an alternative to the timeout punishment. She uses hand gestures to emphasize her points. Text overlays appear on the screen, highlighting key phrases from her speech such as 'What to Do Instead of Timeout For Toddler?', 'consistent corrective actions', and 'you never yell'. The background includes a dark couch, a white cabinet with potted plants on top, and a photo collage on the wall.</t>
+          <t xml:space="preserve">What to Do Instead of Timeout For a Toddler? It’s about consistent corrective actions right in the moment every single time. You do it nine times out of 10, and remember the one time you didn’t do it.  My advice is to pick one battle you want to address, just one thing, and every single time they do it you have consistent corrective actions. There’s no yelling, it’s very calm. For example, a consistent corrective action if they’ve just used a toy to hit is you say no put the toy away for a few minutes.  Looking for extra guidance on parenting toddlers? Check out the toddler courses I’ve created, linked in my bio. ` ` ` #ToddlerBehaviour #ToddlerTips #ToddlerLearning #ToddlerGrowth #ToddlerMom #ToddlerDad #ToddlerMoms #ToddlerDads </t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -15715,7 +15975,8 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>The video is a tutorial from a man named Patrick, who introduces his parenting philosophy of disciplining his 3-year-old son without yelling, hitting, or using timeouts. He presents a six-step method. The video shows his son climbing on a couch and a wooden ladder. Patrick demonstrates his techniques: taking deep breaths to stay calm, getting closer to his son to give instructions, stating limits clearly, offering choices (e.g., feet on the ground or on the chair), showing appreciation when his son cooperates, and redirecting his son to a suitable alternative activity (assembling monkey bars). The video concludes with Patrick encouraging viewers to save the video and follow him for more examples of positive discipline.</t>
+          <t>That time the internet almost broke because I said I don’t bully my son into submission. Discipline still means to teach not punish. 
+#discipline #punishment #teaching #timeout #gentleparenting #respectfulparenting #conciousdiscipline</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -15847,7 +16108,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>The video is a split-screen presentation. On the left, a close-up shot shows hot water being poured from a gooseneck kettle onto coffee grounds in a filter cone, a process known as coffee brewing. On the right, a person is speaking, and text overlays appear on the screen, including the question 'Are you handling the tantrums the right way?'. The speaker discusses parenting, specifically the topic of tantrums in two-year-olds and the use of timeouts as a disciplinary method.</t>
+          <t>Naptime coffee hour ☕️💤
+If you are going with timeouts, you may be doing it wrong. Here is why:
+Timeout works, it corrects the behavior but at what cost? 
+Dr. Gabor Mate suggests that when a child is angry and given a timeout to calm down, they take the message that it is not “normal” to be angry. The child then begins to believe that experiencing their genuine self means losing their attachment with the parents. Then, when they are faced with a choice between their attachments and their authenticity, they always give up authenticity as they can not live without their attachments. This belief makes authenticity a threat, leading the child to fear their true selves, thinking that if they express themselves, others won’t like them, reject them, or even hurt them. 
+Source: Know Thyself Podcast (Episode 33) | Gabor Mate: Healing Trauma in a Toxic Culture
+#parenting #tantrum #toddlerlife #gentleparenting #timeout</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -15983,7 +16249,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>A woman, identified as Tanya Amanda, is in a walk-in closet and presents a 'get ready with me' (GRWM) video for an office/work setting. She discusses her struggle to find cute work pants that fit her petite, curvy frame. She then models a complete outfit, starting with a blue one-piece top, black pants, a white belt, a white blazer from Aritzia, white boots, and a vintage Chanel bag. She explains that this is a look she would wear every day to work.</t>
+          <t>Petite curvy GDWM office edition 💙 PETITE ALSO MEANS SHORT that’s all it means‼️😭 im a size 4-6</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -16151,7 +16417,10 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>A woman, identified as Mimansa Singh Tanwar, a Clinical Psychologist, speaks directly to the camera in what appears to be an office setting. She is wearing a rust-colored top and cardigan. As she speaks, text overlays appear on the screen, highlighting key points of her advice. The video is part of the 'Fortis National Mental Health Program' and provides tips for parents on how to help their children handle peer influence. The video concludes with a screen displaying a YouTube channel handle and a helpline number.</t>
+          <t>Mimansa Singh Tanwar, Head Fortis School Mental Health Program and Clinical Psychologist, Department of Mental Health and Behavioural Sciences, Fortis Healthcare on ways to help your child handle peer influence. 
+ #short #parenting #peer #influence #assertiveness #mentalhealth #problem #mentalhealthmatters #childpsychology #childhood #children #connection #conversation  #parenting #timeout #validate #balance #expectations #expectation  #parentingtips #parents #children #learning #rolemodel #parenthood #parentingtalk #parenttalk #mentalhealth #mentalhealthawareness #wellbeing #transition #support #psychology  #problemsolving #problem #problems #tuesday #tuesdaymotivation # #tips #counselling 
+Music: Youth
+Musician: @iksonmusic</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -16283,7 +16552,77 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>The video is a promotional graphic for a podcast episode. It features a smiling woman, the host Flora McCormick, sitting on a staircase. The text on the screen identifies the podcast as 'THE SUSTAINABLE PARENTING PODCAST' and the episode as 'Episode 43: What Every Parent Needs to Know (from an 18 year old)'. A green audio waveform animates across the bottom of the screen, indicating that this is a video for an audio program.</t>
+          <t>Wouldn't it be cool to fast-forward 10-13 years, and be able to interview your child at age 18, and know what mattered MOST to them in the early years...so you can use that wisdom NOW?!   
+That's exactly why I've chosen to interview Isabel Minor today.  Isabel is a thriving 18-year-old, who has overcome challenges with anxiety and has a relationship with her parents that she calls "super positive."  
+HOW did her parents manage to raise a successful young lady, who likes to bring problems to them, and asks for their advice on relationships, school, and more?! 
+BY THE TIME YOU'RE DONE LISTENING, YOU'll KNOW:
+⭐Why many teens feel distant from their parents
+⭐What key qualities teens most appreciate in their parents
+⭐How to have less power struggles and a closer relationship with your child.
+✨Check out 🎙Episode 43 of the Sustainable Parenting Podcast, NEW TODAY at Apple Podcasts, Spotify, Youtube and more!✨
+============================================================
+✨Join our Facebook community for more parenting hacks:
+https://www.facebook.com/groups/sustainableparenting/
+✨Listen to the Sustainable Parenting Podcast on:
+🎙Apple Podcast:
+https://podcasts.apple.com/us/podcast/sustainable-parenting/id1682538739
+🎙Spotify:
+https://open.spotify.com/show/3hjDrRkL4LD1EI1cb4MxkB?si=5e8b3f759e734c9a&amp;nd=1
+#sustainableparenting,
+#findingbalance,
+#parentingpodcast,
+#Podcast,
+#parentinggoalsfor2024,
+#parenting,
+#parentingstyles,
+#authoritativeparenting,
+#gentleparenting,
+#authoritarianparenting,
+#permissiveparenting,
+#coparenting,
+#parentingcoach,
+#parentingcoachcertification,
+#parentingcoachnearme,
+#howtobecomeaparentingcoach,
+#coparentingcoach,
+#certifiedparentingcoach,
+#parentingcoachonline,
+#podcast, 
+#parentingadvice,
+#sustainabletrailer,
+#sustainableparenting,
+#sustainable,
+#parentingadvice,
+#floramccormick,
+#LCPC,
+#lcpc,
+#flora,
+#McCormick,
+#mccormick,
+#sustainable,
+#parenting,
+#parentinghacks,
+#professionalcounselor,
+#parentingcoach,
+#parents,
+#youngchildren,
+#usingkindness,
+#firmness,
+#improvedrelationship,
+#child,
+#childcare,
+#kids,
+#kidshelp,
+#sustainableparentingtrailer,
+#parentingtrailer,
+#trailer,
+#parentingcoach,
+#parentingadvice,
+#sustainableparentingpodcast,
+#reset,
+#timeout
+#positivediscipline 
+#respectfulparenting</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -16411,7 +16750,8 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>A clinical psychologist, David Coleman, is sitting in a room with a wooden ceiling and speaks directly into a microphone. He is addressing a question from a parent who suspects their 14-year-old son may be gay and is unsure whether to ask him or wait for him to bring it up. The psychologist advises the parent to wait for the son to initiate the conversation, explaining that it is a personal choice for the child to make when and how to discuss his sexuality. He suggests that parents should continue to talk to their children about relationships and sexuality in a normal way and ensure they do not send any accidental messages that could be perceived as homophobic. The psychologist concludes by advising the parent to mind their family and hang in there.</t>
+          <t>Q&amp;A should a parent ask their son if he is gay or wait till he approaches them to talk about it? 
+#davidcoleman #drdavidcoleman #psychology #clinicalpsychology #clinicalpsychologist #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -16535,7 +16875,8 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in a home office setting, addressing a parent's concern about their son's anxiety regarding the upcoming transition to secondary school. He explains that this transition is challenging for almost all children, regardless of their confidence, and advises parents to bolster their child's self-esteem, flexibility, and resilience. He suggests that parents should offer support and emotional encouragement, especially when the child is under pressure, rather than trying to prepare them for every specific challenge.</t>
+          <t>Q&amp;A Helping a child with the transition to secondary school/high school…
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -16667,7 +17008,8 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>The video features a clinical psychologist, Mimansa Singh Tanwar, speaking directly to the camera against a plain background. She is presenting a mental health program for parents, offering advice on how to help children manage 'worrysome thinking.' As she speaks, animated text bubbles appear on screen, outlining three key strategies: 'Model Healthy Coping Mechanism,' 'Allow Your Child See What Is In Their Control,' and 'Channelise Worry Into Goal Oriented Activity.' The video is part of the 'Fortis National Mental Health Program' and includes the Fortis logo and a 24x7 helpline number.</t>
+          <t>Mimansa Singh Tanwar, Head Fortis School Mental Health Program and Clinical Psychologist, Department of Mental Health and Behavioural Sciences, Fortis Healthcare on ways to help your child manage WORRISOME THINKING.
+ #short #parenting #worry #management #stress #worrying #thoughts #control #assertiveness #mentalhealth #problem #mentalhealthmatters #childpsychology #childhood #children #connection #conversation  #parenting #timeout #validate #balance #expectations #expectation  #parentingtips #parents #children #learning #rolemodel #parenthood #parentingtalk #parenttalk #mentalhealth #mentalhealthawareness #wellbeing #transition #support #psychology  #problemsolving #problem #problems #tuesday #tuesdaymotivation # #tips #counselling</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -16799,7 +17141,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>A woman with long dark hair, wearing a blue shirt, is speaking directly to the camera in what appears to be a home setting. She is discussing the topic of using timeout as a disciplinary method for toddlers. She expresses her strong dislike for the practice, arguing that it doesn't teach children anything and makes them feel bad. She suggests that for toddlers, consistent corrective actions in the moment are more effective. Text overlays appear on the screen, highlighting key phrases from her speech, such as 'Using Timeout For a Toddler?' and 'I hate timeout.'</t>
+          <t xml:space="preserve">Using timeout with a toddler? Personally, I don’t recommend using timeout for any age, as there are no lessons with timeout. There’s nothing learned. With toddlers, they’re all about consistent corrective actions, right in the moment.  They learn through repetition. So they probably won’t learn the first time, or even the tenth time.  Looking for extra guidance on parenting toddlers? Check out the toddler courses I’ve created  covering tantrums, potty training, bedtime battles, and toddlers who hit and bite, linked in my bio. ` ` ` #ToddlerLife #ToddlerParenting #ToddlerAdventures #ToddlersOfInstagram #ParentingToddlers #ToddlerBehaviour #ToddlerTips #ToddlerLearning #ToddlerGrowth #ToddlerMom #ToddlerDad #ToddlerMoms #ToddlerDads </t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -16933,7 +17275,10 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>The video opens with a view of a modern, well-lit reception area featuring a prominent circular, illuminated logo of a mountain range on a wood-paneled wall. A woman with blonde hair, wearing a white and black striped sweater and black leggings, walks into the frame from the left. She smiles, makes a 'shushing' gesture with her finger to her lips, and then walks away from the camera down a hallway. The scene cuts to her sitting on a brown leather couch in a waiting area, looking up and smiling as if anticipating something. The video is accompanied by gentle, melodic background music.</t>
+          <t>✨Something is coming ✨ and we are so excited to share it with you! 
+Can you guess what it might be? Or do you recognise the location?!? 
+Stay tuned 🌴✨
+#somethingiscoming #timeout #bliss</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -17057,7 +17402,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>The video is a promotional travel montage for a luxury resort. It begins with a view of a private pool on a beach, then shows a family enjoying the beach. Aerial shots display the island's lush, palm-covered landscape. The video includes scenes of people arriving by private jet, walking through a forest, and relaxing in a pool. Text overlays identify the location as 'The Brando' in Tetiaroa, French Polynesia, and highlight its commitment to sustainability and biodiversity.</t>
+          <t xml:space="preserve">Celebrity vacation spot? 👀 Want to know the A-list celebrity go-to luxury travel destination?  The Brando  📍Tetiaroa, French Polynesia  Often visited by celebrities like Beyonce, the Kardashians, Johnny Depp, Leonardo Dicaprio, the Obamas and more, it's a fan-favorite for a reason. Once owned by Marlon Brando, this private island resort is a unique world created by volcanos and preserved by the coral reef in the French Polynesia. Oh! And it’s only accessible by private jet! They are also deeply committed to preserving and protecting the natural splendor and precious biodiversity of Tetiaroa, and have some of the most advanced sustainability practices of any resort in the world! </t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -17187,7 +17532,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>A man in a blue shirt and a black cap is holding a stick with several small, vibrant blue and purple crabs clinging to it. He points to the crabs and speaks to the camera, explaining their characteristics. The setting appears to be a forest or jungle with dry leaves on the ground. The man then places the crabs on the ground, showing them to the camera.</t>
+          <t>The coolest biodiversity in Tetiaroa, have you ever seen such vibrant colors? 🤩</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -17317,7 +17662,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>A woman, identified as Rachael-The Considerate Momma, speaks directly to the camera in a series of indoor settings. She begins by acting out a stern parental command, saying, 'Get in this room right now,' to illustrate a common parenting approach. She then transitions to a more empathetic tone, explaining the negative internalization that can occur when a child is forced to isolate. She holds a stuffed elephant and describes the child's perspective, emphasizing that they may feel like a bad person rather than just having done a bad thing. The speaker then introduces an alternative method, promoting her 'Calm Down Kits' as a tool to teach children emotional regulation, self-awareness, and healthy communication. She shows the product packaging and shares positive customer testimonials. The video concludes with a call to action, directing viewers to her social media page.</t>
+          <t xml:space="preserve">We don’t do time out in my house. We do this instead… When a child (especially one under 8yrs old) is forced into isolation and expected to “think about what they’ve done”, they don’t think about their actions being bad, they build the belief that THEY are bad. Children under 8 years old are in the “formative years” so they see every experience through the lense of SELF. They don’t see their actions as separate from their humanity…yet. So if we blame, shame and/or isolate them in a time out, they don’t have the ability to reflect on “bad” choices without also labeling themselves as “bad” people. A child who believes he/she is bad will act like it. When we give these tools to: 1. Properly labeling emotions 2. Identifying the underlying NEED that is driving that emotion 3. Discovering which calming tools help you process emotions OUT of the body instead of suppressing, ignoring or hiding them 4. Choosing a HEALTHY behavior to replace the unhealthy expression used before They grow up to be the total opposite of emotionally fragile. Our adult children will know how to take responsibility for their emotions, effective regulate their nervous system in their own AND communicate with others around them without the use of fear tactics, aggression or control. For a tangible resource to teach yourself AND your children these skills, grab my Calm Down Kits while they’re just💲3️⃣ (through 2/15/24)! #timeouts #timeout #parentingtips #parentinghelp #cyclebreaker #parentinghacks #breakthecycle #connectedparenting #respectfulparenting #parentsoftiktok #parenting #consciousparenting </t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -17451,7 +17796,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>The video is a promotional teaser for a wellness retreat. It begins with a woman in a striped sweater sitting on a couch, holding a mug, with text overlay asking, 'Are you ready to find your bliss at Powerscourt Springs?'. The scene transitions to a woman doing a yoga pose in a bright, modern room with a large window. Next, a close-up shows a wooden bowl with dried moss, a pinecone, and an acorn on a shelf. The final scene is a promotional graphic featuring the same woman holding a bundle of sage. The graphic announces 'Find your Bliss' and 'Details announced tomorrow, Sunday 11th'. It also includes the logos for 'Little Bliss by Anna' and 'Powerscourt Springs' and a 'Save the date' for Friday, 15th March 2024.</t>
+          <t>This must be the place 🌴
+You guessed it! ✅ @littleblissbyanna and @powerscourtsprings are partnering up for a morning of pure Bliss! 🍃
+We’ll be announcing full details of our very first Bliss escape at @powerscourtsprings tomorrow morning. 
+Drop a 💚 below if you’re in need of a morning out for yourself! We certainly are! And this will be the first of many. Starting at the world class wellness destination that is Powerscourt Springs. 
+Details and ticket link open tomorrow. 
+#littlebliss  #ownbrand #powerscourtsprings #retreat #breathe #yoga #wellness #timeout</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -17575,7 +17925,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>The video is a screen recording of a person playing the video game SMITE. The player is controlling the character Serqet, a support god. The gameplay shows Serqet moving around the map, using her abilities to attack enemies, and participating in team fights. A picture-in-picture window in the top left corner shows the streamer, a young man wearing headphones, actively playing the game. The streamer's name, 'Serqet Support,' is displayed as a large text overlay. The video captures various in-game events, including combat, character abilities, and team objectives.</t>
+          <t>SMITE - TANK SERQET SUPPORT SOLOS CRIT ADC &amp; MORE! #shorts #smite</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -17705,7 +18055,8 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>The video features a woman, identified as Mimansa Singh Tanwar, a Clinical Psychologist, speaking directly to the camera against a plain white background. She is providing advice on how to help children manage stress. As she speaks, animated graphics appear on the lower portion of the screen to illustrate her points. The graphics include text like 'INITIATE A Conversation,' 'CHILD NEEDS A Good Listener,' 'MAINTAIN A Calm composure,' and 'ENGAGE IN Positive distraction,' each accompanied by a simple illustration. The video is part of the 'Fortis National Mental Health Program' and includes the Fortis logo and a helpline number.</t>
+          <t>Mimansa Singh Tanwar, Head Fortis School Mental Health Program and Clinical Psychologist, Department of Mental Health and Behavioural Sciences, Fortis Healthcare on ways to help your child manage stress
+ #short #parenting #stress #management #stress #worrying #thoughts #control #assertiveness #mentalhealth #problem #mentalhealthmatters #childpsychology #childhood #children #connection #conversation  #parenting #timeout #validate #balance #expectations #expectation  #parentingtips #parents #children #learning #rolemodel #parenthood #parentingtalk #parenttalk #mentalhealth #mentalhealthawareness #wellbeing #transition #support #psychology  #problemsolving #problem #problems #tuesday #tuesdaymotivation # #tips #counselling</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -17837,7 +18188,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>The video is a news report or commentary about singer Gloria Trevi filing a new legal complaint against her former manager, Sergio Andrade. The screen is split: the top half shows a still image of Gloria Trevi, and the bottom half features a man speaking directly to the camera. A large red text overlay reads 'GLORIA TREVI DEMANDA A SERGIO ANDRADE' (Gloria Trevi sues Sergio Andrade). The man, who appears to be a news anchor or content creator, is narrating the story, explaining that Trevi is alleging harassment, humiliation, and other mistreatment by Andrade. The background behind Trevi is a blue, abstract pattern.</t>
+          <t>Por fin! Gloria Trevi demandará a Sergio Andrade #elbacanaldelasestrellas #noticias #chisme</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -17971,7 +18322,77 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>The video is a split-screen recording of two women in a video call. The woman in the top half, wearing a pink sweater and white earphones, is telling a story. The woman in the bottom half, wearing a grey shirt, listens and reacts with smiles and laughter. The top woman recounts a story about a husband who wanted advice on how to surprise his wife. She suggests he text her that he will take care of all the evening chores, including the kids, the dog, dinner, and the dishes, so she can relax. The bottom woman reacts with amusement and agreement, and the top woman concludes that the text worked like a charm. The video is framed by a red curtain graphic and includes on-screen text that transcribes the top woman's speech.</t>
+          <t>Do you agree? 👍🏼 Or Disagree? 👎🏻 
+❤With Valentine’s Day this week I wanted to highlight some advice for our ❤LOVE lives, as parents. 
+I mean - I personally believe (along with relationship expert and coach- Lindley, of @austincouplesconcierge ), that these early years of parenting can STILL include some fun and pleasure with our partners. 
+If you’re on the same page - then you are OUR kinda people, and we can’t wait to share Lindley’s top tips for more intimacy during these parenting years. 
+🎙The full episode drops Feb 14th - VDay!🫶🏼❤
+============================================================
+✨Join our Facebook community for more parenting hacks:
+https://www.facebook.com/groups/sustainableparenting/
+✨Listen to the Sustainable Parenting Podcast on:
+🎙Apple Podcast:
+https://podcasts.apple.com/us/podcast/sustainable-parenting/id1682538739
+🎙Spotify:
+https://open.spotify.com/show/3hjDrRkL4LD1EI1cb4MxkB?si=5e8b3f759e734c9a&amp;nd=1
+#sustainableparenting,
+#findingbalance,
+#parentingpodcast,
+#Podcast,
+#parentinggoalsfor2024,
+#parenting,
+#parentingstyles,
+#authoritativeparenting,
+#gentleparenting,
+#authoritarianparenting,
+#permissiveparenting,
+#coparenting,
+#parentingcoach,
+#parentingcoachcertification,
+#parentingcoachnearme,
+#howtobecomeaparentingcoach,
+#coparentingcoach,
+#certifiedparentingcoach,
+#parentingcoachonline,
+#podcast, 
+#parentingadvice,
+#sustainabletrailer,
+#sustainableparenting,
+#sustainable,
+#parentingadvice,
+#floramccormick,
+#LCPC,
+#lcpc,
+#flora,
+#McCormick,
+#mccormick,
+#sustainable,
+#parenting,
+#parentinghacks,
+#professionalcounselor,
+#parentingcoach,
+#parents,
+#youngchildren,
+#usingkindness,
+#firmness,
+#improvedrelationship,
+#child,
+#childcare,
+#kids,
+#kidshelp,
+#sustainableparentingtrailer,
+#parentingtrailer,
+#trailer,
+#parentingcoach,
+#parentingadvice,
+#sustainableparentingpodcast,
+#reset,
+#timeout
+#positivediscipline 
+#respectfulparenting
+#gettingkidstolisten
+#sexandmarriage 
+#momshelpingmoms #lovelifestyle #sexandmarriage #marriedlifebelike</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -18103,7 +18524,18 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>A man, identified as Dr. Randy Schroeder, is sitting in front of a bookshelf and speaking directly to the camera. He is wearing a red sweater over a white collared shirt and glasses. Text overlays appear on the screen, including a main title 'BEST SECRET FOR AN EFFECTIVE TIMEOUT' at the top and words like 'TIMEOUT', 'PARENT', and 'CHILD' appearing on his sweater as he speaks. He holds up a book titled 'Simple Habits for Effective Parenting' by Randall Schroeder, Ph.D. towards the end of the video. The overall setting appears to be a home office or study.</t>
+          <t>Struggling with timeouts? 🤔 Discover the game-changing secret to effective timeouts that foster self-discipline and responsibility in your child! ⏳ Unlock the power of timeouts with our proven method. Ready to transform your parenting? 🌟 Dive deeper into effective strategies with our award-winning books: 'Simple Habits for Marital Happiness' and 'Simple Habits for Effective Parenting'. 📚✨
+If you're facing parenting hurdles, discover invaluable insights in my award-winning books: 'Simple Habits for Marital Happiness' (2020) and 'Simple Habits for Effective Parenting' (2021). Find solutions on Amazon, Christianbook.com, CrossLinkPublishing.com, and FocusOnTheFamily.com
+How long should a timeout be for a child?
+What age is appropriate to start using timeouts?
+Should timeouts be used for every misbehavior?
+How can I make timeouts effective without escalating the situation?
+What do I do if my child refuses to stay in timeout?
+Are there alternatives to timeouts for discipline?
+How can I ensure that my child learns from the timeout experience?
+Should I talk to my child after the timeout is over?
+What if my child apologizes but repeats the same behavior afterward?
+How do timeouts contribute to teaching self-control and responsibility in children?</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -18239,7 +18671,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>The video shows a woman, presumably a mother, sitting on a bed with her newborn baby in her arms. A young toddler girl, wearing fairy wings, is sitting next to them. The toddler appears to be upset and is moving around, at one point leaning in towards the baby. The mother is talking to the toddler, seemingly trying to calm her down and explain the situation. The video is overlaid with text that reads 'GENTLE PARENTING' and explains that the toddler bit her 8-week-old sister. The mother reflects on her parenting, stating she shouldn't have forced the toddler to apologize and that she was shocked by the incident.</t>
+          <t xml:space="preserve">Attemping to gentle parent, how did I do? I’m not perfect but learning each day 🥹  It cuts deeper when they hurt a helpless baby too but I guess it’s all in understanding her triggers. She’s adapting each day, learning to be a big sister and share Mum &amp; Dad too. Maybe she wanted my attention? It is an overwhelming feeling of shock and protection to one child yet guilt to the other for not seeing the triggers.  #mumlife #fyp #parenttok #mumsoftiktok #mumtok #newborn #toddler #gentleparenting #toddlertantrums </t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -18377,7 +18809,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>A woman in a red Christmas sweater sits on a couch and speaks directly to the camera, telling a story about her granddaughter. She explains that her granddaughter was upset about not being allowed to have snacks before dinner and went to her room to have a 'time out.' The woman then brings her granddaughter into the frame, who is holding a piece of paper. The child then proceeds to put her arm around the woman's neck and rests her head on her shoulder, showing affection.</t>
+          <t xml:space="preserve">This is the art of self regulating your emotions! She is such a sweet girl and at the tender age of two is able to articulate when she is not happy with something #selfregulation #timeout #howtoexpressyourfeelings </t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -18511,7 +18943,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>The video is a commercial advertisement for Soprole's 'Zero Lacto' product line. It begins with a bright yellow screen displaying a social media comment requesting more lactose-free products. A young man then appears against an orange background, dancing energetically. The ad then showcases a new product, 'Manjarate Zero Lacto,' with a close-up of the dessert and its packaging. The final frames display a promotional graphic for the 'Zero Lacto' brand, highlighting new products and a '1+1' offer, all while emphasizing that the products are lactose-free.</t>
+          <t xml:space="preserve">Nuevo Manjarate Zerolacto de Soprole. Lo pidieron ¡Y los escuchamos!   Ahora tus favoritos de siempre ¡Libres de lactosa! Con Zerolacto de Soprole. Sorpréndete con el  nuevo Manjarate Zerolacto ¡Una explosión de sabor! Para ti ¡Y para todos! Zerolacto de Soprole ¡Zero límites al sabor!   #IgualDeRicos #SinLactosa #Soprole #NutriendoSonrisas </t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -18646,7 +19078,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>The video is a comedic skit comparing parenting styles 'Then' and 'Now'. A man plays two contrasting roles: one as a modern, gentle parent and another as a strict, old-school parent. The 'Now' scenes show him in a relaxed, modern setting, discussing various parenting philosophies like 'gentle', 'permissive', 'attachment', and 'aromatherapy'. The 'Then' scenes depict him in a more aggressive, old-fashioned manner, suggesting physical discipline like spanking with a belt or stick. The skit uses exaggerated expressions and actions to highlight the perceived differences in parenting approaches over time.</t>
+          <t>Nothing gentle about my upbringing</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -18782,11 +19214,7 @@
           <t>The WORST Way to Use Time Out #supernanny #parentingtips</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>The video is a reaction video where a woman, the 'Mommy Breakdown' content creator, watches and comments on a clip of a family. The family clip shows a man and a young boy in a hallway, followed by a woman in a kitchen. The man appears to be disciplining the boy, who is then led up the stairs. The woman in the reaction video speaks directly to the camera, expressing her frustration with the parenting methods shown, particularly the use of timeouts. She argues that timeouts are ineffective and that the situation depicted is a common example of why they don't work, suggesting that parents may resort to hitting their children if timeouts fail. The video ends with her summarizing her points.</t>
-        </is>
-      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
         <v>1710709455</v>
       </c>
@@ -18922,7 +19350,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>A man and a young child are sitting together on a brown couch. The man is holding the child, who is wrapped in a pink blanket. The man is speaking to the camera, recounting a story where he was about to fight someone named Ricky Tans but was interrupted. The text overlay on the screen reads, 'POV: your toddler was getting trouble with mommy and you decided to back her up and now you are on the couch for the night 😂😂'. The man and child are both on the couch, implying they are both in a form of 'timeout'.</t>
+          <t xml:space="preserve">Lmfao now we both in timeout 🤦🏻‍♂️💀😂 #fyp #funny #foryoupage #comedy #jokes #humor #trending #viral </t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -19060,7 +19488,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>The video shows a man dressed in a red and black jacket and black pants performing a dance routine on a checkered floor, which resembles a race track. He is surrounded by several colorful bumper cars. The setting is a large, indoor entertainment venue with a high ceiling, pillars, and numerous colorful lights and decorations in the background. The man performs various poses and dance moves, including kneeling and extending his arms. Towards the end of the video, two other people enter the frame from the right; one is holding a camera and the other is holding a large black panel, suggesting they are part of a film crew filming the performance.</t>
+          <t xml:space="preserve">MVの膝スラ撮影の様子をお届け👀 #新浜レオン #全てあげよう #膝スラ </t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -19192,7 +19620,8 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>A woman with long blonde hair, wearing a patterned top, speaks directly to the camera in a home setting. She is responding to a comment that says 'This is time out in the worse way.' She explains that timeouts can be used in gentle parenting as long as they are a logical consequence for the behavior, specifically when a child is being physically aggressive. She shares a personal anecdote about her daughter trying to push her, which led to a brief timeout to establish physical space. She emphasizes that the timeout was a logical consequence, not a punishment, and that she communicated her love for her daughter afterward. She also mentions that she later talked to her daughter about the incident and that her daughter immediately stopped the behavior. Towards the end of the video, a screenshot of an article titled 'The Time-Out Controversy' by Dr. Cara Goodwin is shown, which she recommends for more information.</t>
+          <t>Time outs should not be used as a blanket punishment for every misbehavior, number 1: because it communicates rejection &amp; number 2: because there are way more effective ways to teach BETTER behavior. The only times a time out SHOULD be used are when it is a logical consequence to physical aggression or when both the child and adult need some time apart to regulate in order to prevent a parent from losing their cool. I always try redirection/connection first, but if the aggressive behavior continues, I will separate my child to protect others &amp; communicate to her that the behavior is not acceptable. I linked some articles in stories if you’re interested in reading ♥️
+#gentleparenting #timeout #parenting #parentingtips #parents #parentingadvice #respectfulparenting #toddler #toddlerproblems #toddlertips #momsofinstagram #momlife #discipline #xyzbca #controversial #toddlermom</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -19324,7 +19753,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>A toddler is sitting on the floor crying. An adult woman tells him to go to the corner. The toddler crawls to the corner and stands up, continuing to cry. The woman tells him to stand in the corner. The toddler stands in the corner, crying and looking at the camera. The woman tells him to go to the corner again. The toddler walks away from the corner.</t>
+          <t>He listens 😭😭 tt: @kbugzz98 #babies #yourdailydosageofbabies #adorable #timeout #parenting #wholesome</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -19460,7 +19889,79 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>The video is a montage showcasing various activities that the speaker, a woman, considers to be forms of self-care. It begins with her dancing in her home, then cuts to her roller skating at a rink, dancing with a partner in a studio, enjoying a spa day with a friend, relaxing in a hot tub on a cruise ship, drinking a beer while watching someone mow the lawn, coloring in a book, hiking across a stream, admiring flowers, and gardening. The video is set to upbeat music and includes text overlays like 'Self-care looks different for everyone' and 'It can look like this...'. Towards the end, a text overlay promotes her podcast episode 51 for '5 key self-care ideas'.</t>
+          <t>Self-care. It’s something that can feel like a fairy tale 🧚
+…out of reach, and not even possible- when you are in the early years of parenting.
+Yet- I believe it’s ESSENTIAL to find YOUR unique ways to recharge, feel joy, sweat, move and relax, so we can be the best version of ourselves, for our kids.
+How do you like to treat yo-self?!
+I’m dishing 5️⃣ key ideas for self care this week on the podcast. And they are tips for even the busiest mama. (Link in bio)
+Ps. If you wanna join me for some MT relaxation, check out the Glamping retreat link in my bio, too!
+#momselfcare #momchill #momstrong
+============================================================
+✨Join our Facebook community for more parenting hacks:
+https://www.facebook.com/groups/sustainableparenting/
+✨Listen to the Sustainable Parenting Podcast on:
+🎙Apple Podcast:
+https://podcasts.apple.com/us/podcast/sustainable-parenting/id1682538739
+🎙Spotify:
+https://open.spotify.com/show/3hjDrRkL4LD1EI1cb4MxkB?si=5e8b3f759e734c9a&amp;nd=1
+#sustainableparenting,
+#findingbalance,
+#parentingpodcast,
+#Podcast,
+#parentinggoalsfor2024,
+#parenting,
+#parentingstyles,
+#authoritativeparenting,
+#gentleparenting,
+#authoritarianparenting,
+#permissiveparenting,
+#coparenting,
+#parentingcoach,
+#parentingcoachcertification,
+#parentingcoachnearme,
+#howtobecomeaparentingcoach,
+#coparentingcoach,
+#certifiedparentingcoach,
+#parentingcoachonline,
+#podcast, 
+#parentingadvice,
+#sustainabletrailer,
+#sustainableparenting,
+#sustainable,
+#parentingadvice,
+#floramccormick,
+#LCPC,
+#lcpc,
+#flora,
+#McCormick,
+#mccormick,
+#sustainable,
+#parenting,
+#parentinghacks,
+#professionalcounselor,
+#parentingcoach,
+#parents,
+#youngchildren,
+#usingkindness,
+#firmness,
+#improvedrelationship,
+#child,
+#childcare,
+#kids,
+#kidshelp,
+#sustainableparentingtrailer,
+#parentingtrailer,
+#trailer,
+#parentingcoach,
+#parentingadvice,
+#sustainableparentingpodcast,
+#reset,
+#timeout
+#positivediscipline 
+#respectfulparenting
+#gettingkidstolisten
+#positiveparenting 
+#consciousparenting</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -19584,7 +20085,13 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>The video is a parenting tip guide from the Instagram account 'mindandchild'. A woman, the main speaker, demonstrates five different strategies to help parents build their child's emotional intelligence and communication skills. She acts out scenarios with a young boy, then speaks directly to the camera in a home setting, and later reads a children's book. The video uses on-screen text to label each tip.</t>
+          <t>💫Do you wish your child have better control over their emotions? Yeah, I think we all agree!
+🏠The foundation for kids to have control starts in identifying emotions and talking about them. We as parents also have to be comfortable with our own feelings and supporting our children’s feelings. It is even more awkward if we do not regularly talk about them and then try to bring it up!
+🧐Why is this important? Because we are equipping our children to have healthy emotional expression, build stronger relationships, supports their mental health throughout their lifespan.
+We hope these tips are helpful in being able to discuss your feelings in everyday situations. 
+✨These are just a few examples! Want more? Comment EMOTIONS below and we will send you our newest blog: A Guide for Parents to Discuss Emotions with Their Children
+➡️Want more tips? Follow us @mindandchild
+#emotionalintelligence #tantrums #meltdowns #momofteenagers #parenting #parentingtips #parentingtoddlers #stayathomemom #workingmom #workingmoms #childpsychology #psychology #mentalhealthmatters #mentalhealthawareness #parenthoodunplugged #parenthood #gentleparenting #positiveparenting #motivationmonday #childdevelopmentblogger #childdevelopment #raisethemright #raisethemkind #feelings #emotions #parenthelp #momssupportingmoms #momswhowork #momswhoworkfromhome #respectfulparenting</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -19716,7 +20223,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>The video is a live performance of a Christian worship song by a band on a stage. The band consists of a lead female vocalist wearing a white headband, a male keyboardist, a male guitarist, and a male drummer. The performance is energetic, with the musicians playing their instruments and the lead singer singing passionately into a microphone. The stage is lit with vibrant blue and purple lights. Spanish lyrics are displayed as subtitles at the bottom of the screen throughout the song.</t>
+          <t>Un Día Orando Le Dije A Mi Señor #ministerioetan #alabanzas_para_dios</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -19854,7 +20361,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>The video begins with a close-up of a dark blue iPhone lying on a wooden surface. A hand picks up the phone, revealing a 'Vacation Calling' screen with a tropical beach background. The scene then transitions to a series of scenic shots of a beautiful tropical island with a white sand beach, clear turquoise water, and lush green palm trees under a bright blue sky. The camera pans across the idyllic landscape, showing a distant mountain and overwater bungalows, creating a serene and aspirational vacation atmosphere.</t>
+          <t>How to plan the perfect vacation! Got an itch to travel but not sure how to decide where to go? Here’s 5 tips to help: ➡️ Consider your interests: Think about what type of experiences you enjoy, whether it's history, nature, food, or city life. Let your passions guide your destination choices. ➡️ Research destinations: Find places that match your interests and preferences. Look into factors like weather, safety, and travel requirements using blogs, forums, travel agents (hi! 👋) and social media for inspiration. ➡️ Set a budget: Determine your spending limit for transportation, accommodation, meals, and activities. Seek destinations that offer value for your money and adjust your budget accordingly. ➡️ Explore off-the-beaten-path locations: Don't overlook hidden gems that offer unique experiences and fewer crowds. Research lesser-known destinations for a chance to immerse yourself in local culture and get a unique travel experience. ➡️ Stay flexible: Be open to unexpected opportunities and changes in plans. Consider alternative destinations or travel dates if needed. Remember, the journey itself is part of the adventure!</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -19984,7 +20491,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>A woman wearing a hat and a floral dress stands indoors and speaks directly to the camera. She holds up a series of printed cards, showing them one by one. The cards are titled 'My Calm Down Corner' and feature various activities and prompts for children, such as 'Name Your Feeling,' 'Choose Your Calm Down Helper,' and 'Be Your Zone.' A text overlay on the video promotes these 'Calm Down Cards' as a travel-size product available for $3. The woman smiles and gestures with her hands, including forming a heart shape. Towards the end, a graphic of a social media profile appears on the screen.</t>
+          <t xml:space="preserve">Time out’s **SHOULD NOT** be part of Gentle Parenting and here’s why… ⬇️⬇️⬇️ When a child (especially one under 8yrs old) is forced into isolation and expected to “think about what they’ve done”, they don’t think about their actions being bad, they build the belief that THEY are bad and learn to hide their truest thoughts, feelings and opinions from their parents because they fear being isolated if they are authentic. Children under 8 years old are in the “formative years” so they see every experience through the lense of SELF. They don’t see their actions as separate from their humanity…yet. So if we blame, shame and/or isolate them in a time out, they don’t have the ability to reflect on “bad” choices without also labeling themselves as “bad” people. A child who believes he/she is bad will act like it. When we give these tools to: 1. Properly labeling emotions 2. Identifying the underlying NEED that is driving that emotion 3. Discovering which calming tools help you process emotions OUT of the body instead of suppressing, ignoring or hiding them 4. Choosing a HEALTHY behavior to replace the unhealthy expression used before They grow up to be the total opposite of emotionally fragile. Our adult children will know how to take responsibility for their emotions, effectively calm their nervous system (not just **appear calm to appease others) AND resolve conflict without using violence, aggression, manipulation or control. For a tangible t00| to teach your children these skills, grab my ⭐️TRAVEL SIZE⭐️ Calm Down Cards (digital files that you’ll print on your own) while they’re just THREE d0||ars (through 4/30/24)! #parentsoftiktok #timeout #punishment #discipline #respectfulparenting #gentleparenting #consciousparenting #parenting #connectedparenting #momsoftiktok #dadsoftiktok </t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -20122,7 +20629,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>The video shows a mother at a park with her two young sons. One son is upset about having to leave the park. The mother kneels down to talk to him, setting a clear expectation to be nice about going home, repeating her instructions, and redirecting his attention. She emphasizes respectful communication and explains his choices upon returning home. After a brief time, she physically guides him to follow her instructions. Later, in a different setting, she reflects with him on his behavior, explains healthy emotional regulation techniques, and gives positive reinforcement for his good behavior, ending with a hug.</t>
+          <t xml:space="preserve">We went to the park yesterday, and had so much fun! But sometimes it’s tough when we have to go back home. 😔 To make it easier to leave, I gave him a time warning like, “In 5 mins it’s time to go home!”  But sometimes, it’s still a bummer, and he gets upset.  When he gets upset about leaving, I remind him that we had a great time, but it’s time to go home now, and he needs to be nice and respectful about it. I set firm boundaries that he won’t be kicking and screaming when he has to do something he doesn’t like or that he doesn’t want to do.  He can be sad about it, but he has to keep his behavior in check 💙 #gentleparenting #gentleparent #gentleparentinglife #momlife #momlifunfiltered #motherhoodunfiltered #motherhooduncensored #toddlertantrums #toddlertantrum #toddlerlifeishard #toddlerlife #momstrugglesarereal #parentingwithintention #parentingwithpurpose #parentingwithlove #bigfeelings  #emotionalregulation #momlifeishard </t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -20256,7 +20763,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>The video shows a woman tidying up a child's playroom after the child has fallen asleep. The room is filled with toys, a red slide, a white playhouse, and a small table. The woman picks up various toys, including felt food items like pizza slices with different toppings, a wooden shape sorter, and a toy cash register. She also organizes a toy doctor's kit and places a doll into a toy drawer. The video captures the playful and creative mess left behind by the child, highlighting the humorous and endearing aspects of parenting.</t>
+          <t>Quand elle s’endort au final j’aime bien ranger son coin jeux, on retrouve toujours des pépites 😂 Pour en voir plus sur 1g: bluefishdedunkerque 🤍✨</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -20388,11 +20895,7 @@
           <t>Born For The Spotlight #toddler #party #timeout #parenting</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>A woman with long, wavy brown hair is sitting at a table and speaking into a large black microphone. She is wearing a white off-the-shoulder sweater and a gold necklace. She is animatedly telling a story, using hand gestures and varied facial expressions. The background is a softly lit, modern indoor space. The text 'TTFIO' is visible in the bottom left corner of the screen.</t>
-        </is>
-      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
         <v>1714316400</v>
       </c>
@@ -20522,7 +21025,82 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>The video is a static promotional image for a podcast episode titled 'Sustainable Parenting'. It features headshots of two women: Flora McCormick, LCPC, and author Jane Nelsen. The image displays the episode number (57) and a quote from Jane Nelsen: 'Punishment makes children PAY for their mistakes. Positive Discipline is designed to help children LEARN from their mistakes.' The overall context is educational, promoting a parenting philosophy that contrasts punishment with positive discipline.</t>
+          <t>Join us on a journey with parenting expert Jane Nelsen as we uncover the secrets of positive discipline!✨ She'll offer gentle guidance on striking the perfect balance between kindness and firmness when it comes to raising our little ones.
+Over the next three weeks, Jane will share a treasure trove of tips for moms and dads who want to boost their kids' confidence, strength, and skills.
+Together, we'll explore the wisdom of Alfred Adler and Rudolf Dreikurs to learn how to navigate the challenges of modern parenting. Sometimes, we might find ourselves being too lenient with our kids, unintentionally spoiling them instead of helping them grow like butterflies emerging from their cocoons.
+But fret not, Jane reminds us that punishment isn't the answer to misbehavior. It just leads to misunderstandings and hurt feelings.
+ BY THE TIME YOU FINISH LISTENING, YOU'LL KNOW:
+🌟The long-term benefits of positive discipline over the temporary fix of punishment or permissive parenting. 
+🌟Key phrases that help you to get better cooperation from kids.
+🌟How to teach and guide your child to better behavior, rather than trigger your child's rebellion, revenge or retreat. 
+============================================================
+✨Join our Facebook community for more parenting hacks:
+https://www.facebook.com/groups/sustainableparenting/
+✨Listen to the Sustainable Parenting Podcast on:
+🎙Apple Podcast:
+https://podcasts.apple.com/us/podcast/sustainable-parenting/id1682538739
+🎙Spotify:
+https://open.spotify.com/show/3hjDrRkL4LD1EI1cb4MxkB?si=5e8b3f759e734c9a&amp;nd=1
+#sustainableparenting,
+#findingbalance,
+#parentingpodcast,
+#Podcast,
+#parentinggoalsfor2024,
+#parenting,
+#parentingstyles,
+#authoritativeparenting,
+#gentleparenting,
+#authoritarianparenting,
+#permissiveparenting,
+#coparenting,
+#parentingcoach,
+#parentingcoachcertification,
+#parentingcoachnearme,
+#howtobecomeaparentingcoach,
+#coparentingcoach,
+#certifiedparentingcoach,
+#parentingcoachonline,
+#podcast, 
+#parentingadvice,
+#sustainabletrailer,
+#sustainableparenting,
+#sustainable,
+#parentingadvice,
+#floramccormick,
+#LCPC,
+#lcpc,
+#flora,
+#McCormick,
+#mccormick,
+#sustainable,
+#parenting,
+#parentinghacks,
+#professionalcounselor,
+#parentingcoach,
+#parents,
+#youngchildren,
+#usingkindness,
+#firmness,
+#improvedrelationship,
+#child,
+#childcare,
+#kids,
+#kidshelp,
+#sustainableparentingtrailer,
+#parentingtrailer,
+#trailer,
+#parentingcoach,
+#parentingadvice,
+#sustainableparentingpodcast,
+#reset,
+#timeout
+#positivediscipline 
+#respectfulparenting
+#gettingkidstolisten
+#positiveparenting 
+#consciousparenting 
+#responsibleparenting
+#positivediscipline</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -20654,7 +21232,8 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>A woman with long blonde hair is speaking directly to the camera in a close-up shot. She is wearing a blue top and is indoors, with a plain wall and a ceiling light visible in the background. She is discussing the challenges faced by fathers in custody battles, expressing frustration with the legal system and the perception of women as the default custodial parent. She argues that fathers are fighting for rights that women already have and criticizes the use of children as leverage in these disputes.</t>
+          <t>Let’s Talk..
+#father #kids #emotional #sad #feelings #abuse #family #court #judge #baltimore #help #support #speakup #change #daddy #childadvocacy #parents #parenting #truth #youtube #custody #familycourt #share #repost #familylaw #lawyer #advocate #laws #dad #celebrity</t>
         </is>
       </c>
       <c r="I150" t="n">
@@ -20786,7 +21365,9 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>The video is a travel vlog-style compilation from a trip to Paphos, Cyprus, in 2024. It begins with scenes of an airport jet bridge and an airplane window view of the sea. The footage then shows the speaker and a colleague at a conference for the 'Society for the Scientific Study of Psychopathy,' where a presentation on 'Callous-Unemotional (CU) Behaviors Among Young Children with Oppositional Defiant Disorder' is taking place. The video also includes scenic shots of Cyprus, such as a rocky beach, a view of an ancient city from a hill, a harbor, and a boat's wake. The speaker and her colleagues are seen enjoying the trip, including a moment where they drink from a natural spring. The video concludes with a shot of a large, rusted shipwreck near the shore.</t>
+          <t>As we celebrate the 15th year of running the STP Pre-K, Dr. Graziano was able to present data at the 10th Society for the Scientific Study of Psychopathy conference showing how our program can reduce young children’s callous-unemotional (CU) behaviors that are maintained a year later. 
+Our lab’s most senior PhD student, Melissa Hernandez, also joined given that her dissertation focuses on the longitudinal association between CU behaviors and disruptive behavior disorders, as well as parenting factors that may influence this link. 
+In addition to networking with experts on psychopathy across the world we still found time to enjoy the wonderful sites of Cyprus with our partners who came along for the trip! #cyprus #paphos #sssp2024 #research #psychology #clinicalpsychology #psychopathy #callousunemotional #children #adhd #summertreatmentprogramprek #preschoolers #stpprek</t>
         </is>
       </c>
       <c r="I151" t="n">
@@ -20910,7 +21491,84 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>The video is a screen recording of a podcast episode from 'Sustainable Parenting Podcast'. The host, Flora McCormick, is shown in a video call window. She is speaking directly to the camera, discussing a parenting strategy. Text overlays appear on the screen, highlighting key phrases from her speech such as 'the 1 thing we can do that saves time for busy parents, is...', 'regular family meetings for 20 minutes a week', 'put it on the agenda and focus on solutions', and 'Teaching kids to brainstorm'. The speaker, Jane Nelsen, is identified as the author and founder of Positive Discipline. The overall context is an educational discussion on parenting techniques.</t>
+          <t>🏠✨ Imagine setting aside just 20 minutes a week to SAVE you time the rest of the week.
+Would you do it?
+Jane Nelsen (author and co-creator of @positivediscipline ) teaches us the key ingredients:
+1) Gather as a family,
+2) Brainstorm solutions, and
+3) Enjoy! Because the children will be more engaged in the solutions and you will feel less stress.
+It’s all about teaching kids to come up with their own ideas and working together as a family. 🌈🙌
+Jane shares how family meetings can be a game-changer, creating a more peaceful home. 🌿💬
+Tune in at Sustainable Parenting episode 59 to discover how this simple practice (and other great tools from the @positivediscipline_association ) can bring more harmony to your family life.
+We’d love to hear from u after you tune it! 🎧❤️
+============================================================
+✨Join our Facebook community for more parenting hacks:
+https://www.facebook.com/groups/sustainableparenting/
+✨Listen to the Sustainable Parenting Podcast on:
+🎙Apple Podcast:
+https://podcasts.apple.com/us/podcast/sustainable-parenting/id1682538739
+🎙Spotify:
+https://open.spotify.com/show/3hjDrRkL4LD1EI1cb4MxkB?si=5e8b3f759e734c9a&amp;nd=1
+#sustainableparenting,
+#findingbalance,
+#parentingpodcast,
+#Podcast,
+#parentinggoalsfor2024,
+#parenting,
+#parentingstyles,
+#authoritativeparenting,
+#gentleparenting,
+#authoritarianparenting,
+#permissiveparenting,
+#coparenting,
+#parentingcoach,
+#parentingcoachcertification,
+#parentingcoachnearme,
+#howtobecomeaparentingcoach,
+#coparentingcoach,
+#certifiedparentingcoach,
+#parentingcoachonline,
+#podcast, 
+#parentingadvice,
+#sustainabletrailer,
+#sustainableparenting,
+#sustainable,
+#parentingadvice,
+#floramccormick,
+#LCPC,
+#lcpc,
+#flora,
+#McCormick,
+#mccormick,
+#sustainable,
+#parenting,
+#parentinghacks,
+#professionalcounselor,
+#parentingcoach,
+#parents,
+#youngchildren,
+#usingkindness,
+#firmness,
+#improvedrelationship,
+#child,
+#childcare,
+#kids,
+#kidshelp,
+#sustainableparentingtrailer,
+#parentingtrailer,
+#trailer,
+#parentingcoach,
+#parentingadvice,
+#sustainableparentingpodcast,
+#reset,
+#timeout
+#positivediscipline 
+#respectfulparenting
+#gettingkidstolisten
+#positiveparenting 
+#consciousparenting 
+#responsibleparenting
+#positivediscipline</t>
         </is>
       </c>
       <c r="I152" t="n">
@@ -21042,7 +21700,81 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>The video shows two young girls in a backyard play area. One girl is sitting on a large, circular, blue swing, while the other girl stands beside her, pushing the swing to make it move. The scene is set on a grassy lawn with a wooden play structure and a white fence in the background. The sky is overcast. Text overlays are present on the screen, including a main title that reads, 'It's surprising, How many times you can solve whining with a pivot.' A pink 'Learn more' button is also visible.</t>
+          <t>This week, I’m dishing into solutions for whining. And I promise, they have worked for clients with kids as young as 3️⃣!
+Click the link in my bio to get right to the episode 🌟 (NEW today!) 🌟
+How does a pivot help with whining?
+A pivot can transform a tough situation into a joyful one, making both you and your child feel happier and more connected.
+Tune in to the Sustainable Parenting Podcast to learn more about the 2️⃣key tools that turn whining into more mature communication - and bring more peace and joy into your home.🏠
+Parenting doesn’t have to be perfect, but with a little creativity, it can be a lot more fun.💖
+============================================================
+✨Join our Facebook community for more parenting hacks:
+https://www.facebook.com/groups/sustainableparenting/
+✨Listen to the Sustainable Parenting Podcast on:
+🎙Apple Podcast:
+https://podcasts.apple.com/us/podcast/sustainable-parenting/id1682538739
+🎙Spotify:
+https://open.spotify.com/show/3hjDrRkL4LD1EI1cb4MxkB?si=5e8b3f759e734c9a&amp;nd=1
+#sustainableparenting,
+#findingbalance,
+#parentingpodcast,
+#Podcast,
+#parentinggoalsfor2024,
+#parenting,
+#parentingstyles,
+#authoritativeparenting,
+#gentleparenting,
+#authoritarianparenting,
+#permissiveparenting,
+#coparenting,
+#parentingcoach,
+#parentingcoachcertification,
+#parentingcoachnearme,
+#howtobecomeaparentingcoach,
+#coparentingcoach,
+#certifiedparentingcoach,
+#parentingcoachonline,
+#podcast, 
+#parentingadvice,
+#sustainabletrailer,
+#sustainableparenting,
+#sustainable,
+#parentingadvice,
+#floramccormick,
+#LCPC,
+#lcpc,
+#flora,
+#McCormick,
+#mccormick,
+#sustainable,
+#parenting,
+#parentinghacks,
+#professionalcounselor,
+#parentingcoach,
+#parents,
+#youngchildren,
+#usingkindness,
+#firmness,
+#improvedrelationship,
+#child,
+#childcare,
+#kids,
+#kidshelp,
+#sustainableparentingtrailer,
+#parentingtrailer,
+#trailer,
+#parentingcoach,
+#parentingadvice,
+#sustainableparentingpodcast,
+#reset,
+#timeout
+#positivediscipline 
+#respectfulparenting
+#gettingkidstolisten
+#positiveparenting 
+#consciousparenting 
+#responsibleparenting
+#positivediscipline
+#mindfulparenting</t>
         </is>
       </c>
       <c r="I153" t="n">
@@ -21170,7 +21902,8 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>A man, identified as David Coleman, a clinical psychologist, speaks directly to the camera in a home office setting. He is addressing a question about how to deal with exam anxiety for a Leaving Certificate student. He explains that the Leaving Certificate is the end-of-school exam in Ireland for 17-18-year-olds and acknowledges the anxiety surrounding it. He then discusses three potential sources of this anxiety: fear of failure (both external and internal), fear of the unknown, and feeling unprepared. He concludes by advising parents to acknowledge their children's anxieties, offer empathy, and provide support like tea and shoulder-rubs, rather than trying to project their own confidence.</t>
+          <t>Q&amp;A Dealing with exam anxiety…
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #tipsparenting #parentinglife #dad #familytime #leavingcert #mentalhealth #adolescence #parentingadvice #exam #examstress</t>
         </is>
       </c>
       <c r="I154" t="n">
@@ -21298,7 +22031,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>A man with dreadlocks, wearing a black hoodie and a silver chain, is sitting in a gaming chair and singing into a microphone. The background is a room with warm lighting, a plant, and some audio equipment. He sings a song with lyrics about finding a pot of gold and the importance of love. The video ends with a black screen displaying the song title 'Pot Of Gold' and the artist 'by Young Jonn'.</t>
+          <t xml:space="preserve">"....Only one life o, maa jaiye till the kingdom come.. Love me now don't love me later my darling!!" . Song: Pot Of Gold by YoungJonn . #ePianoh #PotOfGold #YoungJonn </t>
         </is>
       </c>
       <c r="I155" t="n">
@@ -21442,7 +22175,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>A woman with long, wavy blonde hair is sitting cross-legged on a light-colored wooden floor in a living room. She is speaking directly to the camera, gesturing with her hands as she talks. The room is well-lit with natural light from a large window. In the background, there is a green toy kitchen set, a sofa, and a dining table. The woman is discussing her experience with implementing a 'time out' for her two-year-old child, who has been kicking and testing boundaries. She explains that the time out was effective and shares her thoughts on the controversial parenting strategy.</t>
+          <t xml:space="preserve">⏰ Time out for bad choices?⏰ Our toddler is starting to test the boundaries so we tried ‘time out’ for the first time and it worked really well. I know some parents are very pro time out and others very much against it. What are your thoughts? Helpful or not? #timeout #behavior #behaviourmanagement #toddler #parenting #controversial </t>
         </is>
       </c>
       <c r="I156" t="n">
@@ -21576,7 +22309,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>The video shows a young child in light-colored pajamas standing alone in a corner of a room, next to a dark-colored door. An adult, likely a parent, is partially visible behind the child, gently holding them. The child appears to be in a 'time out' for misbehavior. The adult speaks to the child, instructing them to stand properly and stay in the corner until they realize their mistake. The child is seen looking around, touching their face, and shifting their weight, showing signs of discomfort and boredom. The scene is meant to demonstrate the 'time out' parenting technique.</t>
+          <t xml:space="preserve">Dengan begitu, anak bisa belajar menenangkan diri untuk meluapkan emosi negatifnya dengan cara yang lebih sehat, juga belajar untuk memahami bahwa perbuatan yang salah pasti akan memiliki konsekuensi.  Karena anak harus benar-benar sendirian tanpa perhatian, ia akan cepat merasa bosan dan kesepian. Ketika ia merasa bosan, akan terciptalah efek jera sehingga ia tak ingin mengulangi kesalahannya lagi. Sebab, anak-anak tidak suka merasa bosan atau diabaikan. ##timeout #timeout #anaktimeout #parenting </t>
         </is>
       </c>
       <c r="I157" t="n">
@@ -21710,7 +22443,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>A woman, identified as a speech-language pathologist and toddler mom, stands in a well-lit indoor hallway and speaks directly to the camera. She is wearing a white button-up shirt and uses expressive hand gestures as she talks. The video is a short-form educational piece, likely for social media, where she discusses parenting strategies. She argues against the common practice of yelling at children or using timeouts to manage tantrums, explaining that it's counterproductive. She suggests that parents should instead take a step back to regulate their own emotions before responding to their child's big feelings, thereby modeling the behavior they wish to teach.</t>
+          <t xml:space="preserve">Anyone else triggered by the blaming? Here is how to teach your toddlers &amp; kids so much more than yelling or a time out could do 🙌🏻 #toddlertantrums #bigfeelings #toddlermom #toddlerbehavior #timeout #babyhitting #toddlerhitting #gentleparenting #parentingstyles #toddlermeltdowns #toddlerdevelopment #socialemotionallearning #parentingtips #momsoftiktok #millenialmom </t>
         </is>
       </c>
       <c r="I158" t="n">
@@ -21844,7 +22577,8 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>A man in a suit and light blue shirt is walking outdoors on a sunny day with a blue sky and white clouds. He is speaking directly to the camera in a vlog-style video, discussing the challenges and injustices faced by fathers in the family court system. He lists questions and statements that men are often not allowed to make to their children, such as asking about their day or expressing concern for their health. He also criticizes the court system, stating that judges often side with the mother regardless of the facts, and that fathers are presumed guilty until proven innocent. The speaker is advocating for men's rights and the need for fathers to 'walk and talk' to support each other. He concludes by asking for help, encouraging viewers to share the video and donate to his GoFundMe for 'The Hurt Fathers Advocacy'.</t>
+          <t>We Can’t Talk 😢
+#dad  #daddy  #kids #question #family #feelings #sad #onions #emotionalintelligence #court #Daveeda #fathersday  #custody #viralreels #speakup #truth #familylaw #youtube #joy #god #silence #judge #nonprofit #advocate #advocacy #help #support #gofundme #athlete #sports</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -21980,7 +22714,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>A man, identified as a clinical psychologist, speaks directly to the camera in a home setting with a wooden ceiling. He discusses the effectiveness of 'time out' as a parenting strategy. He explains that using it as a way to calm down can be helpful, but using it as a punishment can be emotionally damaging for children, sending a message of rejection. He suggests moving away from time out as a form of punishment and towards more positive methods of discipline.</t>
+          <t>Does time-out work? #drdavidcoleman #timeout #parenting #parentingadvice</t>
         </is>
       </c>
       <c r="I160" t="n">
@@ -22114,7 +22848,9 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>The video shows two young girls walking on a paved road in a scenic, rural area with vineyards and mountains in the background. The older girl, in the foreground, walks towards the camera while holding a stick. The younger girl walks ahead of her. The older girl looks at the camera and speaks, pleading to stay at their hotel for one more day. The video has a humorous tone, as indicated by the text overlay 'Mood when you are not paying for anything on a family holiday' and the creator's description about 'special requests' during a vacation.</t>
+          <t>We’re not even half way through this vacation but already special requests and ideas are coming!🙄😏😂😂😂😂🧳☀️🕶️🏖️🌴
+Do you know this type? 🤦🏽‍♀️🤣
+#TheMtonganas #TheMtonganasFamilyHoliday #Sistaboss #BuhlebeNkosi #TheSquad #BundlesOfJoy #Kids #Vacation #SchoolHolidays #Travel #Family #Parenting #mtonganasfamilyvacation #funmoments</t>
         </is>
       </c>
       <c r="I161" t="n">
@@ -22246,7 +22982,84 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>The video shows a family having a relaxed time in their backyard. A young girl sits on a green ride-on toy, while two boys play with a long orange pole. In the background, a woman and a young girl are near a blue inflatable pool. The scene is set on a paved patio with a picnic table, plants, and a red umbrella. The overall atmosphere is casual and leisurely.</t>
+          <t>Wondering how to make this summer a breeze for you and your kids?
+Tune in as we dive into the secrets of a happy household by setting clear agreements on toys, tech, treats, and daily routines.
+In this episode, we’ll explore:
+1. Ways to set clear expectations that motivate your children to follow rules.
+2. Tricks to conquer bedtime battles and morning chaos.
+3. Why structured routines and pre-established agreements can make all the difference in minimizing conflicts.
+Unlock the secrets to a smoother, more joyful summer ☀️ with your family by trying out our practical tips in 🎙️ episode 63 of the Sustainable Parenting Podcast. 🎙️
+And don’t forget to check out episodes 14 and 23 for even more insights into managing bedtime and morning routines!
+#parentingduringsummer #summerhacks 
+============================================================
+✨Join our Facebook community for more parenting hacks:
+https://www.facebook.com/groups/sustainableparenting/
+✨Listen to the Sustainable Parenting Podcast on:
+🎙Apple Podcast:
+https://podcasts.apple.com/us/podcast/sustainable-parenting/id1682538739
+🎙Spotify:
+https://open.spotify.com/show/3hjDrRkL4LD1EI1cb4MxkB?si=5e8b3f759e734c9a&amp;nd=1
+#sustainableparenting,
+#findingbalance,
+#parentingpodcast,
+#Podcast,
+#parentinggoalsfor2024,
+#parenting,
+#parentingstyles,
+#authoritativeparenting,
+#gentleparenting,
+#authoritarianparenting,
+#permissiveparenting,
+#coparenting,
+#parentingcoach,
+#parentingcoachcertification,
+#parentingcoachnearme,
+#howtobecomeaparentingcoach,
+#coparentingcoach,
+#certifiedparentingcoach,
+#parentingcoachonline,
+#podcast, 
+#parentingadvice,
+#sustainabletrailer,
+#sustainableparenting,
+#sustainable,
+#parentingadvice,
+#floramccormick,
+#LCPC,
+#lcpc,
+#flora,
+#McCormick,
+#mccormick,
+#sustainable,
+#parenting,
+#parentinghacks,
+#professionalcounselor,
+#parentingcoach,
+#parents,
+#youngchildren,
+#usingkindness,
+#firmness,
+#improvedrelationship,
+#child,
+#childcare,
+#kids,
+#kidshelp,
+#sustainableparentingtrailer,
+#parentingtrailer,
+#trailer,
+#parentingcoach,
+#parentingadvice,
+#sustainableparentingpodcast,
+#reset,
+#timeout
+#positivediscipline 
+#respectfulparenting
+#gettingkidstolisten
+#positiveparenting 
+#consciousparenting 
+#responsibleparenting
+#positivediscipline
+#mindfulparenting</t>
         </is>
       </c>
       <c r="I162" t="n">
@@ -22374,7 +23187,8 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>The video is a first-person perspective of a man waking up in his bedroom. He speaks to his children, telling them it's time to get up for summer camp. He then walks outside, looking for his car, and expresses frustration that he forgot it. The video includes text overlays that reveal his emotional state, stating he 'forgot I couldn't afford it anymore after this custody battle' and that he 'misses my sons.' The video ends with a shot of a door with a Wolverine sticker and the text 'Let's Speak Up.'</t>
+          <t>More Dads Like U. 😢
+#dad #emotional #feelings #kids #sad #love #family #speakup #viralreels #repost #father #advocate #advocacy #familycourt #lawyer #youtube #parents #parenting #talkshow #twins #missyou #inspiration #truth #support #motivation #trending #kendricklamar #custody #drake #onion</t>
         </is>
       </c>
       <c r="I163" t="n">
@@ -22510,7 +23324,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>A woman with long red hair is sitting in the driver's seat of a car, speaking directly to the camera. She is wearing a white t-shirt and a beaded necklace. She is discussing her parenting philosophy, specifically her approach to discipline without using timeout. She uses a personal anecdote about her three-year-old son throwing a taco shell on the floor during dinner to illustrate her point. She explains that instead of sending him to timeout, she picked up the shell, sat him on her lap, and helped him regulate his emotions. She argues that timeout is ineffective because it doesn't teach children how to manage their feelings and that it's better to stay connected and help them learn self-regulation.</t>
+          <t xml:space="preserve">Toddler discipline without timeout. ♥️ #parenting #respectfulparenting #toddlersoftiktok #raisingtoddlers #toddlertok #toddlertantrums #parentinglittles #2under2 </t>
         </is>
       </c>
       <c r="I164" t="n">
@@ -22648,7 +23462,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>The video is a comedic skit from the perspective of a woman who is being broken up with by her partner. The breakup is framed as the partner needing a 'time out'. The woman reacts with extreme shock, disbelief, and emotional distress, claiming she had planned a trip with him and that this always happens to her on her birthday. After a dramatic monologue, she gets up and walks out of the restaurant, only to return moments later, now angry and sarcastic, telling her ex that she needs a 'time out' too.</t>
+          <t xml:space="preserve">Sometimes we all just need a time out #comedy #character #timeout #parenting </t>
         </is>
       </c>
       <c r="I165" t="n">
@@ -22780,11 +23594,7 @@
           <t>Setting up my toddler’s timeout corner #gentleparent #momlife #toddlers #childdevelopment</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>A woman, Olivia Owen, is shown setting up a cozy reading nook or 'timeout corner' in a room. She unboxes and assembles a small white armchair, a cloud-shaped wall lamp, and wooden shelves. She hangs a 'BROTHERS MAKE THE BEST FRIENDS' banner and a framed family photo. She then brings in a toddler, places books on the shelves, and reads to him on the rug. Throughout the video, she speaks directly to the camera, explaining that she recently posted a video about her toddler throwing tantrums, which she called 'millennial parenting.' She acknowledges that some people were offended by it and apologizes, but also states that it's not that deep and that it's okay to laugh at oneself. She concludes by inviting viewers to follow along as she sets up the space.</t>
-        </is>
-      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
         <v>1719860389</v>
       </c>
@@ -22912,7 +23722,11 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>A woman is shown setting up a 'timeout corner' for her toddler. She unboxes and assembles a small, white, fluffy armchair, installs wooden shelves on the wall, and sets up a cloud-shaped nightlight. She then hangs a 'BROTHERS MAKE THE BEST FRIENDS' banner and arranges framed family photos. She unrolls a large alphabet rug and places books on the shelves. Finally, she brings her toddler into the room, who happily sits in the new chair. The video is a tutorial on creating a calm and engaging space for a child during tantrums.</t>
+          <t>We are ready for timeout training, (thank goodness!) so I set up our space to be comfy, cozy, and have some activities to do to help de-escalate the tantrums!
+I think it turned out SO CUTE! 🥰 
+I linked everything in my LTK in my bio 🫶
+Follow along to see how I do timeout training! 
+#millennialparenting #millennialmom #millennialmoms #gentleparenting #gentleparent #millenialparenting #millenialmom #parentinghumor #parentinghumour #momhumor #parentinglife #parenting101 #bigfeelings #timeout #toddlertantrums #momlifebelike #millennialparents</t>
         </is>
       </c>
       <c r="I167" t="n">
@@ -23044,7 +23858,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>A woman is shown setting up a cozy and inviting 'timeout corner' for her toddler. She unboxes and assembles a small white armchair, installs wooden shelves on the wall, hangs a decorative banner that reads 'BROTHERS MAKE THE BEST FRIENDS', and places a cloud-shaped nightlight. She then brings in a colorful alphabet rug and books, and finally, she and her toddler interact in the newly created space, with the child sitting in the armchair and the mother reading to him.</t>
+          <t xml:space="preserve">We are ready for timeout training, (thank goodness!) so I set up our space to be comfy, cozy, and have some activities to do to help de-escalate the tantrums! I think it turned out SO CUTE! 🥰  I linked everything in my LTK in my bio 🫶 Follow along to see how I do timeout training!  #millennialparenting #millennialmom #millennialmoms #gentleparenting #gentleparent #millenialparenting #millenialmom #parentinghumor #parentinghumour #momhumor #parentinglife #parenting101 #bigfeelings #timeout #toddlertantrums #momlifebelike #millennialparents </t>
         </is>
       </c>
       <c r="I168" t="n">
@@ -23178,7 +23992,9 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>The video displays a static, aerial shot of a vast, dense pine forest under a soft, hazy sky, suggesting either sunrise or sunset. Overlaid on this serene background, a quote appears in white text, building line by line. The quote is attributed to Dr. Laura Markham and offers a perspective on parenting during a child's meltdown.</t>
+          <t>We all need a time-out once in a while. Take a moment to reflect.
+New kids products:
+https://littlelambsland.etsy.com</t>
         </is>
       </c>
       <c r="I169" t="n">
@@ -23314,7 +24130,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a beige cardigan, sits at a desk and speaks directly to the camera. She is in a room with a white cabinet and potted plants in the background. Text overlays appear on the screen as she speaks, posing the question 'how do I keep my 2 year old in timeout' and then providing her advice. She gestures with her hands while explaining her parenting philosophy.</t>
+          <t xml:space="preserve">How do I keep my toddler in timeout? Personally, I don’t recommend timeouts for any age.  So I would suggest you don't do it, and instead focus on consistent corrective actions every single time they do something that you don't like.  I'd suggest picking one behavior per week that you wanna correct, and you just do consistent corrective actions. As an example, if they throw a toy, you say no, and you put that toy where they can see it, but can't touch it. You have to do it every single time though, or it doesn't work. They learn through repetition.  Looking for extra guidance on parenting toddlers? Check out the toddler courses I’ve created  covering tantrums, potty training, bedtime battles, and toddlers who hit and bite, linked in my bio. ` ` ` #ToddlerLife #ToddlerAdventures #ToddlersOfInstagram #ParentingToddlers #ToddlerLearning #ToddlerMoms #ToddlerDads </t>
         </is>
       </c>
       <c r="I170" t="n">
@@ -23452,7 +24268,27 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a white tank top, sits at a desk and speaks directly to the camera. She is in a room with a black couch, a white wardrobe, and string lights in the background. She uses hand gestures as she talks. Text overlays appear on the screen, summarizing her points, such as 'time out tips don't do it,' 'Alternatives to Timeout?,' and 'No.1 childproof your home so you never have to say no.' She is discussing parenting strategies for toddlers, specifically offering alternatives to the timeout punishment method.</t>
+          <t>Get your FREE Behaviour Board HERE https://bratbusters.podia.com
+Welcome to Bratbusters. I’m Lisa Bunnage, and I love sharing what I’ve learned from decades of working with children. 
+If you’re a parent who wants to get mutual respect with your children, and learn how to become a calm leader, this is the place for you. 
+Where to Get Started:
+➡️ Bratbusters Bootcamp: Your 5 Week Transformation (For Kids Aged 3-12) https://bratbusters.podia.com/126b3bf6-b5aa-4088-a040-0bb54beb82c8 
+➡️ Bedtime Battles Course https://bratbusters.podia.com/bedtime-battles 
+➡️ Toddler Tantrum Busting Course https://bratbusters.podia.com/tantrum-busting
+➡️ Potty Training Course https://bratbusters.podia.com/parenting-made-easy-er 
+➡️ Toddler Biting / Hitting Course https://bratbusters.podia.com/toddlers-biting-hitting-etc 
+➡️ Private Coaching  https://bratbusters.com/coaching/ 
+➡️ FREE Behaviour Board  https://bratbusters.podia.com/
+Let’s Connect: 
+Instagram: https://www.instagram.com/bratbustersparenting/?hl=en 
+TikTok: https://www.tiktok.com/@bratbustersparenting?lang=en 
+YouTube: https://www.youtube.com/@BratBustersParenting 
+Facebook: https://www.facebook.com/BratBustersParenting
+Website: https://bratbusters.com/ 
+#ParentingCoach #ParentCoach #ParentCoaching 
+Disclaimer:
+I am a Parenting Coach and a Mom.  I am not a licensed psychologist or counselor.  My services do not replace the care of psychologists or other healthcare professionals. Coaching is in no way to be construed or substituted as psychological counseling or any other type of therapy or medical advice.
+Please read full disclaimer here https://bratbusters.com/disclaimer/</t>
         </is>
       </c>
       <c r="I171" t="n">
@@ -23580,7 +24416,21 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a white tank top, sits at a desk and speaks directly to the camera. She is in a room with a black couch, a white cabinet, and string lights in the background. She is discussing parenting strategies for toddlers, specifically alternatives to the timeout punishment. She gestures with her hands as she speaks, and text overlays appear on the screen to highlight her key points, such as 'Alternatives to Timeout?' and 'No.1 childproof your home so you never have to say no'. She shares her top five tips for parenting toddlers.</t>
+          <t>Alternatives to timeout? 
+For kids three and over, I recommend checking out my BratBusters Behaviour Board. 
+Then for toddlers, they are about consistent corrective actions right in the moment. Here are my topc five tips if you’re a parent of a toddler. 
+1️⃣ Childproof your home, that way you never have to say no.
+2️⃣ Start a toy rotation system, this way they’re never bored. You can start by swapping out toys once per week.
+3️⃣ Enter their world when you’re playing with them. Get down on the floor, and find your inner toddler so you can connect with their world.
+4️⃣ Stop trying to figure them out. They’re still fresh human beings who aren’t fully formed; they haven’t experienced enough yet.
+5️⃣ Stop trying to reason with them. They’re all about consistent corrective actions, because they learn through repetition.
+Looking for extra guidance on parenting toddlers? Check out the toddler courses I’ve created  covering tantrums, potty training, bedtime battles, and toddlers who hit and bite, linked in my bio.
+Kids three and older? Check out my BratBusters Behaviour Board that I send to my parenting newsletter, linked in my bio.
+Then, if you’re interested in learning the tools I teach for parenting like a calm leader, check out the BratBusters Bootcamp, linked in my bio. 
+`
+`
+`
+#ParentingCoach #ParentingTips #Parenting101 #PositiveParenting #ParentingSkills #FamilyWellness #ParentingSupport #RaisingKids #ParentingAdvice #MindfulParenting</t>
         </is>
       </c>
       <c r="I172" t="n">
@@ -23714,7 +24564,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>The video is an educational segment from a show called 'Mom's Corner' hosted by Nikita Willy. She interviews Zahra Khayra, a Certified Child Health Technician (CHt®), about the correct way to hold a baby. The discussion centers on why a baby's legs should not be held straight and rigid, but rather in a flexed, frog-like position. Zahra explains that this is to prevent hip dysplasia, a condition where the hip joint is not properly formed. She uses a baby doll to demonstrate the correct and incorrect ways to hold a baby, referencing the International Hip Dysplasia Institute. The video aims to provide parents with proper baby-wearing and holding techniques.</t>
+          <t xml:space="preserve">Kenapa sebaiknya bayi kakinya tidak lurus?  Lalu, sebenarnya posisi apa sih yang paling baik untuk menggendong si kecil agar tidak terkena hip dysplasia?  Parents, yuk simak video lengkapnya dengan Mom @Nikita Willy dan Zahra Khayra 👩🏻‍⚕️  #tipsparenting #psikologanak #gendonganbayi #babywearing #babyswaddle #raisingkids #newmomtips #newmom </t>
         </is>
       </c>
       <c r="I173" t="n">
@@ -23848,7 +24698,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>The video is a tour of a unique restaurant built inside a natural lava cave. The camera moves through the dimly lit interior, showcasing the raw, rugged rock walls and floors. Tables and chairs are arranged for diners, and the space is illuminated by warm, ambient lighting. The video highlights the cave's natural features, including a small stream of water flowing through it, which the creator identifies as the Amenano river. The overall atmosphere is rustic and atmospheric.</t>
+          <t xml:space="preserve">Il fiume che scorre al suo interno è l'Amenano🫶🏻🥰 #catania #ostello #ristorante #grotta </t>
         </is>
       </c>
       <c r="I174" t="n">
@@ -23974,7 +24824,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage, a parenting coach, is sitting in a chair and speaking directly to the camera. She is explaining why she does not recommend using 'timeouts' as a disciplinary method for children. She uses a hypothetical scenario of being sent to a corner at work to illustrate how humiliating and shaming the experience would be. She argues that children feel the same way but cannot articulate it, and that timeouts do not teach a lesson, instead making the child feel bad about themselves. She concludes by stating that timeouts are about avoiding humiliation and are dismissive and blaming. She then promotes her parenting resources, including a newsletter and a bootcamp.</t>
+          <t xml:space="preserve">Why don't I recommend a timeout?  Let's say, at work you make a mistake and your boss says, hey, you messed that up. You're 36 years old, so you sit in the corner, nose to wall for 36 minutes and you think about what you did. Wouldn't that be humiliating? With a child, when you send a child into a corner, they feel the same way, they just can't articulate that. When you say you think about what you did, they're not thinking about what they did, they are most likely just feeling bad about themselves.  There’s no lesson in timeout, so I don’t recommend it.  Not sure where to start in your calm leadership journey? Check out my BratBusters Behaviour Board that I send to my parenting newsletter, linked in my bio. Then, if you’re interested in learning the tools I teach for parenting like a calm leader, check out the BratBusters Bootcamp, linked in my bio.  ` ` ` #ParentingAdviceForDads #ParentingBlog #ParentingCoach #ParentingTips #Parenting101 #PositiveParenting #ParentingSkills #FamilyWellness </t>
         </is>
       </c>
       <c r="I175" t="n">
@@ -24108,7 +24958,8 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in a home office setting. He is addressing a common parenting concern where a child behaves well in public but is disrespectful at home, a phenomenon he refers to as a 'street angel, house devil'. He reassures parents that this behavior is common and a testament to their effective parenting, as the child is capable of upholding values in public. He suggests that the child's home behavior might be a release of defenses and that parents should focus on explaining their expectations for respect rather than resorting to punishment.</t>
+          <t>Q&amp;A how do you deal with a “street angel/house devil”?
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I176" t="n">
@@ -24244,7 +25095,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>A woman with purple hair, wearing a black t-shirt, is speaking directly to the camera in what appears to be a kitchen. She is discussing parenting styles, specifically differentiating between 'permissive parenting' and 'gentle parenting'. She recounts a story about a mother practicing gentle parenting who remained calm while her child threw a chair and hit her. The speaker argues that this is not true gentle parenting, stating that the mother should have set a boundary by saying, 'Hands are not for hitting.' She uses hand gestures to emphasize her points.</t>
+          <t xml:space="preserve">Gentle parenting is not permissive parenting #gentleparenting #permissiveparenting #parenting #modernparenting </t>
         </is>
       </c>
       <c r="I177" t="n">
@@ -24378,7 +25229,8 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>A man, identified as Jerron Hurtt, speaks directly to the camera in a series of outdoor and indoor shots. He is emotionally discussing the difficulties of being in a custody battle and losing contact with his children. He describes the emotional toll, including inability to sleep, eat, or look at himself. He states that courts are not acting in the best interest of the children and are instead favoring the mothers. He reveals that he is his own first client and is starting an advocacy group called 'The Hurt Fathers Advocacy' to help other fathers. He asks for donations to his GoFundMe to help him get his children back and to help other fathers.</t>
+          <t>Not Seeing Your Kids..
+#feelings #kids #emotional #daddy #family #love #youtube #sad #onions #help #support #gofundme #dad #father #parents #parenting #viralreels #onion #advocate #advocacy</t>
         </is>
       </c>
       <c r="I178" t="n">
@@ -24506,7 +25358,24 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage from BratBusters Parenting, is sitting in a chair and speaking directly to the camera. She is wearing a black tank top over a white one. The video is a response to a viewer's question about why she doesn't recommend time-outs. She uses a hypothetical scenario of an adult being sent to a corner by their boss to illustrate how humiliating and shaming she believes the practice is. She then applies this logic to children, arguing that they feel the same way but cannot express it. She concludes that time-outs are a form of humiliation and shaming that doesn't teach a lesson and is therefore not recommended.</t>
+          <t>Thanks for watching! 
+Courses &amp; Resources:
+➡️ BratBusters Bootcamp (16-35 Months Old) https://bratbusters.podia.com/toddler-bootcamp 
+➡️ BratBusters Bootcamp (3-12 Years Old) https://bratbusters.podia.com/126b3bf6-b5aa-4088-a040-0bb54beb82c8  
+➡️ Toddler Mini Courses https://bratbusters.podia.com/toddler-courses 
+➡️ Private Coaching https://bratbusters.com/coaching/  
+➡️ Get Your Behaviour Board Now https://bratbusters.podia.com/
+About BratBusters Parenting:
+I’m Lisa Bunnage, and I love sharing what I’ve learned from decades of working with children. If you’re a parent who wants to get mutual respect with your children, and learn how to become a calm leader, this is the place for you. 
+Let’s Connect: 
+Instagram: https://www.instagram.com/bratbustersparenting/?hl=en  
+TikTok: https://www.tiktok.com/@bratbustersparenting?lang=en  
+YouTube: https://www.youtube.com/@BratBustersParenting  
+Facebook: https://www.facebook.com/BratBustersParenting 
+Website: https://bratbusters.com/  
+Disclaimer: 
+I am a Parenting Coach and a Mom. I am not a licensed psychologist or counsellor. My services do not replace the care of psychologists or other healthcare professionals. Coaching is in no way to be construed or substituted as psychological counselling or any other type of therapy or medical advice.
+Please read full disclaimer here https://bratbusters.com/disclaimer/</t>
         </is>
       </c>
       <c r="I179" t="n">
@@ -24644,7 +25513,81 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>A woman in a pink ruffled top stands in what appears to be a home entryway or mudroom. She holds up a black backpack with a Superman logo, then pulls out a box of Crayola markers. She smiles and gestures towards the camera, with text overlays appearing on screen that read 'Did you forget the MOST important thing?' and 'Nope. Not that.' She then points to her head and smiles, with another text overlay saying 'Read caption'. The background includes a chalkboard calendar and a shelf with children's shoes.</t>
+          <t>If you’re ready to be intentional about how to cultivate a peaceful and joyful school year for your family- I have 3️⃣ Key steps that are ⭐️small, simple, and powerful.💥
+Join me - in Episode 70 of the #SustainableParenting Podcast to get them all. 🎉❤️
+This week will give you 3 approaches designed to foster an intentional and balanced school year.
+When you’re done listening, you’ll know 3 transformative strategies that can truly make a difference in your school year.
+AND, I’m sharing the 3️⃣ questions that I’ve been asking myself🤔 - that are really transforming my life. ❤️
+#parentingpodcast #parentingtipsandtricks #schoolsupplies #schoolyear 
+============================================================
+✨Join our Facebook community for more parenting hacks:
+https://www.facebook.com/groups/sustainableparenting/
+✨Listen to the Sustainable Parenting Podcast on:
+🎙Apple Podcast:
+https://podcasts.apple.com/us/podcast/sustainable-parenting/id1682538739
+🎙Spotify:
+https://open.spotify.com/show/3hjDrRkL4LD1EI1cb4MxkB?si=5e8b3f759e734c9a&amp;nd=1
+#sustainableparenting,
+#findingbalance,
+#parentingpodcast,
+#Podcast,
+#parentinggoalsfor2024,
+#parenting,
+#parentingstyles,
+#authoritativeparenting,
+#gentleparenting,
+#authoritarianparenting,
+#permissiveparenting,
+#coparenting,
+#parentingcoach,
+#parentingcoachcertification,
+#parentingcoachnearme,
+#howtobecomeaparentingcoach,
+#coparentingcoach,
+#certifiedparentingcoach,
+#parentingcoachonline,
+#podcast, 
+#parentingadvice,
+#sustainabletrailer,
+#sustainableparenting,
+#sustainable,
+#parentingadvice,
+#floramccormick,
+#LCPC,
+#lcpc,
+#flora,
+#McCormick,
+#mccormick,
+#sustainable,
+#parenting,
+#parentinghacks,
+#professionalcounselor,
+#parentingcoach,
+#parents,
+#youngchildren,
+#usingkindness,
+#firmness,
+#improvedrelationship,
+#child,
+#childcare,
+#kids,
+#kidshelp,
+#sustainableparentingtrailer,
+#parentingtrailer,
+#trailer,
+#parentingcoach,
+#parentingadvice,
+#sustainableparentingpodcast,
+#reset,
+#timeout
+#positivediscipline 
+#respectfulparenting
+#gettingkidstolisten
+#positiveparenting 
+#consciousparenting 
+#responsibleparenting
+#positivediscipline
+#mindfulparenting</t>
         </is>
       </c>
       <c r="I180" t="n">
@@ -24776,7 +25719,78 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>The video is a promotional image for a podcast episode. It features a smiling woman, Flora McCormick, sitting on a staircase. The text on the image identifies it as 'Episode 71: 3 Steps That Get Kids To Listen' from 'The Sustainable Parenting Podcast'. The image serves as a visual for the episode, which discusses parenting strategies.</t>
+          <t>Are you feeling stuck in never-ending battles with your child? 
+🎧 Check out Episode 71 of the Sustainable Parenting Podcast! I share a 3-step recipe that makes getting kids to listen a lot easier. Parents are excited about the calm and cooperation they’re finding—no more frustration, just quick and happy results! Let's make parenting smoother together. 💪
+#positivediscipline #parentinghacks #parentstruggles 
+============================================================
+✨Join our Facebook community for more parenting hacks:
+https://www.facebook.com/groups/sustainableparenting/
+✨Listen to the Sustainable Parenting Podcast on:
+🎙Apple Podcast:
+https://podcasts.apple.com/us/podcast/sustainable-parenting/id1682538739
+🎙Spotify:
+https://open.spotify.com/show/3hjDrRkL4LD1EI1cb4MxkB?si=5e8b3f759e734c9a&amp;nd=1
+#sustainableparenting,
+#findingbalance,
+#parentingpodcast,
+#Podcast,
+#parentinggoalsfor2024,
+#parenting,
+#parentingstyles,
+#authoritativeparenting,
+#gentleparenting,
+#authoritarianparenting,
+#permissiveparenting,
+#coparenting,
+#parentingcoach,
+#parentingcoachcertification,
+#parentingcoachnearme,
+#howtobecomeaparentingcoach,
+#coparentingcoach,
+#certifiedparentingcoach,
+#parentingcoachonline,
+#podcast, 
+#parentingadvice,
+#sustainabletrailer,
+#sustainableparenting,
+#sustainable,
+#parentingadvice,
+#floramccormick,
+#LCPC,
+#lcpc,
+#flora,
+#McCormick,
+#mccormick,
+#sustainable,
+#parenting,
+#parentinghacks,
+#professionalcounselor,
+#parentingcoach,
+#parents,
+#youngchildren,
+#usingkindness,
+#firmness,
+#improvedrelationship,
+#child,
+#childcare,
+#kids,
+#kidshelp,
+#sustainableparentingtrailer,
+#parentingtrailer,
+#trailer,
+#parentingcoach,
+#parentingadvice,
+#sustainableparentingpodcast,
+#reset,
+#timeout
+#positivediscipline 
+#respectfulparenting
+#gettingkidstolisten
+#positiveparenting 
+#consciousparenting 
+#responsibleparenting
+#positivediscipline
+#mindfulparenting</t>
         </is>
       </c>
       <c r="I181" t="n">
@@ -24906,11 +25920,7 @@
           <t>Why Parents Need Timeouts Too: How Stepping Away Can Make You a Better Parent</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>The video features a woman with long brown hair and glasses, wearing a white t-shirt with 'The RESET MINDSET' logo. She speaks directly to the camera in an indoor setting, using hand gestures to emphasize her points. Text overlays appear on the screen, highlighting key phrases from her speech. The video cuts to a brief clip of a different woman sitting in a car, looking stressed. The speaker discusses the concept of a 'timeout' for parents, sharing a personal anecdote about her son's explosive anger and how she would go to her car to calm down, only to be followed by her son.</t>
-        </is>
-      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
         <v>1724080771</v>
       </c>
@@ -25040,7 +26050,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>The video is a travel guide showcasing eight unique activities in Tofino, British Columbia. It begins with an aerial view of the coastline and then presents a numbered list of activities with corresponding scenic footage. The activities include swimming in a clear river, hiking a rainforest trail, visiting a coastal lookout, staying at a beachfront resort, enjoying a hot tub with an ocean view, dining at a restaurant, watching a sunset on the beach, and going for a bike ride on the sand. The video features a woman in various locations, highlighting the natural beauty and recreational opportunities of the area.</t>
+          <t xml:space="preserve">FULL TOFINO GUIDE BELOW ⬇️ 📌Save this post for BC travel inspo! We finally crossed Tofino, British Columbia off our bucket list, and we were not disappointed! This unique stretch of Vancouver Island has it all! We visited for 3 days and here is what we were able to see, do and eat in such a short time! WHERE TO STAY: The Best Western Plus Tin Wis Resort is an indigenous-owned oceanfront resort on Mackenzie Beach in Tofino. Besides the epic location, we loved the amenities which included free breakfast, a gym, and a hot tub overlooking the ocean. Plus the convenient onsite businesses offering mountain bikes + e-bikes, paddleboards, and an outdoor cedar sauna. This hotel is also kid-friendly and pet-friendly.  TOFINO ACTIVITIES: 1. Taylor River Rest Stop: swim in a glacier fed river with turquoise water. Located en route to Tofino  2. Rainforest Loop at the Pacific Rim National Park: Stunning boardwalk hike through an ancient rainforest. 3. Cox Bay Lookout hiking trail: Hike to an epic lookout facing Cox Bay Beach.  4. Sunset hot tub overlooking the ocean: Located at Best Western Plus Tin Wis Resort, this is one of the best spots to catch sunset in Tofino and available for hotel guests. 5. Bike on Mackenzie Beach: Bikes are available for rent at Best Western Plus Tin Wis Resort. 6. Surf or paddleboard at a Tofino beach: Long Beach and Cox Bay are great for surfing and Mackenzie Beach is great for Paddleboarding  WHERE TO EAT: Browns Socialhouse: Located within the hotel, this restaurant has sunset views of Mackenzie Beach. We loved the Wild Salmon Bowl and Dragon Bowl. Tacofino / Wildside Grill / Tofitian Cafe: All located together, these will satisfy your need for excellent coffee, tacos, chowder, and more.  #tofino #bestwestern #bc #vancouverisland #bctravel </t>
         </is>
       </c>
       <c r="I183" t="n">
@@ -25162,7 +26172,8 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>A man with a beard and a maroon shirt is sitting outside on a porch and speaking directly to the camera. He appears to be emotionally recounting a personal story about his relationship with his children. Text on the screen asks viewers to share the video and mentions 'The Hurt Fathers Advocacy' and a GoFundMe link.</t>
+          <t>Bring My Sons Home. 😢 
+#son #family #dad #father #love #parents #women #feelings #emotional #sad #joy #love #youtube #tiktok #onion #change #breakup ##influencer #parenting</t>
         </is>
       </c>
       <c r="I184" t="n">
@@ -25294,7 +26305,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>The video is a humorous compilation showcasing the challenges of 'gentle parenting' through a series of short clips featuring toddlers and young children. It contrasts the calm, patient approach of a mother with the more assertive, disciplinary style of a father. The scenes depict common parenting scenarios where children misbehave, such as opening cabinets, playing with inappropriate items like a Roomba, and refusing to go to bed. The mother's attempts at gentle redirection are met with escalating defiance, culminating in the father's intervention, which is portrayed as instantly effective. The video uses on-screen text to label the situations and the parents' voices to emphasize the contrast in their styles.</t>
+          <t>Part 1 | Attempted Gentle Parenting Fail #gentleparenting  #gentleparenting #parenting #fail #funny #humor #fyp #parentingjourney #oops #relatable #relatablecontent #relatablemoments #parentinglife #parentlife #funnyparenting #parentsoftiktok #gentle #xyzbca #verydemure #novelshort #bamarushG #justinbaldoni #rushtok #rush #daughters #bebe #dadsoftiktok #dadanddaughter **Warning: This video contains harmless pranks where people get playfully scared. No harassment or harm involved!</t>
         </is>
       </c>
       <c r="I185" t="n">
@@ -25428,7 +26439,8 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>A man with a beard, wearing a light blue t-shirt, walks through a suburban neighborhood while speaking directly to the camera. He is advocating for fathers' rights and discussing the negative impacts of family court systems, which he claims have alienated him from his children. He shares his personal story of being a single father who lost custody and now sees his sons only once a week. The video includes on-screen text that highlights key points of his message, such as the consequences of parental alienation and his call for action. A graphic promoting a 'Fathers Rally for Parental Rights' is also displayed.</t>
+          <t>A Single Black Father..
+#father #family #love #feelings #emotional #kids #parents #parentalalienation #familycourt #familylaw #b #dad #sad #help #ma #twins #thehurtttwins #repost #blackexcellence #blacklove #parenting #miss #missyou #inspiration #motivation #advocate  #singleparent #community  #talkshow</t>
         </is>
       </c>
       <c r="I186" t="n">
@@ -25560,7 +26572,24 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a white cardigan, speaks directly to the camera in a home setting. She is explaining the difference between a parenting technique called 'removing the toddler from the fun' and the traditional 'time out'. She argues that 'removing from the fun' is different because the parent stays with the child, whereas 'time out' involves seclusion and isolation. She describes 'removing from the fun' as taking the child with you while ignoring their bad behavior, such as kicking and screaming, and then moving on. She strongly criticizes 'time out' as being cruel, mean, humiliating, and isolating. Text overlays on the screen pose the question, 'Removing Toddler From the Fun Compared to Timeout?' and provide key points from her speech.</t>
+          <t>Thanks for watching! 
+Courses &amp; Resources:
+➡️ BratBusters Bootcamp (16-35 Months Old) https://bratbusters.podia.com/toddler-bootcamp 
+➡️ BratBusters Bootcamp (3-12 Years Old) https://bratbusters.podia.com/126b3bf6-b5aa-4088-a040-0bb54beb82c8  
+➡️ Toddler Mini Courses https://bratbusters.podia.com/toddler-courses 
+➡️ Private Coaching https://bratbusters.com/coaching/  
+➡️ Get Your Behaviour Board Now https://bratbusters.podia.com/
+About BratBusters Parenting:
+I’m Lisa Bunnage, and I love sharing what I’ve learned from decades of working with children. If you’re a parent who wants to get mutual respect with your children, and learn how to become a calm leader, this is the place for you. 
+Let’s Connect: 
+Instagram: https://www.instagram.com/bratbustersparenting/?hl=en  
+TikTok: https://www.tiktok.com/@bratbustersparenting?lang=en  
+YouTube: https://www.youtube.com/@BratBustersParenting  
+Facebook: https://www.facebook.com/BratBustersParenting 
+Website: https://bratbusters.com/  
+Disclaimer: 
+I am a Parenting Coach and a Mom. I am not a licensed psychologist or counsellor. My services do not replace the care of psychologists or other healthcare professionals. Coaching is in no way to be construed or substituted as psychological counselling or any other type of therapy or medical advice.
+Please read full disclaimer here https://bratbusters.com/disclaimer/</t>
         </is>
       </c>
       <c r="I187" t="n">
@@ -25694,7 +26723,8 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in what appears to be a home office. He is addressing a viewer's question about how to help their 15-year-old son who is addicted to vaping. He explains that the first step is to determine if the son genuinely wants help. He suggests that if the son is ready, parents can have conversations to understand the nature of his vaping and help him create a plan to stop. If the son is not ready, the parent should encourage him to learn about the dangers of vaping and adopt healthier habits, with the hope that he will eventually be ready to quit.</t>
+          <t>Q&amp;A 15 year boy addicted to vaping, how can you help him to stop?
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #vaping #tipsparenting #parentinglife #dad #familytime #addiction #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I188" t="n">
@@ -25826,7 +26856,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>A man wearing a grey waffle-knit robe and glasses sits in a chair, speaking directly to the camera. He uses exaggerated facial expressions and hand gestures to deliver a comedic monologue about parenting. The video is a parody of 'gentle parenting' advice, where he ironically uses the phrase 'I'm going to invite you to...' followed by a loud, aggressive command like 'STOP IT!' or 'GET DOWN!'. The setting is a simple room with a plant in the background. The video is shot in a vertical format, typical of social media content.</t>
+          <t xml:space="preserve">Gentle Parenting is a collaborative effort that you take with your child to ensure they are the best behaved. 🥳 Mothers have been raising children for millions of years, literally, and it’s time for a new way of doing things. 👩 With gentle parenting, there is no shame, blame, or punishment. Only well behaved children and stress free moms! 🥰 #momhumor #momhumour </t>
         </is>
       </c>
       <c r="I189" t="n">
@@ -25964,7 +26994,82 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>The video is a split-screen conversation between a woman and a man, likely a couple, discussing their parenting styles. The woman, who is a therapist, explains that when their children were younger, she focused on providing emotional support. The man agrees, stating that his approach was more about giving direct instructions and being firm. They discuss how their different styles balanced each other out. The woman then mentions that with a child who was not behaving, it made her want to lean even further into her emotional support style. The man is seen listening and responding throughout the conversation.</t>
+          <t>🌼 Are you and your partner on opposite ends of the spectrum between kindness and firmness in your parenting?
+It’s easy to feel pulled in different directions—one of you might focus more on rules and respect, while the other emphasizes emotional support.
+In this week’s Sustainable Parenting podcast episode (with special guest - my husband!) we explore 1 simple phrase that can help you find common ground.
+Join me and Gabe to discover how this phrase can bring more harmony to your parenting journey!
+Which role do you and your partner play at home?
+Let me know in the comments! 👇
+#parentingjourney #parenthood 
+============================================================
+✨Join our Facebook community for more parenting hacks:
+https://www.facebook.com/groups/sustainableparenting/
+✨Listen to the Sustainable Parenting Podcast on:
+🎙Apple Podcast:
+https://podcasts.apple.com/us/podcast/sustainable-parenting/id1682538739
+🎙Spotify:
+https://open.spotify.com/show/3hjDrRkL4LD1EI1cb4MxkB?si=5e8b3f759e734c9a&amp;nd=1
+#sustainableparenting,
+#findingbalance,
+#parentingpodcast,
+#Podcast,
+#parentinggoalsfor2024,
+#parenting,
+#parentingstyles,
+#authoritativeparenting,
+#gentleparenting,
+#authoritarianparenting,
+#permissiveparenting,
+#coparenting,
+#parentingcoach,
+#parentingcoachcertification,
+#parentingcoachnearme,
+#howtobecomeaparentingcoach,
+#coparentingcoach,
+#certifiedparentingcoach,
+#parentingcoachonline,
+#podcast, 
+#parentingadvice,
+#sustainabletrailer,
+#sustainableparenting,
+#sustainable,
+#parentingadvice,
+#floramccormick,
+#LCPC,
+#lcpc,
+#flora,
+#McCormick,
+#mccormick,
+#sustainable,
+#parenting,
+#parentinghacks,
+#professionalcounselor,
+#parentingcoach,
+#parents,
+#youngchildren,
+#usingkindness,
+#firmness,
+#improvedrelationship,
+#child,
+#childcare,
+#kids,
+#kidshelp,
+#sustainableparentingtrailer,
+#parentingtrailer,
+#trailer,
+#parentingcoach,
+#parentingadvice,
+#sustainableparentingpodcast,
+#reset,
+#timeout
+#positivediscipline 
+#respectfulparenting
+#gettingkidstolisten
+#positiveparenting 
+#consciousparenting 
+#responsibleparenting
+#positivediscipline
+#mindfulparenting</t>
         </is>
       </c>
       <c r="I190" t="n">
@@ -26092,7 +27197,8 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>The video is a personal vlog from a father, Jerron Hurtt, detailing his distress over a family court case that has resulted in the temporary removal of his twin sons. The video opens with a clip of one of his sons, Josh, looking sad and upset. The father narrates his concerns, explaining that he is worried about his children's well-being and has hired an attorney. He shares screenshots of emails he sent to a social worker, expressing his fears that his sons are scared of their mother's boyfriend, who he claims is hitting her. The video includes a clip of the two young boys interacting, with one trying to comfort the other. The father's video concludes with a direct appeal to his audience, asking for donations to his GoFundMe page to help bring his sons home. The overall presentation is emotional and serves as a plea for help.</t>
+          <t>I’m Worried About My Twins 🥹
+#twins #love #family #sad #kids #viralreels #parents #parenting #familycourt #lawyer #socialmedia #vlog #receipt #story #storytime #advocate #childadvocacy #talesfromthefamilycourt #thehurtttwins #youtube #help #fyp #explore #trendingreels #trending #talkshow #realityshow #truth #athlete #judge</t>
         </is>
       </c>
       <c r="I191" t="n">
@@ -26224,7 +27330,8 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a yellow headband, large orange-framed glasses, and a red top with a floral pattern, speaks directly to the camera. She is in a room with blue and white acoustic panels on the wall. She uses various hand gestures, including pointing and placing her hand on her chest, as she talks. The lighting creates a blue reflection in her glasses.</t>
+          <t>I got you!! 
+#work #workworkworkworkwork #memtalhealth #break #timeoffwork #timeout #viralvideo</t>
         </is>
       </c>
       <c r="I192" t="n">
@@ -26348,7 +27455,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>The video shows a young child in a hallway with blue carpeting. The child is seen running away from an adult, then stopping and standing still. The child then crawls on the floor to get to a door, and later is seen standing in front of an elevator. The video includes text overlays that appear to be a monologue from the adult, discussing parenting strategies and the importance of offering choices to a child instead of using authority or punishment. The child's actions seem to be a form of resistance or negotiation, and the adult's response is to remain calm and offer a choice, which ultimately leads to the child complying.</t>
+          <t xml:space="preserve">There is no need for a heavy hand of authority when you can playfully redirect a situation by offering choice. This almost always leads to collaborative cooperation. #parenting101 #parentinghacks #parentingstruggles #childpsychology #learning #parentingtips #powerstruggle #punishment #timeout #disobedience #obedient #choice #playfulness #cooperation #collaboration #conflicresolution </t>
         </is>
       </c>
       <c r="I193" t="n">
@@ -26486,7 +27593,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>The video displays a static image of a dimly lit hallway corner. On the left wall, there is a large, plush penguin toy. On the right wall, there is a cartoonish drawing of a character with a large head and a backpack. The image is overlaid with a text box that reads, 'HOW WE LOOKED STANDING IN THAT TIMEOUT CORNER' followed by three crying-laughing emojis. The overall scene is a humorous and nostalgic depiction of a child's 'timeout corner' from the 1990s.</t>
+          <t xml:space="preserve">Takes me back 🥲🥲🥲 #memes #90kid #humortiktok #humor #timeout #raisingkids #parenting #memories #momsoftiktok #dadsoftiktok </t>
         </is>
       </c>
       <c r="I194" t="n">
@@ -26624,7 +27731,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>A woman with glasses and a pink sweater is shown in a close-up shot. She has a skeptical expression, resting her chin on her hand. Text overlays appear on the screen, creating a dialogue. The top text, labeled 'Parent:', states, 'My child keeps hitting their brother. I'm going to send them to their room to think about what they've done.' Below it, the text 'Me:' appears with the response, 'They won't.' The background is a room with a shoji screen door. The video is accompanied by background music.</t>
+          <t>While many of us may have relied on sending kids to their room as a disciplinary tool, it often misses the mark. 
+The idea is that kids will think about their behavior and what to do differently while they’re isolated isn't really what happens. Instead of thinking about how to act better, they often think about the unfairness of it and how angry they are at being there.
+Time-outs can also create a sense of isolation, leading kids to feel disconnected at a time where they need connection the most. Rather than teaching them better choices, in all truthfulness it does the opposite.
+If you're looking for more effective strategies to guide your child's behavior and foster positive communication, reach out! We’d love to share alternatives that truly make a difference.  
+#PositiveParenting #BehaviorSupport #ParentingTools 
+#toddler #childbehaviorconsultant #positiveparenting #parentingtips #childbehaviortips #parenting #toddlertroubles #parentlife #parentingtip #behaviortips #parentinghacks #gentleparenting #childdevelopment #positiveparentingtips #mindfulparenting #toddlerlearning #toddlerproblems #positiveguidance #positivechildhood</t>
         </is>
       </c>
       <c r="I195" t="n">
@@ -26758,7 +27870,8 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>A woman in a light blue tracksuit walks into a room where two young boys are standing by a wall. She asks them if their father put them in time out. One of the boys replies that he was given five minutes. The woman then asks how much time the father gave the other boy, and the boy replies that he was given ten minutes. The woman seems to be reacting to the different time durations given to the two boys.</t>
+          <t>When Daddy said… “ANYBODY CAN GET IT!” and meant it 😂😂😂
+#love #family #couplegoals #millenialmarriage #blacklove #boymom #timeout #instagood #contentqueen #funnyreels #trending</t>
         </is>
       </c>
       <c r="I196" t="n">
@@ -26886,7 +27999,8 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>A woman in a striped sweater is in her kitchen with her young toddler son. The child is having a tantrum after being told a spoon goes in the garbage. The woman calmly but firmly tells him he needs to pick up the spoon and then, when he continues to cry, she implements a time-out. She carries him to a carpeted staircase, places him on a step, and tells him to 'begin to calm down.' She then walks away, leaving him to calm down. After a few moments, she returns, kneels down, and speaks to him calmly, helping him to regain composure. The video is a demonstration of the 'time-out method' for handling toddler tantrums.</t>
+          <t>Comment 'Help' to learn more about Time-out Training ♥️
+#gentleparenting #gentleparent #toddlertantrums #toddlertantrum #timeout #momtips #momlife #momlifeunfiltered #momadvice #parenting #parentingadvice #parentingtips #parentingwithintention #momssupportingmoms #momlifeishard</t>
         </is>
       </c>
       <c r="I197" t="n">
@@ -27018,7 +28132,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>The video is a short, comedic skit featuring a young boy and his father. In the first scene, the boy is lying on his mother's lap on a couch. The father tells the boy that the mother needs a break and some space. The boy, looking sad and confused, repeatedly says 'No' in protest. The scene then cuts to the boy standing in a doorway, now wearing a different outfit (a red shirt), looking up with a pouty, disappointed expression, as if he has been told 'no' to his request.</t>
+          <t xml:space="preserve">Mummy needs a break. Let's ask the boss. #annualleave​ #holidayrequest​ #dad​ #son​ #mum​ #dadlife​ #family​ #mom​ #kids​ #entertainment​ #comedy​ #showbiz​ #boss​ #bossbaby​ #rejection​ #no​ </t>
         </is>
       </c>
       <c r="I198" t="n">
@@ -27152,7 +28266,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>The video features a man in a light blue striped shirt speaking directly to the camera in an indoor setting. He discusses the topic of wrist size, specifically addressing whether it's possible to make small wrists bigger. He uses hand gestures to emphasize his points and displays anatomical diagrams of the hand and wrist to explain that wrist size is primarily determined by genetics and bone structure, not muscle. He also shows a hand grip strengthener and a clip of someone doing a forearm exercise, but clarifies that these do not increase wrist circumference. The video includes text overlays in Thai and English, such as 'Anatomy of the hand and wrist' and 'Forearm exercise'.</t>
+          <t>อยากข้อมือใหญ่ขึ้น??? #ทีมโย่ว #พัฒนาตัวเอง</t>
         </is>
       </c>
       <c r="I199" t="n">
@@ -27284,11 +28398,7 @@
           <t>How I handle toddler tantrums using the time out method #toddlers #parenting #momlife #parentingtips</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>A woman in a striped sweater is in her kitchen with a toddler boy in blue pajamas. The woman is calmly instructing the child, who is holding a spoon. The child begins to cry and throw a tantrum. The woman picks him up and carries him to a carpeted staircase, where she places him down to have a time-out. The child sits on the stairs, visibly upset, while the woman sits in the living room. After a period of time, the woman returns, kneels down, and speaks to the child, who then calms down and smiles. The video is titled 'How I handle toddler tantrums using the time-out method.'</t>
-        </is>
-      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="n">
         <v>1729814278</v>
       </c>
@@ -27414,7 +28524,13 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>The video is a tutorial demonstrating a 'time-out' process for a toddler. It begins with a woman sitting on a couch, talking to her crying baby. She then picks up the child and walks to a carpeted staircase, where she places him on a step to have a time-out. The child continues to cry, and the woman stays nearby to monitor him. After a period, she returns, asks if he is ready for good behavior, and they share a hug. The video concludes with the woman and child relaxing together on the couch.</t>
+          <t>✨ Comment 'Help' to learn more about Time-out Training ✨
+I know timeouts can be a controversial topic, but let me explain how/why I use timeouts..
+For me, Time-out is not a punishment. It’s not the consequence. It’s not the discipline method. It is simply time out from a very emotional situation. 
+It’s stepping away and taking a minute to calm down. To breathe. To regulate before handling a stressful situation. 
+I introduce timeouts to my children between 18-24 months, when I know they’re able to understand and follow instructions. 
+Doing this at a young age gives them essential skills and tools that they can use as they grow and become more self aware.
+#gentleparenting #gentleparent #toddlertantrums #toddlertantrum #timeout #momtips #momlife #momlifeunfiltered #momadvice #parenting #parentingadvice #parentingtips #parentingwithintention #momssupportingmoms #momlifeishard</t>
         </is>
       </c>
       <c r="I201" t="n">
@@ -27544,11 +28660,7 @@
           <t>Breaking Down My Time-Out Process for Toddlers  #gentleparenting #parenting #parentingtips #momlife</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>The video is a tutorial demonstrating a 'time-out' process for a toddler. A woman, the child's mother, first calmly explains the choice between good behavior and a time-out. She then carries the crying toddler to a carpeted staircase, places him on a step, and leaves him to calm down. She stays nearby to monitor him. After a period, she returns, asks if he is ready for good behavior, and they share a hug and an apology, concluding the process.</t>
-        </is>
-      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
         <v>1729868720</v>
       </c>
@@ -27680,7 +28792,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>A woman in a kitchen is preparing pancakes while talking to the camera. She discusses the backlash she received for a previous video where she showed using the timeout method to handle her toddler's tantrums. She acknowledges the criticism, such as the idea that her child is too young to understand and that she should co-regulate and allow him to feel his feelings. She then explains her perspective, stating that while she wants her child to express himself and have a healthy relationship, she also needs to manage unacceptable behavior. She introduces the timeout method as a way to give her child a safe space to calm down and then talk about his feelings. The video shows her and her toddler eating the pancakes together, and she concludes by saying that she will teach him the difference between acceptable and unacceptable behavior.</t>
+          <t xml:space="preserve">Someone told me that since so many people don’t like my parenting methods, then I should change the way I parent..  Since when did we start parenting to please strangers on the internet? 🤔 I know time-outs aren’t for everyone, and that’s ok. Everyone’s parenting journey is different, and we don’t all have to be the same. ❤️ My goal is to raise confident, respectful, and happy children. Am I perfect? Absolutely not. Do I make mistakes? Of course. That’s all part of the process.  But I’m trying my best every day, and if something works for us, I’m not afraid to share in hopes that it might help someone else going through the same thing 💕 #gentleparenting #gentleparent #toddlertantrums #toddlertantrum #timeout #momtips #momlife #momlifeunfiltered #momadvice #parenting #parentingadvice #parentingtips #parentingwithintention #momssupportingmoms #momlifeishard </t>
         </is>
       </c>
       <c r="I203" t="n">
@@ -27816,11 +28928,7 @@
           <t>Toddler Timeouts Backlash #momlife #childbehavior #parenting #toddlertantrums #gentleparenting</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>A woman in a kitchen is preparing food while talking to the camera. She discusses the backlash she received for a previous video where she showed how she handled her toddler's tantrums using the timeout method. She explains the comments she received, such as her child being too young to understand and the need for co-regulation. She then demonstrates her approach to timeout, showing her son in a safe space to calm down and express his feelings. After he calms down, she hugs him and teaches him the difference between acceptable and unacceptable behavior.</t>
-        </is>
-      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
         <v>1730228106</v>
       </c>
@@ -27952,7 +29060,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>A woman in a kitchen is preparing pancakes while talking to the camera. She discusses the negative feedback she received for a previous video where she showed her toddler having a tantrum and using the timeout method. She acknowledges the criticism, such as the child being too young to understand, and the advice to co-regulate and allow the child to feel their feelings. She then explains her perspective, stating that while she wants her child to express himself, she also needs to set boundaries for unacceptable behavior. She defines timeout as a safe space for the child to calm down and later discuss their feelings. The video shows her making pancakes, and then interacting with her toddler, who is initially excited about the pancakes but then has a tantrum. She calmly puts the plate away, and after the child calms down, she hugs him and teaches him about acceptable and unacceptable behavior.</t>
+          <t>Someone told me that since so many people don’t like my parenting methods, then I should change the way I parent.. 
+Since when did we start parenting to please strangers on the internet? 🤔
+I know time-outs aren’t for everyone, and that’s ok. Everyone’s parenting journey is different, and we don’t all have to be the same. ❤️
+My goal is to raise confident, respectful, and happy children. Am I perfect? Absolutely not. Do I make mistakes? Of course. That’s all part of the process. 
+But I’m trying my best every day, and if something works for us, I’m not afraid to share in hopes that it might help someone else going through the same thing 💕
+#gentleparenting #gentleparent #toddlertantrums #toddlertantrum #timeout #momtips #momlife #momlifeunfiltered #momadvice #parenting #parentingadvice #parentingtips #parentingwithintention #momssupportingmoms #momlifeishard</t>
         </is>
       </c>
       <c r="I205" t="n">
@@ -28084,7 +29197,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>The video is a comedic 'roast challenge' between a man and a woman in a backyard. They take turns running and performing silly, exaggerated actions while being filmed. The man wears a white t-shirt with a cartoon character, maroon pants, and a baseball cap. The woman wears a black tank top, dark jeans, and a baseball cap. They run past a wooden fence, a stone wall, and a children's wooden playset. The man is seen climbing the playset and later points to a red and yellow toy car. The woman runs with her hands on her hips. The video has a text overlay asking, 'Who roasted better?!'.</t>
+          <t>Suspects caught! #suspect #suspecttrend #suspectchallenge #funny #funnyvideos #marriage #couple #fyp #foryou #trend #marriedlife</t>
         </is>
       </c>
       <c r="I206" t="n">
@@ -28208,7 +29321,8 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>The video is a personal vlog-style monologue from a man who identifies as a 'hurt father.' He speaks directly to the camera, explaining that he lives in Vancouver, Washington, and sees his children only four times a year because they live in the Phoenix, Arizona area. He states he did nothing wrong and is not a criminal, and expresses his excitement and preparations for seeing his children again in a few days. The video includes cuts to him doing laundry, presumably to prepare for his children's visit. Throughout the video, text overlays appear, asking for support for his GoFundMe page, 'The Hurt Fathers Advocacy,' and his Cashapp handle. He also promotes his YouTube channel, 'Surviving Divorce For Men.' The man is shown in different shirts, suggesting the video is a compilation of clips.</t>
+          <t>Another Night Without Them 😢 
+#dad #father #family #love #joy #emotional #youtube #viralreels #onion #onions #speakout #politics #families #parents #parenting #civilrights #injustice #familylaw #familycourt #baby #sad #daddy #help #support #together</t>
         </is>
       </c>
       <c r="I207" t="n">
@@ -28336,7 +29450,8 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>A bald man, identified as David Coleman, a clinical psychologist, is speaking directly to the camera in what appears to be a home office. He is wearing a dark blue sweater over a white shirt and is positioned in front of a large black microphone. The background features a wooden paneled wall and ceiling, along with a bookshelf. He is answering a question about whether parents should prepare their children for sex education in school, stating that it is primarily a parent's job to provide both the facts and the values surrounding sex and relationships.</t>
+          <t>Q&amp;A should you prep your child before their s*x-ed programme in school?
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I208" t="n">
@@ -28461,7 +29576,8 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>The video is a split-screen TikTok post. On the left, a woman is parenting a toddler who is having a tantrum. She calmly explains that a spoon goes in the garbage, then, after the child throws it, she implements a 'time-out' by placing him on the stairs. She sits nearby, observing, and later returns to hug and comfort him after the time-out. On the right, a person is artfully arranging a large, colorful fruit platter with watermelon, pineapple, grapes, strawberries, and other fruits, creating a beautiful centerpiece.</t>
+          <t>Full time-out training video tomorrow morning! ✨
+ #gentleparenting #gentleparent #toddlertantrums #toddlertantrum #timeout #momtips #momlife #momlifeunfiltered #momadvice #parenting #parentingadvice #parentingtips #parentingwithintention #momssupportingmoms #momlifeishard</t>
         </is>
       </c>
       <c r="I209" t="n">
@@ -28591,7 +29707,13 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>The video is a parenting advice segment where a woman, Livjowen, discusses the appropriate use of time-outs for toddlers. She begins by explaining that a time-out is not a punishment but a break from a situation to help a child calm down. She then provides two contrasting scenarios: one where a child is upset but can still communicate, and another where a child is screaming and throwing themselves around. In the first scenario, she demonstrates how to calmly talk with the child and offer a choice. In the second, she shows a child in distress and explains that a time-out would be necessary. The video uses a combination of direct-to-camera speaking and real-life footage of her interacting with her children to illustrate her points.</t>
+          <t>✨ Let’s talk about when (and when not) to use time-outs with our little ones. This can be a tricky topic, so here’s a quick guide I follow with my toddlers:
+💥 When a Time-Out Is Helpful:
+Time-outs are for moments when a child’s behavior escalates beyond what they can control—like screaming, hitting, or refusing to listen. These are signs that their emotions have taken over, and they need a moment to calm down before they’re able to hear or respond to us. Time-outs provide a safe space for them to reset and regain control of their feelings. 💛
+🌱 When No Time-Out Is Needed:
+On the flip side, when a child is upset but can still listen, express their feelings, or engage in communication, that’s actually a huge win. This is when they’re learning how to work through emotions in real time, and it’s a great opportunity for us to be there, help them process, and validate their feelings without needing a break. ✨
+Using time-outs thoughtfully helps kids feel safe and understood. They’re not punishments but tools for calming down. If you have questions or want to know more, drop them below! 👇💬 
+#gentleparenting #timeout #momtips #momadvice #parentingadvice #parentingtips #parentingwithpurpose #parentingwithintention #momssupportingmoms #momlifeunfiltered #toddlermomlife #toddlertantrums #gentleparent #toddlermomlife #terribletwos #bigfeelings #parenting #momlife</t>
         </is>
       </c>
       <c r="I210" t="n">
@@ -28723,7 +29845,11 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>The video features a woman, Olivia Owen, speaking directly to the camera in a home setting. She discusses the parenting strategy of 'time-out' for toddlers. She presents a comparison, first showing a scenario where a toddler is upset but can communicate, and she offers comfort and alternative play instead of a time-out. She then shows a different scenario where a toddler is screaming and throwing themselves on the floor, implying that a time-out might be more appropriate in such cases of escalated behavior.</t>
+          <t>✨ Let’s talk about when (and when not) to use time-outs with our little ones. This can be a tricky topic, so here’s a quick guide I follow with my toddlers:
+💥 When a Time-Out Is Helpful:
+Time-outs are for moments when a child’s behavior escalates beyond what they can control—like screaming, hitting, or refusing to listen. These are signs that their emotions have taken over, and they need a moment to calm down before they’re able to hear or respond to us. Time-outs provide a safe space for them to reset and regain control of their feelings. 💛
+🌱 When No Time-Out Is Needed:
+On the flip side, when a child is upset but can still listen, express their feelings, or engage in communication, that’s actually a huge win. This is when they’re learning how to work through emotions in real time, and it’s a great opportunity for us to be there, help them process, and validate their feelings without needing a break. ✨</t>
         </is>
       </c>
       <c r="I211" t="n">
@@ -28861,7 +29987,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>The video features a woman speaking directly to the camera, explaining her parenting philosophy on using 'time-outs' with toddlers. She clarifies that a time-out is not a punishment but a break from a situation. To illustrate her point, she shows two scenarios. In the first, a toddler is upset but can communicate, and the mother calmly talks with him, offering a choice to sit with her or find a toy. The woman explains this is not a time-out situation. In the second scenario, a different toddler is shown screaming and throwing himself on the floor, which the woman identifies as a situation where a time-out would be appropriate to help the child calm down. The video concludes with the woman summarizing her approach.</t>
+          <t xml:space="preserve">✨ Let’s talk about when (and when not) to use time-outs with our little ones. This can be a tricky topic, so here’s a quick guide I follow with my toddlers: 💥 When a Time-Out Is Helpful: Time-outs are for moments when a child’s behavior escalates beyond what they can control—like screaming, hitting, or refusing to listen. These are signs that their emotions have taken over, and they need a moment to calm down before they’re able to hear or respond to us. Time-outs provide a safe space for them to reset and regain control of their feelings. 💛 🌱 When No Time-Out Is Needed: On the flip side, when a child is upset but can still listen, express their feelings, or engage in communication, that’s actually a huge win. This is when they’re learning how to work through emotions in real time, and it’s a great opportunity for us to be there, help them process, and validate their feelings without needing a break. ✨ Using time-outs thoughtfully helps kids feel safe and understood. They’re not punishments but tools for calming down. If you have questions or want to know more, drop them below! 👇💬  #gentleparenting #timeout #momtips #momadvice #parentingadvice #parentingtips #parentingwithpurpose #parentingwithintention #momssupportingmoms #momlifeunfiltered #toddlermomlife #toddlertantrums #gentleparent #toddlermomlife #terribletwos #bigfeelings #parenting #momlife </t>
         </is>
       </c>
       <c r="I212" t="n">
@@ -28987,7 +30113,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>A woman in a white t-shirt and jeans stands in a room with a bookshelf, speaking directly to the camera. She explains that a time-out was not originally intended as a punishment. A young girl in a mauve outfit enters the scene. The woman gently guides the girl to a corner of the room, demonstrating how a time-out is often used to isolate a child. The woman then hugs the girl and explains the original purpose of a time-out: to remove a child from an overstimulating environment to a safe, non-reinforcing place to calm down. She then leads the girl to a cozy reading nook with a rug and pillows, where they sit together and read a book titled 'I'm a Dirty Dinosaur'.</t>
+          <t>So many things just don't matter. This is #1 in my list of 4 things I wish I knew as a young mother. Click to read the rest!</t>
         </is>
       </c>
       <c r="I213" t="n">
@@ -29113,7 +30239,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>A woman in a white t-shirt and jeans stands in a room with a bookshelf, speaking directly to the camera. She explains that a time-out was not originally intended as a punishment. A young girl in a mauve outfit enters the scene. The woman gently guides the girl to a corner, demonstrating how a time-out is often used as a form of isolation and restriction. The woman then hugs the girl, explaining that the original purpose of a time-out was to remove a child from an overstimulating environment to a safe, non-reinforcing place to calm down. She then leads the girl to a cozy reading nook with a rug and pillows, where they sit together and read a book titled 'I'm a Dirty Dinosaur'.</t>
+          <t>So many things just don't matter. This is #1 in my list of 4 things I wish I knew as a young mother. Click to read the rest!</t>
         </is>
       </c>
       <c r="I214" t="n">
@@ -29247,7 +30373,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>The video opens with a shot of a living room floor with scattered small, round objects. A baby walker is visible in the background, along with a decorated Christmas tree and a television. The camera then cuts to a close-up of a woman wearing a pink shower cap, who is speaking directly to the camera. She is in a different room with a plain white wall behind her.</t>
+          <t xml:space="preserve">No pero ya encerio 🤔🤣  #normalicemos #trend #humor </t>
         </is>
       </c>
       <c r="I215" t="n">
@@ -29377,7 +30503,8 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>The video is a personal vlog from a father named Jerron Hurtt, documenting his family's situation. It begins with his young twin sons walking on a sidewalk. The father narrates a story about a woman who accused him of something, which he claims was a lie. He then shows his sons interacting with each other, with text overlays suggesting they are being used as a 'role model' and that he is trying to help them live a 'normal life' through therapy. The video includes a text overlay about his aunt's cancer diagnosis and a GoFundMe page for 'The Hurt Fathers Advocacy.' It concludes with a screenshot of an email discussing a trial and the father's concern for his sons' safety and well-being.</t>
+          <t>I Miss My Sons 😢 Pt 3
+#twins #adorable #love #family #familyvlog #sad #emotional #pain #hurt #onion #onions #joy #toddler #vlog #rolemodel #daddy #father #help #support #news #realitytv #story #storytelling #fyp #youtube #kids #familylaw #civilrights #parenting #parents</t>
         </is>
       </c>
       <c r="I216" t="n">
@@ -29513,7 +30640,24 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage from BratBusters Parenting, is speaking directly to the camera in a home setting. She is wearing a black beanie and a dark blue zip-up hoodie. She is discussing parenting strategies, specifically alternatives to the traditional 'time out' punishment for children. She explains that discipline should be a consequence with a lesson, unlike time out, which she feels is ineffective. She promotes her 'behaviour board' system, which outlines rules and specific, immediate consequences for breaking them, such as doing a chore or a '24-hour media blackout'. She also mentions a 'bootcamp course' for toddlers. Throughout the video, text overlays appear on the screen, summarizing her points and promoting her services.</t>
+          <t>Learn more at https://www.bratbusters.com
+Courses &amp; Resources:
+➡️ BratBusters Bootcamp (16-35 Months Old) https://bratbusters.podia.com/toddler-bootcamp 
+➡️ BratBusters Bootcamp (3-12 Years Old) https://bratbusters.podia.com/126b3bf6-b5aa-4088-a040-0bb54beb82c8  
+➡️ Toddler Mini Courses https://bratbusters.podia.com/toddler-courses 
+➡️ Private Coaching https://bratbusters.com/coaching/  
+➡️ Get Your Behaviour Board Now https://bratbusters.podia.com/
+About BratBusters Parenting:
+I’m Lisa Bunnage, and I love sharing what I’ve learned from decades of working with children. If you’re a parent who wants to get mutual respect with your children, and learn how to become a calm leader, this is the place for you. 
+Let’s Connect: 
+Instagram: https://www.instagram.com/bratbustersparenting/?hl=en  
+TikTok: https://www.tiktok.com/@bratbustersparenting?lang=en  
+YouTube: https://www.youtube.com/@BratBustersParenting  
+Facebook: https://www.facebook.com/BratBustersParenting 
+Website: https://bratbusters.com/  
+Disclaimer: 
+I am a Parenting Coach and a Mom. I am not a licensed psychologist or counsellor. My services do not replace the care of psychologists or other healthcare professionals. Coaching is in no way to be construed or substituted as psychological counselling or any other type of therapy or medical advice.
+Please read full disclaimer here https://bratbusters.com/disclaimer/</t>
         </is>
       </c>
       <c r="I217" t="n">
@@ -29643,7 +30787,13 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>A woman, identified as a parenting expert from the channel 'BratBusters Parenting', speaks directly to the camera in a home setting. She is discussing alternatives to the traditional 'time out' discipline method for children. She explains that discipline should be a consequence with a lesson, unlike time out, which she feels is ineffective. She promotes her own parenting system, which includes creating 'behavior boards' with specific rules and consequences for each family member. She gives an example of a consequence for a broken rule: having the child empty the dishwasher within 15 minutes. She also mentions a 'bootcamp course' for parents and a '24-hour media blackout' as other disciplinary tools. Throughout the video, text overlays appear on the screen, summarizing her points and promoting her services.</t>
+          <t>Alternative to timeout? 
+Check out my BratBusters Behaviour Board (Plus Toddler Basics) that I send to my parenting newsletter, linked in my bio.
+Then, if you’re interested in learning the tools I teach for parenting like a calm leader, check out the BratBusters Bootcamps, linked in my bio. 
+`
+`
+`
+#ParentingGuidance #ParentingSuccess #ParentingHelp #PositiveParenting</t>
         </is>
       </c>
       <c r="I218" t="n">
@@ -29777,7 +30927,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>The video is a split-screen presentation. On the left, a man in a car, identified as 'Neurodivergent Nate', provides commentary. On the right, a short video clip plays, showing a woman in a kitchen with her toddler. The woman is calmly explaining to the child that if he can't be nice, he will go to time-out. The child begins to cry, and the woman picks him up and carries him to a set of stairs where he sits down to calm himself. The woman then sits on a couch in the background, observing him. The man in the car narrates the events, explaining that the mother is using the time-out method correctly.</t>
+          <t>Time out works</t>
         </is>
       </c>
       <c r="I219" t="n">
@@ -29907,7 +31057,8 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>The video is a heartwarming family moment showing two young toddler boys, who appear to be twins, interacting in a living room. One boy is sitting on the floor, crying, while the other boy approaches him, hugs him, and comforts him. The scene cuts to a man, presumably their father, speaking directly to the camera about his desire to teach his sons emotional intelligence and to show them love through actions, not just words. The video intercuts between the father's message and the tender interaction between the two boys, who are both wearing Spider-Man shirts. The father's message emphasizes showing love and teaching by example.</t>
+          <t>A Fathers Sacrifice
+#father #daddy #love #kids #emotionalintelligence #family #viralreels #youtube #giving #thanksgiving #toddler #twins #adorable #sad #joy #love #advocate #story #storytime #storytelling</t>
         </is>
       </c>
       <c r="I220" t="n">
@@ -30035,7 +31186,8 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>The video shows two young twin boys, dressed in matching white shirts and khaki shorts, playing together on a blue spiral climbing structure at a playground. They are seen climbing up and down the structure, helping each other, and interacting playfully. The video includes text overlays that state the creator went to family court to protect their sons from abuse and neglect, but instead, they claim their videos were scripted and their rights were taken away. A call to action for donations is also displayed.</t>
+          <t>Brotherly Love 💞
+#brotherlylove #twins #love #adorable #toddlers #kids #viralreels #family #familyvlog #YouTube #influencer #activist #advocate #help #familycourt #custody #onions #parenting #parents #support #why #emotional #emotionalintelligence</t>
         </is>
       </c>
       <c r="I221" t="n">
@@ -30167,7 +31319,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>A woman with long, highlighted hair, wearing a green cap and a grey and white patterned sweater, sits in the driver's seat of a car. She is speaking directly to the camera, asking viewers to comment about their personal experiences with being put in time-out as a child. She uses various hand gestures to emphasize her points and appears to be discussing the topic of this parenting discipline strategy.</t>
+          <t xml:space="preserve">#timeout #parenting #parentsoftiktok </t>
         </is>
       </c>
       <c r="I222" t="n">
@@ -30301,7 +31453,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>A woman with blonde hair, wearing a light blue sweater and a necklace, speaks directly to the camera in a home setting with a wooden ceiling. She is discussing the parenting strategy of 'timeouts'. She begins by mimicking a frustrated parent's voice, then introduces herself as Mandy Grass, a behavior analyst and parent coach. She explains that timeouts are still appropriate but don't have to be the old-school method of sitting alone in a room. She suggests that a timeout can be a time out from an activity or item, such as removing a child from a toy they are fighting over. She uses the example of her daughter interrupting her and how she would handle it by removing her attention.</t>
+          <t>Time outs can be an effective tool when used correctly. In order to know when to use time out as need to know the function of the behavior that elicited the time out. Time outs don’t need to be sitting alone in a corner, they can be a time out from the activity or item. #behavior #behaviorchange #timeout #function #parents #patenting #parentingtips</t>
         </is>
       </c>
       <c r="I223" t="n">
@@ -30425,7 +31577,13 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>A woman wearing a black tank top and a black baseball cap is speaking directly to the camera in what appears to be a living room. She is discussing parenting strategies, specifically her dislike for the practice of sending children to their room for a time-out. She explains that she finds it humiliating and shaming for children and does not believe it is an effective learning tool. She then promotes her own parenting resources, including a 'behaviour board' and 'BratBusters Bootcamps,' which she says are available through her newsletter and website.</t>
+          <t>I don’t recommend timeout, I think it’s just humiliation, shaming and blaming.
+Instead, if you’re looking for an alternative, check out my BratBusters Behaviour Board (Plus Toddler Basics) that I send to my parenting newsletter, linked in my bio.
+Then, if you’re interested in learning the tools I teach for parenting like a calm leader, check out the BratBusters Bootcamps, linked in my bio. 
+`
+`
+`
+#ParentingMindset #RaisingKids #ParentingAdvice101 #ParentingConnection #ParentingSuccess</t>
         </is>
       </c>
       <c r="I224" t="n">
@@ -30557,7 +31715,24 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage from BratBusters Parenting, is speaking directly to the camera in what appears to be a living room. She is wearing a black tank top and a black baseball cap with white text. She is discussing parenting strategies, specifically her dislike for the 'time out' punishment. She explains that she finds it humiliating and shaming for children and doesn't believe it's an effective learning tool. She suggests alternatives like a 'behavior board' and a story called 'Example of Leadership Parenting' to help parents manage their children's behavior.</t>
+          <t>Learn more at https://www.bratbusters.com
+Courses &amp; Resources:
+➡️ BratBusters Bootcamp (16-35 Months Old) https://bratbusters.podia.com/toddler-bootcamp 
+➡️ BratBusters Bootcamp (3-12 Years Old) https://bratbusters.podia.com/126b3bf6-b5aa-4088-a040-0bb54beb82c8  
+➡️ Toddler Mini Courses https://bratbusters.podia.com/toddler-courses 
+➡️ Private Coaching https://bratbusters.com/coaching/  
+➡️ Get Your Behaviour Board Now https://bratbusters.podia.com/
+About BratBusters Parenting:
+I’m Lisa Bunnage, and I love sharing what I’ve learned from decades of working with children. If you’re a parent who wants to get mutual respect with your children, and learn how to become a calm leader, this is the place for you. 
+Let’s Connect: 
+Instagram: https://www.instagram.com/bratbustersparenting/?hl=en  
+TikTok: https://www.tiktok.com/@bratbustersparenting?lang=en  
+YouTube: https://www.youtube.com/@BratBustersParenting  
+Facebook: https://www.facebook.com/BratBustersParenting 
+Website: https://bratbusters.com/  
+Disclaimer: 
+I am a Parenting Coach and a Mom. I am not a licensed psychologist or counsellor. My services do not replace the care of psychologists or other healthcare professionals. Coaching is in no way to be construed or substituted as psychological counselling or any other type of therapy or medical advice.
+Please read full disclaimer here https://bratbusters.com/disclaimer/</t>
         </is>
       </c>
       <c r="I225" t="n">
@@ -30691,7 +31866,8 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>A bald man, identified as David Coleman, a clinical psychologist, speaks directly to the camera in what appears to be a home office. He is wearing an orange sweater over a white shirt and is positioned in front of a large black microphone. The background features a wooden paneled wall and a white bookshelf. He is discussing the topic of parental involvement when teenage girls are in conflict, stating that parents should not get involved unless their child or another child in the group specifically asks for help.</t>
+          <t>Q&amp;A Should parents get involved when teenage girls row?
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I226" t="n">
@@ -30823,7 +31999,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>The video is a clip from a talk show featuring actor and filmmaker Tyler Perry. He is seated in a white armchair, wearing a blue textured jacket and pants, and is being interviewed by a woman in a red dress. The set has a festive, pink-themed backdrop with Christmas decorations. Perry is discussing his parenting philosophy, specifically how he does not want his son to be a 'spoiled rich kid.' He explains that his son, Aman, only receives books and Legos for Christmas because, as Perry puts it, 'he don't got no job.' Perry recounts a story of his son complaining about waiting in a long line at the airport, which led to a family decision to stop flying on their private plane. The video is presented as a news or entertainment segment by 'Nick Flicks Media,' with on-screen text highlighting the topic.</t>
+          <t>Tyler Perry Said His Son Not Going To Be Like Those Ridiculous Spoiled Rich Kids! _________________________ Successful filmmaker Tyler Perry is more than financially able to give his child the world. However, the filmmaker is making it clear that he won’t be doing that without imparting some valuable life lessons to his son! While appearing on Sherri Shepherd’s show days before Christmas, Perry discussed his parenting style with ex-partner Gelila Bekele. When asked if he received his son Aman’s holiday list, Perry firmly stated that his son would only be getting two things: books and Legos. Why? Well, Perry noted, “he don’t got no job.” The 55-year-old said he had to remind his young son just that when Aman grew frustrated while waiting in a long line at the airport. From that point, he and his ex-wife decided they would no longer be flying on his private plane. Perry told Sherri that his son will not be one of those “ridiculous spoiled rich kids.” He added, “I can’t stand that.” #entertainment #family #comedian #sherrieshepherd #artist #actor #producer #tylerperry #parenting #child #richkid #son #news #podcast #viral #fyp #foryou #foryoupage #foryourpage #explorepage</t>
         </is>
       </c>
       <c r="I227" t="n">
@@ -30953,7 +32129,10 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>The video is a vlog-style compilation of a family's visit to an illuminated light festival called 'Illumi' in Singapore. The creator, a woman, films herself and her two young children as they walk through various themed light installations. These include whimsical, colorful animal figures like a glowing mushroom, a blue and yellow creature, and a large green frog. The scenes are set at night, with the entire area aglow with elaborate light displays, including giant candy canes and sunflowers. The creator provides humorous commentary on the chaotic and seemingly random theme of the festival, questioning the logic of placing 'radioactive frogs next to the dinosaurs' and noting that 'the music was fun.' The video concludes with a text overlay summarizing the experience as 'A thematically confused but IG friendly outing.'</t>
+          <t>Illumi: family-friendly outing that is thematically chaotic.
+Last day in Singapore Jan 5!
+#illumi #illumisg #Singapore #parenting #sgparents
+#comedyreels #funnyreels</t>
         </is>
       </c>
       <c r="I228" t="n">
@@ -31087,7 +32266,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>A woman in a white t-shirt and jeans stands in a room with a bookshelf, speaking directly to the camera. She explains that a time-out was not originally intended as a punishment. A young girl in a mauve outfit enters the scene. The woman gently guides the girl to a corner, demonstrating how a time-out is often used as a form of isolation and punishment. The woman then hugs the girl, explaining that the original purpose of a time-out was to remove a child from an overstimulating environment to a safe, non-reinforcing place to calm down. She then leads the girl to a cozy reading nook with a fluffy rug and pillows, where they sit together and read a book titled 'I'm a Dirty Dinosaur'.</t>
+          <t>This Pin was created by Simply On Purpose | Ralphie Ja on Pinterest. You need to try this alternative to time out</t>
         </is>
       </c>
       <c r="I229" t="n">
@@ -31221,7 +32400,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>The video is an educational explainer from a content creator named Miss Jenine, who identifies as a special education teacher. She discusses the parenting strategy of 'timeout' in Filipino. The video uses a combination of a live-action shot of the speaker and a series of static slides with text and illustrations to explain the concept. She defines timeout as a tool to help children calm down and reflect on their behavior, emphasizing that it is not about punishment but about teaching self-regulation. The video then compares timeout to the more punitive 'face the wall' method, highlighting the differences in purpose, approach, and potential outcomes. It concludes by outlining the benefits of timeout, such as helping children calm down, stopping unsafe behaviors, creating boundaries, teaching responsibility, and emotional regulation.</t>
+          <t xml:space="preserve">Gumagamit ka ba ng timeout para disiplinahin ang iyong anak? Ang timeout ay isang strategy na tumutulong sa bata na huminahon, mag-isip, at matutong kontrolin ang kanilang emosyon at kilos. Mahalagang malaman kung paano ito gamitin nang tama upang mas maging epektibo ito.  #disclipline #toddler #philippines #preschool #timeout #facethewall #parenting #speciaeducation #positivereinforcement #gentleparenting #millennials #earlyintervention #momtok #foryoupageofficiall #fyp #foryou #momlife </t>
         </is>
       </c>
       <c r="I230" t="n">
@@ -31359,7 +32538,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>The video is an educational infographic presented by a woman named Miss Jenine. It explains the concept of 'timeout' as a discipline strategy for children. The video uses a series of static slides with text and illustrations to outline when timeout is appropriate, what it is, and the steps to implement it effectively. The speaker narrates the content, providing context and explanations for each point on the slides.</t>
+          <t xml:space="preserve">Kung gagamitin ang timeout bilang isang tool sa pagdidisiplina, mahalagang malaman kung paano ito i-implement ng tama. Pero may mga importanteng bagay na dapat tandaan: 1. Ang timeout ay hindi para sa lahat Hindi ito epektibo para sa mga batang below 2 years old dahil masyado pa silang bata at hindi nila nauunawaan ang konsepto ng timeout. 2. Neurodevelopmental conditions Para sa mga batang may neurodevelopmental conditions tulad ng autism, ADHD, o iba pang kondisyon, ang timeout ay maaaring hindi magwork tulad ng inaasahan. Kaya maganda pa ring i-consider ang ibang strategies na mas appropriate sa kanilang pangangailangan. 3. Ang timeout ay hindi solusyon sa lahat Hindi ito magic solution. Ang timeout ay parte ng isang mas malaking approach sa positive discipline. Ito ay makakatulong upang magbigay ng pagkakataon sa bata na mag-calm down at mag-reflect, pero hindi ito ang tanging paraan ng pagdidisiplina. Reminder: Laging mahalaga ang pagkakaroon ng patience at pag-unawa sa bawat bata at kanilang unique needs. Gamitin ang timeout nang tama at may compassion. #toddler #preschool #kindergarten #discipline #timeout #palo #philippines #parenting #education #earlyintervention #positivereinforcement #timeout #timein #foryoupageofficiall #speciaeducation #fyp </t>
         </is>
       </c>
       <c r="I231" t="n">
@@ -31493,7 +32672,8 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>A man, identified as David Coleman, a clinical psychologist, is speaking directly to the camera in what appears to be a home office. He is addressing a question from a parent about how to help their eight-year-old daughter who is being isolated by a class bully. He provides advice, emphasizing the need for adult intervention from a teacher or school authority figure and also suggests that parents should talk to their child about the situation, validate her feelings, and reinforce her self-esteem.</t>
+          <t>Q&amp;A How do I help my 8 year old daughter to navigate a classroom bully who is isolating her? 
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #bullying #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I232" t="n">
@@ -31621,7 +32801,8 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>The video shows a woman, presumably a grandmother, and two young boys, likely her grandsons, shucking corn together at a grocery store. They are all smiling and appear to be enjoying the activity. The boys are wearing matching green hoodies. The video includes text overlays that tell a story about the boys' father being in a custody battle and the family's desire to be reunited. The video ends with a plea for help to bring the sons home and provides donation information.</t>
+          <t>Shucking Corn With Granny
+#granny #twins #adorable #love #corn #God #family #kids #childhood #childhoodmemories #parenting #parent #father #joy #memories #baby #emotional #cute #corn #viralvideos #youtube #toddler #daddy</t>
         </is>
       </c>
       <c r="I233" t="n">
@@ -31741,7 +32922,31 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>A woman with long blonde hair and glasses is sitting in the driver's seat of a car. She is holding a book or magazine, then puts it down and picks up a travel mug. She speaks directly to the camera, explaining her parenting philosophy. Text overlays appear on the screen, including a question about her toddler's hitting and throwing, and a prompt to comment 'PLAN' to receive a free Google Doc. The video is a short-form social media post.</t>
+          <t>Timeout makes sense to adults.
+But not to toddlers. 
+I actually have an entire *simple* google doc
+written about why these behaviors happen
+and how to actually stop them as a respectful parent.
+💬 Comment “PLAN” and I’ll send it over
+Here’s the truth that might ruffle some feathers…
+➡️ Toddlers don’t need TIMEOUT  ⬅️
+〰️And in fact I’d venture to say that even when it seems like it’s working, it’s not.
+“Just ignore the tantrums, they will stop.”
+This advice kills me. 💀
+Why would we ignore a child who is CLEARLY having a hard time? 
+Based on research in child development, RIE parenting, Montessori &amp; definitely confirmed in my real life as a mom to 3 kids who are 5 and under. 😂
+The thing about timeouts is that your toddler doesn’t have the ability to actually REGULATE and REFLECT on what they’re doing WRONG. 
+(Shame, blame &amp; making them feel bad will never lead to better behavior.)
+ 🤩🔑They need to learn what to do RIGHT. 
+This is exactly how:
+1️⃣ IN THE MOMENT: coregulating to help them calm. 
+2️⃣ TEACH: Set clear &amp; simple boundaries. 
+3️⃣ PREP: teaching new skills or behaviors. 
+Repeat over &amp; over like a cycle. 
+✅ COMMENT: “PLAN”
+For my entire *simple* google doc about why these behaviors happen and how to actually stop them as a respectful parent. 
+P.s. - it’s FREE 🫶🏻👏🏻❤️
+Xx Cassie</t>
         </is>
       </c>
       <c r="I234" t="n">
@@ -31873,7 +33078,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>A woman with brown hair, wearing a black long-sleeved shirt and a gold necklace, stands in a room with a bookshelf and a dining area in the background. She speaks directly to the camera, using expressive hand gestures to emphasize her points. Text overlays appear on the screen, highlighting key phrases from her speech, such as 'Timeouts, and ignoring tantrums,' 'removing your attention when they're having a meltdown or tantrum,' and 'their emotional resilience.' She identifies herself as 'Julianna Drajkó, Certified Parent Educator.' The video is a short-form educational piece discussing parenting strategies.</t>
+          <t>I’m not here to judge you or shame you. I know that you want the best for your children. And I also want you to be educated about your choices. 
+Arguments such as “no need to coddle kids” or “the world does not revolve around my child” to justify apathetic responses to children’s distress are expressions of internalized behaviorism. 
+Meeting a child’s emotional need during a tantrum or meltdown is not coddling them, not spoiling them, not making them weak, and not making them entitled. It’s meeting their biological need. 
+I am also not suggesting that you need to hover over them, protect them from disappointment or frustration, or to jump in and fix it all for them. 
+So what do kids need then? The answer is within you. You were built for meeting your children’s needs. If you allow your body to do what it meant to do, you will feel compassion rising from within when your child struggles. You will feel the urge to nurture and provide care. Stay open and welcome your child in when they need you. 
+Don’t listen to any provider who suggests you should do anything that suppresses your parental instinct. It’s archaic, misguided advice. Your child cannot build self-regulation in isolation and in disconnection. They can survive and they can adapt in the best way they can. As many of us did. But it will not prepare them to meet the inevitable relational challenges in real life. #parenting #parentingtips #parentcoach #crisismom #respectfulparenting #cyclebreakers #attunedparenting #parentsofinstagram #discipline #tantrums #meltdowns #responsiveparenting #attachment #timeout #ignoringpeople #challengingbehaviour #emotionalintelligence #emotionalneglect #kidsdowelliftheycan #selfregulation #coregulation #coregulate</t>
         </is>
       </c>
       <c r="I235" t="n">
@@ -32005,7 +33215,8 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>The video is a personal appeal from a man named Jerron Hurtt, who identifies himself as the father of the 'Hurt Twins.' He speaks directly to the camera, explaining that his family's social media content, which focused on love and emotional intelligence, was used against him in a family court case that resulted in him losing custody of his sons. The video intersperses his monologue with personal photos and videos of him with his sons, including moments from their childhood, school, and family outings. He alleges that his sons were abused and neglected by the other parent and pleads for help, providing donation and contact information for lawyers. The video is a plea for support and justice.</t>
+          <t>It’s Always The Good Ones.. 💞
+#kids #love #emotional #miss #sad #onions #fathersspeakout #emotionalintelligence #itsalwaysthegoodones #fyp #explore #trending #trendingreela #viralreels #heartbroken #parents #parenting #familycourt #celebrity #tyrese #childsupport  #cute #twins #youtube #father #dad #daddy #itsalwaysthegoodones #repost #donate #corruption</t>
         </is>
       </c>
       <c r="I236" t="n">
@@ -32133,7 +33344,8 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in a home office setting. He is addressing a common parenting question: how to explain the concept of sex to a nine-year-old child. He provides advice, suggesting that a child's curiosity is an opportunity for parents to have an open conversation, share their family's values, and use appropriate language. He recommends starting by asking the child about the context of their question and then explaining the biological aspects of sex, such as reproduction and intimacy.</t>
+          <t>Q&amp;A how should I explain to my 9 year old what sex is?
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I237" t="n">
@@ -32253,7 +33465,8 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in what appears to be a home office. He is addressing a common parenting question: 'How can I get my 13-year-old daughter to listen to me?'. He explains that the first step is to build a positive relationship by showing the child that you are truly listening to them, which helps them feel heard and valued. He suggests that this approach, which involves empathy and warmth, is more effective than being overly directive or critical, and will ultimately make the child more receptive to guidance.</t>
+          <t>Q&amp;A How can I get my 13 year old daughter to listen to me?
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #listening #tipsparenting #parentinglife #dad #familytime #empathy #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I238" t="n">
@@ -32385,7 +33598,21 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>The video is a montage of various children displaying sad, upset, and contemplative expressions. It begins with a close-up of a baby crying, followed by a young boy looking downcast, a girl with tears in her eyes, and other children in moments of distress. Throughout the video, text overlays appear with phrases like 'WITHDRAW THE RELATIONSHIP FROM THE CHILD,' 'THE CHILD MAY TEMPORARILY COMPLY,' and 'ARE UNSTABLE AND UNRELIABLE.' The overall theme is a critique of using withdrawal of affection as a disciplinary tool, suggesting it teaches children that love is conditional.</t>
+          <t>When we use ‘time-out’ to make a child comply, what lesson are we truly teaching? This approach can make a child feel like love is conditional—that they’re only valued when they’re 'good.' Are we unknowingly sending the message that support isn’t always available, especially when it’s needed the most? Let’s rethink how we teach love and trust."
+#parentingwisdom #unconditionallove #childdevelopment #emotionalhealth #rethinkingparenting #gentleparenting #attachmentparenting #childpsychology #raisekindkids #emotionalintelligence
+🌍 Evolve Human Consciousness ⟹ https://www.patreon.com/sustainablehuman
+🌍 LIKE + SUBSCRIBE + CLICK BELL TO SIGN UP FOR NOTIFICATIONS
+🌍 Learn more ⟹ https://sustainablehuman.org/stories/what-society-gets-wrong-about-raising-children/
+Sustainable Human is a 501c3 non-profit whose mission is to evolve human consciousness by examining the underlying stories that give rise to the environmental, social, and economic crises of our time and offer new stories that help humanity to live in harmony with each other and the biosphere.
+We Appreciate Your Support!
+🌍 Patreon ⟹ https://www.patreon.com/sustainablehuman
+🌍 Venmo ⟹ https://account.venmo.com/u/sustainablehuman
+🌍 Donate ⟹ https://sustainablehuman.org/donate/
+🌍 Email ⟹ http://signup.sustainablehuman.com/newsletter
+We also are video storytelling producers who can help authors, researchers, organizations, musicians, product creators, or anyone with a story to tell to bring their story to life. Get in touch with us!
+🌍 Hire us to tell your story ⟹ https://sustainablehuman.org/
+🌍 Sponsor a story ⟹ https://sustainablehuman.org/sponsor-a-story/
+🌍 Help us translate this video  ⟹ https://sustainablehuman.org/translate/</t>
         </is>
       </c>
       <c r="I239" t="n">
@@ -32517,7 +33744,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>The video is a comedic skit set in a modern home. A young boy sits on a white couch looking dejected. A woman in a grey tracksuit stands beside him, and a man in a black tracksuit and cap stands to his left. The woman tells the man that the boy, Fred, learned about 'life and death' after she flushed his goldfish, Marty, down the toilet. The man then asks the boy what he learned. The boy replies, 'Not to talk back to mommy.' The man and woman react with exaggerated shock and disbelief, looking at each other and then at the camera with wide eyes, implying the boy's lesson was a joke.</t>
+          <t>Lesson of the day never talk back to mommy #parody #comedy #family #goldfish</t>
         </is>
       </c>
       <c r="I240" t="n">
@@ -32657,7 +33884,13 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>A woman with long blonde hair, wearing a sage green sweatshirt, is speaking directly to the camera against a plain white background. She is explaining a parenting strategy involving a 'code word' (like 'bananas') that one parent can use to signal to the other that they need to step away and take a break to regulate their emotions. She emphasizes that this method prevents putting shame or guilt on children and allows a parent to leave without having to explain their emotional state in the moment.</t>
+          <t>Parenting can be overwhelming—  
+But what if one simple code word could prevent meltdowns?  
+No guilt. No shame.  
+Just a signal to switch, breathe, and come back stronger.  
+Because staying calm matters more than staying in control.  
+Click the link in bio to watch the full video of *Trauma, Drama &amp; Life.*
+#ParentingHacks #EmotionalRegulation #CalmParenting #ParentingTools #MindfulParenting</t>
         </is>
       </c>
       <c r="I241" t="n">
@@ -32795,7 +34028,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>The video shows a baby sitting in a high chair on a wooden deck, looking out at a lush green forest. The baby is wearing a striped shirt and dark pants. The scene is viewed from inside a room through a doorway. Text is overlaid on the video, introducing the speaker as a 'mix feeding, co-sleeping, outdoorsy, Huggies, H&amp;M, take photos of everything, take my baby everywhere kinda mom.' The video is set to a gentle, melodic song.</t>
+          <t xml:space="preserve">#kindamom #newmom #momdiaries   #momlifebelike #msmaru </t>
         </is>
       </c>
       <c r="I242" t="n">
@@ -32921,7 +34154,9 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>A woman with purple hair and sunglasses on her head is sitting in a chair and talking directly to the camera. She is wearing a black t-shirt and is using hand gestures as she speaks. Behind her, there are several framed pictures on the wall. The video has text overlays that appear on the screen as she speaks.</t>
+          <t>Why do you have to replete yourself? Why do you have to yell? Why won’t your kids listen??? This is why. No fast follow through and your kids know it. 
+Want more on positive and productive discipline that works?  drop MORE. 
+#parentingcoach #parentingconsultant #parentinghacks #parentingtips #parentinghumor #emotionalintelligence #adhdawareness #neurodivergent #gentleparenting  #parentingcourses #adhd #adhdlife #autism #autismawareness #momsofinstagram #parenting  #selfhelp #dadsofinstagram #lgbtqparents #stopyelling #timeforchange #change #freebie #dealoftheday #music #timeout #mealtime #chores #followthrough #instareels</t>
         </is>
       </c>
       <c r="I243" t="n">
@@ -33053,7 +34288,8 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in a home office setting. He is addressing a viewer's question about whether a 16-year-old boy and his girlfriend should be allowed to spend time alone in his bedroom while the family is at home. He provides advice on the matter, suggesting that parents should consider their family's general rules for visitors and bedroom access, and whether they trust their children to be responsible. He recommends that parents have a conversation with their child to outline their concerns and values.</t>
+          <t>Q&amp;A should a 16 year old and his girlfriend be allowed up on his bedroom?? I’d be keen to hear your thoughts 🫣
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #trust #tipsparenting #parentinglife #dad #familytime #teenromance #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I244" t="n">
@@ -33181,7 +34417,8 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in a home office setting, offering advice on how a child should respond to being verbally mocked at school. He explains that ignoring the teasing or reacting by mocking back will likely make the situation worse. Instead, he suggests the child should acknowledge the comment in a neutral, assertive way to show they are not bothered, thereby causing the other children to lose interest and move on. The video is presented as a Q&amp;A, with text overlays summarizing his points.</t>
+          <t>Q&amp;A How best to respond to verbal mocking or teasing…
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #teasing #tipsparenting #parentinglife #dad #familytime #bullying #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I245" t="n">
@@ -33313,7 +34550,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>The video is a split-screen comedic skit. The top half shows a child, William, angrily demanding his mother turn the internet back on. The mother, in a 'gentle parenting' style, calmly refuses. The child then locks himself in a room, and the mother calmly waits. After a period of time, the child breaks down the door with an axe and storms out, having lost his temper. The bottom half of the screen features a man, DeStorm Power, reacting to the skit with expressions of shock, disbelief, and amusement.</t>
+          <t xml:space="preserve">When Gentle Parenting Goes Wrong 😳 #gentleparenting </t>
         </is>
       </c>
       <c r="I246" t="n">
@@ -33451,7 +34688,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>The video is a compilation of TikTok clips from a creator named Livjowen, who promotes 'gentle parenting' methods. It features her interacting with her young children in various scenarios, such as in a kitchen, on a staircase, and in a store. The video also includes clips from other creators discussing the same topic, with text overlays like 'How to gentle parent?' and 'No kid needs a timeout.' The compilation is set to a soundtrack of a woman speaking, expressing shock and criticism about the content, particularly the use of time-outs.</t>
+          <t xml:space="preserve">Let’s talk about this… #gentleparenting #millennialmom #timeout #toddlerlife #momlife #momlifevibes #parentinglife #parentingtips #parentingadvice #momsupportingmoms #momstruggles </t>
         </is>
       </c>
       <c r="I247" t="n">
@@ -33589,7 +34826,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>A man wearing a blue jacket and a black POC helmet is riding a bike on a dirt path in a hilly, rural landscape under an overcast sky. He is filming himself in a selfie-style video and talking to the camera. In the background, another person, presumably his teenage son, is visible riding a bike further down the path. The man is narrating his experience, mentioning that his son is 'whinging the entire time' but is 'doing all right'. The video has an on-screen text overlay that reads, 'When you encourage your teenage son out for a pleasant bike ride!' accompanied by a sad face and a facepalm emoji.</t>
+          <t xml:space="preserve">Encouraging your teenage son out for a bike ride, then the rain comes! 🙄 #mountainbiking #mtb #cycling #ride #fun #outdoors </t>
         </is>
       </c>
       <c r="I248" t="n">
@@ -33719,7 +34956,16 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, identified as Lisa Bunnage, is speaking directly into a microphone. She is in a room with a string of fairy lights in the background. Text overlays appear on the screen, including her name and the title 'Bratbusters Parenting Podcast' at the top, and the question 'Thoughts on Timeout?' at the bottom. As she speaks, additional text captions appear, summarizing her points about why she dislikes the timeout parenting strategy.</t>
+          <t>I don’t recommend using timeouts. 
+What do I suggest instead? 
+With toddlers, I use consistent corrective actions, and when they are three and older, I recommend starting with the BratBusters Behaviour Board. 
+By the way, this is a clip from the latest BratBusters Parenting Podcast Episode on how to stop kids from hitting. You can listen to the full episode now on your favourite podcast player! 🎧
+P.S. If you’re wanting to get started with calm leadership parenting, check out my BratBusters Behaviour Board (Plus Toddler Basics) that I send to my parenting newsletter, linked in my bio.
+Then, if you’re looking for that next step in calm leadership parenting, check out the BratBusters Bootcamps, linked in my bio. 
+`
+`
+`
+#ParentingCommunity #ParentingStruggles #ParentingStyles #ParentingLife #ParentingHelps #Timeout</t>
         </is>
       </c>
       <c r="I249" t="n">
@@ -33851,7 +35097,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>The video shows two young twin boys in matching green plaid shirts and black pants. The scene opens with a mess of food on the carpet under a desk. An adult off-screen asks who is responsible. The boys, who are 4 years old, deny doing it and blame each other. The adult then explains that the boys wanted to play instead of eating dinner and used the unfurnished office as a place to hide the food. The video ends with one boy being told to stand in the corner, while the other looks on.</t>
+          <t>Which Twin Did It? 😅 #twins #toddlers #adorable #joy #kids #family #viralreels #naturalhair #smile #happy #YouTube #viralreelsfb #blessing #story #storyteller #parents #parenting #storytelling #fib #funny #trouble #mischief</t>
         </is>
       </c>
       <c r="I250" t="n">
@@ -33983,7 +35229,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>The video is a compilation of clips from a sports broadcast, focusing on a humorous moment at an NCAA basketball game. It shows Washington Commanders quarterback Jayden Daniels and USC basketball star JuJu Watkins sitting together and smiling. The main event is when Daniels' mother, Regina Jackson, walks over and sits down between her son and JuJu Watkins, causing a surprised reaction from JuJu and prompting commentary from the ESPN broadcast team. The video is presented as a 'viral' moment, with on-screen text and a logo for 'Nick Flicks Media' at the bottom.</t>
+          <t>Jayden Daniels Mom Hilariously Sat Between Her Son And JuJu Watkins! _________________________ Washington Commanders QB Jayden Daniels was seen sitting with USC superstar JuJu Watkins after a very easy first-round NCAA tournament win over UNC Greensboro.  Both Watkins and Daniels were smiling from ear to ear as they chatted, prompting some on social media to speculate there might be a romantic spark between the star athletes. The next time the ESPN cameras found Watkins and the Washington Commanders' quarterback, Daniels' mother, Regina Jackson, was sitting between them. This caused social media to erupt with several users weighing in on the situation. #sports #football #quarterback #rookieoftheyear athlete #washingtoncommanders #commanders #jaydendaniels #mom reginajackson #datingrumors #parenting #jujuwatkins #basketball #usctrojans #usc #marchmadness #espn #viral #reporter #news #fyp #foryou #foryoupage #foryourpage #explorepage</t>
         </is>
       </c>
       <c r="I251" t="n">
@@ -34117,7 +35363,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>A woman is sitting in the driver's seat of a car, speaking directly to the camera. She is wearing a grey t-shirt with a colorful graphic and has her hair pulled back. She uses hand gestures, such as resting her chin on her hand, while talking. The video has a text overlay that reads, 'Anyone else get so overwhelmed by the never-ending to-do list that they end up doing absolutely nothing instead?'. She discusses feeling overwhelmed by her to-do list and her decision to take a break to enjoy the beautiful day instead of completing chores.</t>
+          <t xml:space="preserve">Forever keeping it real ✌🏻🫣 #fyp #mumsoftiktok #Scotland #edinburghinfluencer #millenial #parenting #mumlife #lifestyle #edinburgh #motivationalquotes #3kidsclub #chores #timeout #timeoff #selfcare #housework </t>
         </is>
       </c>
       <c r="I252" t="n">
@@ -34247,7 +35493,20 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage, is speaking directly to the camera in a vlog-style video. She is wearing a grey sweatshirt and a black baseball cap with 'Bratbusters EST 2024' on it. Her hair is in two pigtails. She is discussing three common discipline methods she dislikes: timeout, diversion, and countdown. She explains her reasoning for each, stating that timeout makes a child feel like a 'piece of garbage,' diversion rewards bad behavior, and countdown teaches children they can act out without consequence. The video is from her 'Bratbusters Parenting Podcast.'</t>
+          <t>There's three things that are really commonly used for discipline that I don’t recommend. 
+1️⃣ Timeout. 
+I personally don’t like time out as I don’t think it teaches anything, and I don’t think it’s very nice to send them away. 
+2️⃣ Diversion. 
+This is when they're doing something bad, and you divert them with something fun, because you never divert with broccoli. It’s like a direct reward for bad behaviour. 
+3️⃣ Countdown. 
+It teaches kids they can act out in the short term, and nothing happens because of it. In my opinion, it makes you look like you're afraid of your kids.
+This is a clip from the latest BratBusters Parenting Podcast Episode on ranking common discipline strategies. You can listen to the full episode now on your favourite podcast player! 🎧
+P.S. If you’re wanting to get started with calm leadership parenting, check out my BratBusters Behaviour Board (Plus Toddler Basics) that I send to my parenting newsletter, linked in my bio.
+Then, if you’re looking for that next step in calm leadership parenting, check out the BratBusters Bootcamps, linked in my bio. 
+`
+`
+`
+#ParentingAdviceForMoms #ParentingConfidence #ParentingExperience #ParentingJourney #ParentingGuide</t>
         </is>
       </c>
       <c r="I253" t="n">
@@ -34383,7 +35642,30 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>A woman, Lisa Bunnage, is speaking directly to the camera in what appears to be a home setting, likely for a podcast or social media video. She is wearing a grey sweatshirt and a black baseball cap with 'Bratbusters EST 2024' on it. Her hair is in two pigtails. She is discussing and criticizing three common parenting discipline methods: timeout, countdown, and diversion. She argues that timeout is mean and makes children feel like garbage, diversion is a reward for bad behavior, and countdown teaches children that they can act out without consequence. Text overlays on the screen reinforce her points, such as 'The one that I can't stand the least, is the time out.' and 'You're rewarding the bad behavior because you never divert with broccoli.'</t>
+          <t>There's three things that are really commonly used for discipline that I don’t recommend. 
+1️⃣ Timeout. 
+I personally don’t like time out as I don’t think it teaches anything, and I don’t think it’s very nice to send them away. 
+2️⃣ Diversion. 
+This is when they're doing something bad, and you divert them with something fun, because you never divert with broccoli. It’s like a direct reward for bad behaviour. 
+3️⃣ Countdown. 
+It teaches kids they can act out in the short term, and nothing happens because of it. In my opinion, it makes you look like you're afraid of your kids.
+This is a clip from the latest BratBusters Parenting Podcast Episode on ranking common discipline strategies. You can listen to the full episode now on your favourite podcast player! 🎧
+Courses &amp; Resources:
+➡️ Toddler BratBusters Bootcamp (16-35 Months Old) https://bratbusters.podia.com/toddler-bootcamp 
+➡️ BratBusters Bootcamp (3-12 Years Old) https://bratbusters.podia.com/126b3bf6-b5aa-4088-a040-0bb54beb82c8  
+➡️ Private Coaching https://bratbusters.com/coaching/  
+➡️ Get Your Behaviour Board Now https://bratbusters.podia.com/behaviour-board
+About BratBusters Parenting:
+I’m Lisa Bunnage, a mother, grandmother, and parenting coach. If you’re a parent who wants to get mutual respect with your children, and learn how to become a calm leader, this is the place for you. 
+Let’s Connect: 
+Instagram: https://www.instagram.com/bratbustersparenting/?hl=en  
+TikTok: https://www.tiktok.com/@bratbustersparenting?lang=en  
+YouTube: https://www.youtube.com/@BratBustersParenting  
+Facebook: https://www.facebook.com/BratBustersParenting 
+Website: https://bratbusters.com/  
+Disclaimer: 
+I am a parenting coach and a mom. I am not a licensed psychologist or counsellor. My services do not replace the care of psychologists or other healthcare professionals. Coaching is in no way to be construed or substituted as psychological counselling or any other type of therapy or medical advice.
+Please read full disclaimer here https://bratbusters.com/disclaimer/</t>
         </is>
       </c>
       <c r="I254" t="n">
@@ -34517,7 +35799,9 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>The video shows two young twin boys standing on the front porch of a house in front of a red door. They are dressed identically in black long-sleeved shirts with red collars, yellow shorts, white socks, and black sneakers, and are both wearing blue backpacks. The boys are dancing and posing for the camera, sometimes holding hands and sometimes standing side-by-side. One of the boys is noticeably more expressive and animated than the other. The video has text overlayed on it that reads, 'It's always that 1 Twin!!' with two laughing emojis.</t>
+          <t>It’s Always One Twin 🤣🤣
+Please Help Me Get My Boys Home
+#twins #love #adorable #kids #daddy #smile #joy #custody #familycourt #celebrity #parents #youtube #emotional #viralreels #father #parenting #attorney #dance #spring #cute #support #god #pray #prayers #family #school #toddlers #love</t>
         </is>
       </c>
       <c r="I255" t="n">
@@ -34649,7 +35933,8 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>The video is a parenting tutorial demonstrating how to use a 'time-out' as a tool for emotional regulation for a toddler. A woman, the mother, is shown in her living room with her two young sons. The video begins with one toddler having a tantrum, throwing himself on the floor. The mother calmly attempts to communicate with him, explaining boundaries. When this doesn't work, she picks him up and moves him to a different area of the house, specifically the bottom of a staircase, to begin a time-out. The child continues to cry and scream on the stairs. After a period, the mother returns, kneels down, and calmly talks to him. She then invites him to apologize and engage in respectful behavior. The video concludes with the mother and child snuggling together on a couch, covered with a blanket, signifying a moment of bonding and reconciliation.</t>
+          <t>Many of you already know, I’m a big advocate for timeouts as a tool for emotional regulation. In this video, I share how I use timeouts not as a punishment, but is a chance for my toddler to reset and processes emotions. It’s all about teaching respect, calmness, and the importance of taking a break when things get overwhelming.
+#toddlermom #emotionalregulation #parentingadvice #toddlerlearning #toddlertantrums #momlife</t>
         </is>
       </c>
       <c r="I256" t="n">
@@ -34783,7 +36068,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>A woman with curly brown hair, wearing a grey v-neck shirt, sits in a dark wooden chair and speaks directly to the camera. She discusses the concept of 'mom timeouts' and shares a personal anecdote about sending herself to a timeout instead of her child. She explains that she was frustrated with her 11-year-old daughter's repeated use of the word 'no' and decided to take a break herself. She then picks up a black tumbler with a copper-colored straw and takes a sip while continuing to talk. The background is a plain wall with a framed piece of art.</t>
+          <t xml:space="preserve">Normalize mom (or dad) timeouts!  #timeout #mom #dad #tween #breath #selfcare #tweening #parenting </t>
         </is>
       </c>
       <c r="I257" t="n">
@@ -34917,7 +36202,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>The video is a demonstration of a mother using a 'time-out' as a tool for emotional regulation with her young son. The video begins with the son having a tantrum, throwing himself on the floor. The mother calmly explains that he needs a time-out to reset. She then places him on the stairs to calm down. After a period of time, she returns, asks for an apology, and invites him to engage in respectful behavior. They then have a bonding moment, sitting together and cuddling. The video includes text overlays explaining the mother's philosophy on using time-outs not as punishment, but as a way to teach respect, boundaries, and how to express feelings calmly.</t>
+          <t xml:space="preserve">Many of you know already that I’m a big advocate for time-outs as a tool for emotional regulation. In this video, I again show how I use time-outs not as a punishment, but as a chance for my toddler to reset and process his emotions. It’s all about teaching respect, calmness, and the importance of taking a break when things get overwhelming. #parenting #gentleparenting #parentingtips #parentingadvice #momlife #momlifeunfiltered #toddlertantrums #toddlerlife #emotionalregulation #momtips #momadvice #momssupportingmoms #parentinglife </t>
         </is>
       </c>
       <c r="I258" t="n">
@@ -35051,7 +36336,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>A young woman is shown doing push-ups on a carpeted floor in what appears to be a bedroom. She is wearing a blue tie-dye t-shirt and has her hair in a bun. She performs several push-ups while looking at the camera. Text is overlaid on the video stating, 'growing up my dad made us do our age in push ups for timeouts and i hate to say it worked.'</t>
+          <t xml:space="preserve">might start making myself do pushups every time i act on ocd thoughts idk #pushups #timeout #parenting </t>
         </is>
       </c>
       <c r="I259" t="n">
@@ -35185,7 +36470,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>A woman in a red onesie sits at a kitchen counter, drinking from a mug. She appears to be taking a break for herself. A young boy walks into the frame, and the woman playfully gestures for him to leave, mimicking a 'time-out' gesture. The scene is lighthearted and humorous, contrasting the woman's adult 'time-out' with the child's typical disciplinary 'time-out'.</t>
+          <t xml:space="preserve">I love timeouts 🥰🥰  #fyp #adulttimeout #timeout #parents #parenthood #parenting #momsoftiktok #sahm #momof3 #sahmlife #moms #momsbelike #funnymom </t>
         </is>
       </c>
       <c r="I260" t="n">
@@ -35315,7 +36600,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>The video is a time-lapse of a person creating a Mother's Day greeting card. The artist uses a green circular object to trace five circles in a vertical line on a white piece of paper. They then color each circle with a different colored marker: orange, yellow, purple, pink, and blue. After coloring, they draw various facial expressions inside the circles, including a smiling face, a winking face, a sad face, a smiling face with a tongue out, and a smiling face with a tongue out. The artist then draws a curved line connecting the circles and adds small colored dots around them. A rectangular border is drawn on the right side of the card, and a birthday cake with a candle is drawn inside it. The artist colors the cake with red and pink markers. Finally, they write 'HAPPY MOTHER'S DAY' in the center of the card and add decorative blue scalloped borders at the top and bottom right corners. The artist's hands, adorned with rings and a heart tattoo, are visible throughout the process.</t>
+          <t xml:space="preserve">Cute Mothers day gift card ♥️ #DIY #mothersday #gift #art #craft #unfrezzmyaccount #foryou #forupage #fyp </t>
         </is>
       </c>
       <c r="I261" t="n">
@@ -35441,7 +36726,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>The video is a compilation of three parenting scenarios demonstrating how to handle a toddler's tantrums without using time-outs. In each example, a woman, presumably the mother, calmly interacts with her young son, River. The first example shows her redirecting his attention from wanting to have a dance party to playing a puzzle game. The second example involves her calmly explaining why he cannot wear a certain pair of shoes and redirecting him to a different activity. The third example shows her acknowledging his desire for candy, setting a boundary by explaining it's not lunchtime, and then redirecting his attention to making a sandwich. The video uses on-screen text to label each step of the process, such as 'Attempting to Communicate,' 'Requesting Respectful Behavior,' and 'Redirecting Attention.'</t>
+          <t xml:space="preserve">River has come so far in learning to regulate his emotions, and sometimes a simple redirection is all it takes. When an understanding ear is enough to help him calm down, there's no need for a time-out (calm-down break). These are the little wins that show he's growing. 💗  #gentleparenting #parenting #parentingtips #parentingadvice #parenting101 #momlife #momtips #momlifeunfiltered #motherhood #motherhoodunfiltered #toddlerlife #toddlerlearning #emotionalregulation </t>
         </is>
       </c>
       <c r="I262" t="n">
@@ -35575,7 +36860,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>A woman with long, wavy, platinum blonde hair is speaking directly to the camera in a selfie-style video. She is wearing a black tank top and has noticeable makeup, including blush and lipstick. The background is a dimly lit room, possibly a home office or living room, with dark furniture and a white vase visible on a shelf. A text overlay at the top of the screen reads 'Reply to Mandy GTRL's comment' and 'What's the correct way to do the timeout method?'. As she speaks, text appears on the screen outlining four considerations for using the timeout method: '1) identify the reason why they're behaving this way', '2) Time out from favorable activities not unfavorable ones', '3. Short duration', and '4) Teach a replacement behavior'. She uses hand gestures to emphasize her points.</t>
+          <t>Let’s talk timeout! 
+I prefer not to use timeout because it focuses on removing opportunities rather than teaching skills.
+Instead, I prioritize reinforcement strategies, which encourage positive behaviors and build stronger, lasting skills. However, if you choose to use timeout, consider these factors.
+#parentinghacks #parenting #dailyparenting 
+#bcba #abatherapy #bcaba #registeredbehaviortechnician 
+#parentinglife  #parenting101 #familyfirst #childhoodunplugged #momprenuer #momsofinstagram #momlife #momblog #rawmotherhood #behaviorproblems #parenthood #motherhood #motherhoodrising #momlife #letthembelittle #timeout</t>
         </is>
       </c>
       <c r="I263" t="n">
@@ -35707,7 +36997,8 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>A bald man wearing a pink sweater sits in front of a microphone and speaks directly to the camera. He is in a room with a wooden ceiling and shelves in the background. Text overlays appear on the screen as he speaks, posing a question and then identifying himself as a clinical psychologist. He discusses the social pressures teenagers face, particularly regarding alcohol consumption, and offers advice on how parents can have open conversations with their children about the topic.</t>
+          <t>Q&amp;A what do I say to my 15 year old who’s desperate to fit in with the social pressure to drink alcohol? Also I’m loving the extra time in reels but just want to be sure I’m not waffling! Let me know what you think about the length of reels in the comments. 
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #tipsparenting #parentinglife #dad #familytime #alcohol #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I264" t="n">
@@ -35835,7 +37126,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>A woman with curly hair, wearing a red dress with a white floral pattern, speaks directly to the camera in a selfie-style video. She is on a balcony with a plant hanging above her. She discusses the parenting technique of 'time out,' explaining that when a child is overwhelmed by intense emotions, the goal is to help them calm down. She argues that the child learns to repress their emotions out of fear of being left alone, which can lead to unprocessed feelings and a fear of abandonment. She suggests that instead of using time out, adults should accompany children through their emotions, as it is part of their responsibility to help them regulate. She concludes by saying that this is a way to accompany our own emotions as well.</t>
+          <t xml:space="preserve">Cuando un niño es apartado o aislado emocionalmente en momentos de desregulación, puede aprender a reprimir sus emociones por miedo a quedarse solo. El riesgo está en lo que internamente queda no procesado, no acompañado y reprimido, por el miedo a perder la conexión con quien más necesita. #timeout #gentleparenting #crianza #mama #mamaprimeriza #emociones #disciplinapositiva #toddlermom #llorar #parati #saludmental #abandono </t>
         </is>
       </c>
       <c r="I265" t="n">
@@ -35973,7 +37264,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>The video is a split-screen TikTok post. On the right, a woman in a blue shirt and black head covering speaks to the camera. On the left, a scene unfolds in a home hallway. A young girl in a blue dress is standing in a corner, facing the wall, as if in a time-out. A woman in a blue dress walks past her. A man then enters the scene, kneels down to talk to the girl, and then stands up to look at a framed picture on the wall. The woman on the right narrates the events, explaining that the girl is in time-out with her father.</t>
+          <t xml:space="preserve">#baby #funny #cat #tiktok #cat #tiktok #fyp #kid #babygirl #funny </t>
         </is>
       </c>
       <c r="I266" t="n">
@@ -36107,7 +37398,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>A young man with dreadlocks is sitting in a car, looking up and smiling. A hand from off-screen playfully covers his eyes, and he laughs. The text overlay reads, 'On a date with some young shyt'. The video has a lighthearted and humorous tone.</t>
+          <t xml:space="preserve">Somebody come get her before I put her in timeout 💯💯 #fyp </t>
         </is>
       </c>
       <c r="I267" t="n">
@@ -36237,7 +37528,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>The video shows a young girl in a living room after being in timeout. Her parents help her put on a white princess dress and a tiara. She is visibly excited and happy, twirling around and admiring herself in a mirror. The scene is playful and celebratory, focusing on the child's joy after a disciplinary period.</t>
+          <t>😭😭😭 Princess Londynn #princess #timeout #parenting #sorry #dressup #princesstime #playtime #imagination #imagine #justimagine</t>
         </is>
       </c>
       <c r="I268" t="n">
@@ -36369,7 +37660,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>The video begins with a young girl sitting on a small pink chair on a wooden deck. She appears to be in distress, crying and kicking her legs. The text overlay reads, 'Timeout is not her thing 😭'. The scene then cuts to a man, presumably her father, standing outside a house. He is speaking directly to the camera, explaining that they tried gentle parenting but it didn't work, and now they are resorting to a timeout. He tells the child to get up, sit in the chair, and that they will call her inside when the timeout is over.</t>
+          <t xml:space="preserve">Gentle parenting doesn’t always work </t>
         </is>
       </c>
       <c r="I269" t="n">
@@ -36503,7 +37794,8 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>The video features two young twin boys, dressed identically in grey sweaters, white collared shirts, and coral shorts, having a conversation in front of a fireplace. They are discussing a disagreement about one of them calling the other 'bro'. The boy on the right is more animated, gesturing and explaining his point of view, while the boy on the left listens and responds. The conversation is about communication, interrupting, and the importance of letting the other person finish speaking. The boy on the right explains that he was talking first and that the other boy was interrupting him. The video ends with the boy on the right walking away, and the boy on the left following him, suggesting a resolution to their argument.</t>
+          <t>Adorable Twins Talk It Out 😅
+#talkitout #twins #kids #adorable #love #hugs #family #toddler #emotional #emotionalintelligence #cute #handsome #parents #parenting #parentingtips #YouTube #viralreels #brother  #feelings #viralvideos #curlyhair #baby #smile #joy #married #athlete #singleparent #fypppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppp #explorepage✨ #explore</t>
         </is>
       </c>
       <c r="I270" t="n">
@@ -36653,7 +37945,8 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>A bald man wearing a green sweater is sitting in front of a microphone and speaking directly to the camera. He is in a room with a wooden ceiling and bookshelves in the background. Text overlays appear on the screen as he speaks, providing context for his words. The video is a Q&amp;A session where he addresses a parent's concern about their nine-year-old child who lies frequently.</t>
+          <t>Q&amp;A My 9 year old lies all the time. What should I say to him?
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #lying #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I271" t="n">
@@ -36785,7 +38078,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>A woman and a young girl are sitting together on a couch. The woman is speaking to the camera and to the girl, initiating a game where she starts a sentence and the girl finishes it. The woman's tone is playful and affectionate, and the girl smiles and participates in the game. The video is presented in a casual, vlog-style format.</t>
+          <t xml:space="preserve">I’ll start the sentence, you finish. Old school disciplinary lectures… my gosh, i like my daughters version better. #parenting #breakthechain #breakthecycle🔄🔁 </t>
         </is>
       </c>
       <c r="I272" t="n">
@@ -36915,7 +38208,11 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>The video is a compilation of scenes from the 19th Champions for Children Awards ceremony hosted by The Children's Trust. It begins with a close-up of the event's program, which features the title 'Champions for Children Awards' and the theme 'Inspiring Champions'. The video then shows several promotional banners for the award recipients, including Constance Collins of Lotus House Women's Shelter, who is honored with the David Lawrence Jr. Champion for Children Award, and the Lotus House Children Services Parenting Program, which wins Program of the Year. The final scenes show the awards ceremony in a large banquet hall, with guests seated at tables watching a presentation on a large screen. The video concludes with a photo of the Lotus House team receiving their award.</t>
+          <t>Dr. Graziano attended @thechildrenstrust 19th Champions for Children Awards alongside faculty and staff from the FIU Center for Children &amp; Families (@fiuccf) &amp; Lotus House Women’s Shelter (@lotushouseshelter). 🏆🙌🏼🧑‍🧑‍🧒‍🧒
+This ceremony honored Constance Collins, the President of Lotus House, with the David Lawrence Jr. Champion for Children Award. 🥇 🩷
+The Lotus House Children Services Parenting Program, which Dr. G serves as a clinical supervisor and researcher for, won program of the year! 🪷🧑‍🧒🏅
+We are so honored to collaborate with individuals and organizations that continuously work toward better outcomes for children and families across Miami-Dade. 
+#research #clinicalpsychology #psychology #academia #children #university #parenting #fiu #lab #community #childrenstrust #award #miami #miamidade</t>
         </is>
       </c>
       <c r="I273" t="n">
@@ -37043,7 +38340,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>The video is a split-screen demonstration of a mother managing her toddler's tantrum during a sibling playtime. The top half of the screen shows the toddler, River, having a meltdown over sharing toys. The mother calmly picks him up and guides him to a designated 'time-out' spot, a corner of the room, to calm down. The bottom half of the screen shows the other child, Hudson, playing with magnetic blocks. After River calms down, the mother brings him back, helps him apologize to Hudson, and then guides him to give his brother a hug. The video uses on-screen text to explain the mother's actions and the underlying parenting philosophy, which is to use time-out as a tool for emotional regulation and to foster kindness and connection between siblings.</t>
+          <t xml:space="preserve">While filming some potty training related content, I captured this moment with River during a tantrum. As many of you know, I’m a strong advocate for time-outs when they are necessary, and often the most meaningful growth occurs through connection and encouragement following a calm-down period.  My focus was on fostering brotherly love by encouraging kindness, sharing, and cooperation between my boys. It’s these small, intentional moments that build lasting bonds and help children develop into compassionate siblings. #gentleparenting #parenting #parentingtips #toddlerlife #toddlertantrums #toddlerlearning #emotionalintelligence #emotionalregulation #motherhood #motherhoodunfiltered #momlifeunfiltered #motherhoodjourney #parentingishard </t>
         </is>
       </c>
       <c r="I274" t="n">
@@ -37173,7 +38470,18 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage, is speaking directly to the camera in what appears to be a home setting. She is wearing a grey sweatshirt and a black baseball cap with 'Grandma EST 2024' on it. She is explaining the difference between removing a toddler from a fun activity and the traditional concept of a timeout. She describes the former as a method where the parent is present with the child, not discussing the behavior, and simply removing them from the activity to stop it. She contrasts this with a timeout, which she describes as sending the child away to think about their actions, often leading to a 'therapy session' afterward. Text overlays on the screen display her name, 'Bratbusters Parenting,' and the question, 'Timeout For a Toddler?'. She also promotes her parenting newsletter and bootcamps.</t>
+          <t>Can you explain how removing a toddler from the fun is different from timeout?
+It's very different. 
+Let's say they're doing something naughty and they're having fun playing with something, but all of a sudden they're doing something naughty.
+You say no, and then you remove them from the fun. The difference is you're with them and you're not discussing it. There's no silent treatment or anything. You just take them somewhere else. 
+You might be doing the dishes or something and you just bring them in there with you and make sure they can't run back to the fun.
+You're not discussing it and they're not alone. 
+Not sure where to start in your calm leadership journey? Check out my BratBusters Behaviour Board (Plus Toddler Basics) that I send to my parenting newsletter, linked in my bio.
+Then, if you’re interested in learning the tools I teach for parenting like a calm leader, check out the BratBusters Bootcamps, linked in my bio. 
+`
+`
+`
+#ToddlerAdventures #ToddlerBehaviour #ParentingToddlers #ToddlerDad #ToddlerDads</t>
         </is>
       </c>
       <c r="I275" t="n">
@@ -37309,7 +38617,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>A young man in a black hoodie and light-colored pants is shown in a bedroom. He walks towards a window with white plantation shutters, opens them slightly, and peers outside. The on-screen text reads, 'Putting myself in time out for checking if they've viewed my story for the 3rd time in 5 mins.' The video is set to a pop song.</t>
+          <t xml:space="preserve">Definitely didn’t copy @lukebailey24 #fyp #timeout #storyviewers </t>
         </is>
       </c>
       <c r="I276" t="n">
@@ -37443,7 +38751,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>A man wearing a baseball cap and a dark t-shirt speaks directly to the camera in a home setting. He is discussing toddler discipline, arguing against the use of timeouts. Text overlays appear on the screen, highlighting key phrases from his speech such as 'TODDLER DISCIPLINE THAT WORKS', 'PUTTING YOUR TODDLER IN A TIMEOUT IS THE EXACT OPPOSITE OF WHAT THEY NEED', and 'THEY ARE HAVING A HARD TIME'. He explains that tantrums are a sign a child's brain is 'out of control' and that they need a parent's help to regulate, not to be isolated.</t>
+          <t xml:space="preserve">Timeouts are dumb. We can do better. </t>
         </is>
       </c>
       <c r="I277" t="n">
@@ -37581,7 +38889,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>A woman in a red zip-up hoodie is speaking directly to the camera in what appears to be a home setting. She is responding to a comment about her parenting style, specifically addressing the use of timeouts. She explains that she uses timeouts occasionally, clarifying that it's not a punitive measure but rather a time for the child to calm down and for her to have a conversation with them. She emphasizes that every child is different and what works for one may not work for another. The video includes on-screen text summarizing her key points about having firm boundaries while still being kind and maintaining good communication.</t>
+          <t xml:space="preserve">Replying to @offtopictism if you don’t agree with timeouts, or you don’t give your children timeouts, that is completely fine. Everybody has different ways of doing things and everybody has different opinions. I have worked with children that do not care if they go in a timeout, and they don’t work for them, and I have other children that timeouts work very well for their type of personality. Every child is so different </t>
         </is>
       </c>
       <c r="I278" t="n">
@@ -37715,7 +39023,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>The video is a promotional reel for a movie titled 'Rojo Pasión,' celebrating the 120th anniversary of the Club Atlético Independiente football club. It features a woman, identified as Cata Quiroga, who introduces the film and shares her personal experience of visiting the club's stadium with her family. The video includes clips from the movie, showcasing its main actors, Celeste Cid and Santiago Caamaño, and scenes of passionate fans, the stadium, and the club's history. It also shows behind-the-scenes footage of the film's production and the woman's visit to the stadium, including walking on the pitch and seeing the club's trophies.</t>
+          <t xml:space="preserve">La película de @C. A. Independiente ❤️ #independiente #futbol #clubatleticoindependiente #rojopasion </t>
         </is>
       </c>
       <c r="I279" t="n">
@@ -37847,11 +39155,7 @@
           <t>TikTok video #7507367699513658629</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>The video is a parenting advice segment from the TikTok account @redParental. A woman with curly hair, identified as Lina Acosta, speaks directly to the camera, explaining why the 'time-out' parenting strategy is ineffective. She argues that children under seven lack the cognitive ability for reflection. The video uses split screens to show examples of children in time-out, while the speaker provides a scientific explanation. She then presents an alternative approach, showing a mother helping her child calm down after a tantrum, emphasizing connection and co-regulation. The speaker cites a scientific study from APA PsycNet to support her claims.</t>
-        </is>
-      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="n">
         <v>1747945257</v>
       </c>
@@ -37983,7 +39287,14 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>The video is an educational piece from the Instagram account 'mindandchild' that presents four alternatives to spanking for disciplining children. It features a woman and a man demonstrating each strategy in a home setting. The first strategy, 'Time In,' shows the woman sitting with a child to help them calm down together. The second, 'Re-Do,' shows the woman speaking to a child about a past incident and guiding them to express themselves calmly. The third, 'Time Out,' shows the man explaining the concept to a child. The fourth, 'Tap Out/In,' shows the woman and a man using a physical cue to switch parenting duties when overwhelmed. The video uses on-screen text to label each strategy and provide key phrases.</t>
+          <t>When your child misbehaves, do you find yourself wanting to quickly stop their behavior by using a “harsher” technique like yelling or spanking? That’s totally understandable—we all want to nip unwanted behavior in the bud! But research shows these approaches aren’t effective long-term and can lead to negative outcomes (we cover this in our latest blog post on spanking!).
+Here are 4 alternatives to try instead:
+1️⃣ Time-Ins: Instead of isolating your child, sit with them as they calm down. Show them how to breathe deeply, use calming words, and work through big feelings together.
+2️⃣ Re-Do: Mistakes happen! Give your child the chance to try again—whether it’s practicing kind words or sharing. It teaches them accountability in a supportive way.
+3️⃣ Time-Outs: When done right, time-outs can help kids reset. Stay calm, use them sparingly, and explain the reason so they learn from the experience.
+4️⃣ Tap In/Tap Out: Feeling overwhelmed? With your partner, use a subtle cue (like a tap on the shoulder) to switch off. One parent takes over while the other cools down.
+💡 Want more tips? Comment CALMTOOLS for our blog on Alternatives to Spanking and Yelling. Or, comment TIMEOUT123 for a FREE video from our Parenting 101 course about Time-Ins vs. Time-Outs.
+#positiveparenting #gentleparenting #parentingtips #parentinghelp #parentinghacks #disciplinewithlove #parentinglife #peacefulparenting #spanking #respectfulparenting #parenteducation #attachmentparenting #emotionalsupport #parentingstrategies #parentingblogger #raisingkids #consciousparenting #mindfulparenting #fyp #calmparenting #toddlertantrums #kidsbehavior #parentingresources #disciplinewithdignity #newmom #kidsmentalhealth #momlifehacks #timeout #timein</t>
         </is>
       </c>
       <c r="I281" t="n">
@@ -38115,7 +39426,8 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in a home office setting, addressing a viewer's question about how to get their five-year-old child to sleep independently. He explains that while he supports co-sleeping, he understands parents need their own space. He then provides a step-by-step, graduated approach for transitioning a child to independent sleep, starting with sitting beside the bed, then moving to sitting nearby, and eventually checking in from outside the door. He emphasizes the importance of maintaining a consistent presence and routine to help the child feel secure.</t>
+          <t>Q&amp;A How do I get my 5-year-old to sleep independently of me? I have to lie with him every night.
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #sleeptraining #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #sleep #parentingadvice</t>
         </is>
       </c>
       <c r="I282" t="n">
@@ -38243,7 +39555,15 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage, a parenting coach, is speaking directly to the camera in what appears to be a living room. She is wearing a black baseball cap with 'Grandma EST 2024' on it and a dark blue zip-up jacket. She is discussing the topic of sending a child to 'time out' after a tantrum. As she speaks, text overlays appear on the screen, first posing the question 'Thoughts on Timeout?' and then displaying her strong opinions against the practice, such as 'I hate timeout,' 'I think it's horrible,' and 'Don't do it.' She argues that it is 'demoralizing, it's shaming and blaming.' The video is a short-form social media post, likely from Instagram, where she is sharing her parenting philosophy.</t>
+          <t>I don’t recommend using timeouts. 
+What do I suggest instead? 
+With toddlers, I use consistent corrective actions, and when they are three and older, I recommend starting with the BratBusters Behaviour Board. 
+Check out my BratBusters Behaviour Board (Plus Toddler Basics) that I send to my parenting newsletter, linked in my bio.
+Then, if you’re interested in learning the tools I teach for parenting like a calm leader, check out the BratBusters Bootcamps, linked in my bio. 
+`
+`
+`
+#ParentingWin #ParentingMindfulness #FamilyWellness #ParentingCoaching #ParentingFromTheHeart</t>
         </is>
       </c>
       <c r="I283" t="n">
@@ -38379,7 +39699,23 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage from 'BratBusters Parenting', is speaking directly to the camera in what appears to be a home setting. She is wearing a dark blue zip-up jacket and a black baseball cap with 'Grandma EST 2024' written on it. Her hair is styled in two pigtails. She is discussing the parenting strategy of sending a child to 'time out'. Text overlays appear on the screen, posing the question 'Thoughts on Timeout?' and then displaying her responses as she speaks, such as 'I hate time out', 'I think it's horrible', and 'It's demoralizing'. She argues against the practice, stating it is 'ludicrous' and 'shaming and blaming'. The background includes a black leather couch, a white cabinet with a plant, and string lights.</t>
+          <t>Learn more at https://www.bratbusters.com
+Courses &amp; Resources:
+➡️ Toddler BratBusters Bootcamp (16-35 Months Old) https://bratbusters.podia.com/toddler-bootcamp 
+➡️ BratBusters Bootcamp (3-12 Years Old) https://bratbusters.podia.com/126b3bf6-b5aa-4088-a040-0bb54beb82c8  
+➡️ Private Coaching https://bratbusters.com/coaching/  
+➡️ Get Your Behaviour Board Now https://bratbusters.podia.com/behaviour-board
+About BratBusters Parenting:
+I’m Lisa Bunnage, a mother, grandmother, and parenting coach. If you’re a parent who wants to get mutual respect with your children, and learn how to become a calm leader, this is the place for you. 
+Let’s Connect: 
+Instagram: https://www.instagram.com/bratbustersparenting/?hl=en  
+TikTok: https://www.tiktok.com/@bratbustersparenting?lang=en  
+YouTube: https://www.youtube.com/@BratBustersParenting  
+Facebook: https://www.facebook.com/BratBustersParenting 
+Website: https://bratbusters.com/  
+Disclaimer: 
+I am a parenting coach and a mom. I am not a licensed psychologist or counsellor. My services do not replace the care of psychologists or other healthcare professionals. Coaching is in no way to be construed or substituted as psychological counselling or any other type of therapy or medical advice.
+Please read full disclaimer here https://bratbusters.com/disclaimer/</t>
         </is>
       </c>
       <c r="I284" t="n">
@@ -38517,7 +39853,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>A woman places a young girl in a 'time out' position, standing with her back to a wall. The girl is wearing a white sweatsuit and has colorful hair ties in her braids. The woman then leaves the frame. A man enters, speaks to the girl, and then also takes a 'time out' position next to her. The girl looks up at him and smiles.</t>
+          <t xml:space="preserve">Anybody can get timeout from mommy 😂 #mommy #daddy #timeout </t>
         </is>
       </c>
       <c r="I285" t="n">
@@ -38647,7 +39983,8 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in a home office setting, addressing a parenting question. He is wearing a red sweater over a white t-shirt and is positioned in front of a large black microphone. The video is a Q&amp;A format where he provides advice on how to explain to a ten-year-old daughter why crop tops are not appropriate for her age. He suggests starting with curiosity rather than judgment, understanding her reasons for liking them, and framing the conversation around age-appropriate clothing and self-expression.</t>
+          <t>Q&amp;A How do you explain to a ten year old that crop tops are not appropriate for her? 
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #croptop #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I286" t="n">
@@ -38775,7 +40112,9 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>A woman and a young boy are playing in a sunny backyard. They are engaged in imaginative play, using long sticks as swords and a white circular object as a shield. The woman, barefoot, and the boy, wearing a blue shirt and shorts, are seen playfully 'fighting' with their makeshift weapons. The scene is set in a grassy yard with a house and trees in the background. A text overlay at the top of the screen reads, 'Experts say boys have more fun with their moms.'</t>
+          <t>Now that our son is four, we’ve entered the golden age of role-play—knights, Jedis, and wild imagination rule our days. ⚔️🌌 We haven’t introduced phones or small screens yet, so I thought summer would need a full schedule… but it turns out all they need is a garden, some sticks, and a lot of pretend. 
+ #screenfreechildhood
+#parenthood #parenting #summer #outdoorfun #lifewithkids #Momlife #boymom #parentlife</t>
         </is>
       </c>
       <c r="I287" t="n">
@@ -38899,7 +40238,8 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in a home office setting. He is addressing a viewer's question about their 12-year-old daughter who gives up easily on tasks. He explains that this behavior might stem from a 'fixed mindset' and suggests reframing the situation to help her persist. He advises parents to respond to her struggles by acknowledging the difficulty and helping her find a small, achievable step forward, rather than rushing to fix the entire problem or offering immediate help. He concludes by reminding parents to be mindful of their own family dynamics.</t>
+          <t>Q&amp;A a 12 year old who gives up easily…
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I288" t="n">
@@ -39027,7 +40367,13 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage, is speaking directly to the camera in a vlog-style video. She is wearing a black baseball cap with 'Grandma EST 2024' written on it and is holding a microphone. The background is a room with a couch and string lights. She is passionately discussing her dislike for the parenting strategy of 'time out,' arguing that it is humiliating and ineffective. She suggests alternative discipline methods, such as 'consistent corrective actions' for children under three and using a 'behavior board' for older children.</t>
+          <t>Why I hate timeouts as a discipline method. 
+This is a clip from the latest BratBusters Parenting Podcast Episode on what to use instead of timeout. You can listen to the full episode now on your favourite podcast player! 🎧
+P.S. You can start your calm leadership journey today with the BratBusters Behaviour Board (Plus Toddler Basics) no-cost mini course by joining my newsletter. Ready to dive deeper into parenting like a calm leader? Learn more about the BratBusters Bootcamp courses; everything is linked in my bio 🔗
+`
+`
+`
+#ParentingSuccess #ParentingSupport #PositiveParenting #ParentingLife #RaisingKids</t>
         </is>
       </c>
       <c r="I289" t="n">
@@ -39163,7 +40509,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage, is speaking directly to the camera in a close-up shot. She is wearing a black baseball cap with 'Grandma EST 2024' written on it and is holding a microphone. The background is a room with a couch and string lights. She is discussing her dislike for the parenting strategy of 'timeout'. Text overlays on the screen identify her and the topic as 'Why I Hate Timeout'. She uses an analogy of being sent to a corner at work to illustrate why she finds timeout humiliating and ineffective. She then suggests alternative discipline methods, such as 'consistent corrective actions' for children under three and using a 'behavior board' for older children.</t>
+          <t>Why I hate timeouts as a discipline method.  This is a clip from the latest BratBusters Parenting Podcast Episode on what to use instead of timeout. You can listen to the full episode now on your favourite podcast player! 🎧 P.S. You can start your calm leadership journey today with the BratBusters Behaviour Board (Plus Toddler Basics) no-cost mini course by joining my newsletter. Ready to dive deeper into parenting like a calm leader? Learn more about the BratBusters Bootcamp courses; everything is linked in my bio 🔗 ` ` ` #ParentingSuccess #ParentingSupport #PositiveParenting #ParentingLife #RaisingKids</t>
         </is>
       </c>
       <c r="I290" t="n">
@@ -39301,7 +40647,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>The video is a rapid montage of various short clips featuring different people in moments of distress, frustration, or deep thought. These include a person with their head in their hands, a man gesturing with his hand, a person looking out over a city at night, a man in a suit, a woman in high heels crouching, a man in a car, a man in a suit walking, a man on a bus, a man in a suit with headphones, a woman with long hair, a man in a chair, a man on a bus, a man in a blue shirt, a man on the floor, a man with a serious expression, a woman on a carousel, a man in a car, a man at a table, a man at a piano, and two men in a black and white shot. Throughout all these clips, a text overlay is present, reading: 'Ref, timeout okay? Ref, I learned my lesson. REF, TIMEOUT I KNOW IT'LL NEVER BE ME.' The video uses a dramatic, emotional, and somewhat comedic tone to convey a message about the perceived unfairness or ineffectiveness of a 'timeout' punishment.</t>
+          <t xml:space="preserve">ref saw me fall &amp; still said play on😂 #timeout #ref #realatable #neverme #fyp #goviral #viral_video #blowthisupforme </t>
         </is>
       </c>
       <c r="I291" t="n">
@@ -39435,7 +40781,13 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage, is speaking directly to the camera in a vlog-style video. She is wearing a black baseball cap with 'Grandma EST 2024' on it and a brown corduroy jacket. She is discussing how to handle a 5-year-old hitting their parents. She argues against using time-outs and diversion, stating that there must be a consequence. She uses the analogy of a police officer pulling over a speeder to illustrate her point, saying the officer would give a ticket, not suggest the person ride a bike. She concludes by saying the consequence is what stops the behavior. Text overlays on the screen identify her as 'Lisa Bunnage, Bratbusters Parenting Podcast' and pose the question '5-Year-Old Hitting Their Parents?'. She also promotes her 'BratBusters Behaviour Board' and website.</t>
+          <t>How I would approach the situation of a 5-year-old hitting their parents. 
+This is a clip from the latest BratBusters Parenting Podcast Episode on what to use instead of timeout. You can listen to the full episode now on your favourite podcast player! 🎧
+P.S. You can start your calm leadership journey today with the BratBusters Behaviour Board (Plus Toddler Basics) no-cost mini course by joining my newsletter. Ready to dive deeper into parenting like a calm leader? Learn more about the BratBusters Bootcamp courses; everything is linked in my bio 🔗
+`
+`
+`
+#ParentingIdeas #ParentingGuidance #ParentingConfidence #ParentingAdviceForMoms #ParentingWisdom</t>
         </is>
       </c>
       <c r="I292" t="n">
@@ -39571,7 +40923,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>A woman with long, wavy brown hair is speaking directly to the camera in a casual indoor setting. She is wearing a light-colored t-shirt and uses expressive hand gestures and facial expressions as she talks. The video is a social media post, likely from TikTok, discussing generational stereotypes. She references a show on HBO called 'Just Like That' to illustrate her point about how older Gen Alpha individuals are acting like 'boomer babies.' She describes a scene where a character named Rock uses a community app to monitor her neighborhood, including reporting an elderly man wandering with a newspaper, and later suggests giving bananas to neighbors. The on-screen text reinforces her points about generational behavior.</t>
+          <t xml:space="preserve">And just like that #boomer #genz #genalpha #genx #millenial #kids #funny #okboomer #parents #teacher #teachersoftiktok </t>
         </is>
       </c>
       <c r="I293" t="n">
@@ -39705,7 +41057,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>The video is a promotional montage for a luxury safari lodge called Chiawa Camp in Zambia. It begins with a shot of two impalas fighting, overlaid with text asking if the viewer would believe the lodge costs $2,250 per night for a family. The video then showcases various aspects of the lodge, including aerial views of elephants near a river, guests relaxing on a deck, and luxurious interior shots of a bedroom with a mosquito net and a view of the water. It also features a bathroom with a freestanding tub overlooking the river, a family walking on a path, a dining table set for a meal, and a breakfast buffet. The final scenes show guests enjoying a meal on a boat on the river and walking along a path, all set to upbeat, celebratory music.</t>
+          <t>Looking for a luxury, all-inclusive safari experience the whole family will rave about? This is your sign to book before the world catches on! 🐘🌍 We discovered Chiawa Camp in the heart of Zambia's Lower Zambezi National Park—and it’s a once-in-a-lifetime escape. Think wild mornings with elephants by your tent, gourmet bush dinners under the stars, and thrilling game drives that leave your heart pounding.🛖🔥 Perfect for families craving connection with nature and top-tier comfort, Chiawa blends authentic safari vibes with exceptional service. Trust me—this hidden gem won’t stay secret for long.🌿💫 Chiawa Camp is where wild adventure meets barefoot luxury. 📍Zambia, and worth every second of the journey. 🗺 Safari dreams unlocked. Are you ready? Zambia | Safari Experience | Luxury Travel | Family Vacation | All-Inclusive Lodge | Wildlife Adventure | Chiawa Camp | Hidden Gems | African Safari | Best Safari Destinations #luxurytravel #safarilodge #africansafari #zambia #familytravel #travelafrica #bucketlisttravel #wildlifelovers #glampingsafari #adventureawaits #exploretheworld #safariexperience #luxurysafari #familyvacation #wanderlustafrica</t>
         </is>
       </c>
       <c r="I294" t="n">
@@ -39835,7 +41187,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>The video is a two-part clip. The first part features a woman speaking directly to the camera, explaining that her daughter had a tantrum after being punished and was subsequently put in time-out. She humorously adds that she also had to put her 91-year-old father in time-out to prevent him from interfering. The second part of the video shows the elderly man, presumably her father, sitting on a bed and looking at a small object in his hand, seemingly complying with the 'time-out'.</t>
+          <t>These two will be the death of me #fyp #foryourpage #papaw #papawsgirl #punishment #timeout</t>
         </is>
       </c>
       <c r="I295" t="n">
@@ -39969,7 +41321,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>A woman in a beige pajama set stands in a room, holding a mug. She looks at the camera, then turns and walks towards a black refrigerator built into a wall. She leans her head against the refrigerator door, appearing to be in a state of exasperation or contemplation. The on-screen text reads, 'Putting myself in timeout after replying to a text in 0.01 seconds and exposing how online I really'. The video is set to a pop song.</t>
+          <t xml:space="preserve">I’ll either reply instantly or 3 days later  #timeout #fyp #funny #trending #mumtok #aussiemum #girlsbelike #relatable </t>
         </is>
       </c>
       <c r="I296" t="n">
@@ -40103,7 +41455,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>The video is a sports story narrated by a man in a blue shirt on a soccer field. He tells the story of a real-life incident where a soccer player, Paulo Diogo, lost a finger during an exuberant celebration after scoring a goal. The story is illustrated with archival footage of the player scoring and celebrating, followed by a scene where his finger gets caught in the goal net. The narrator then transitions to discussing other examples of players getting injured during celebrations, such as Martin Palermo and Steve Morrow. The video uses text overlays and a mix of modern and vintage-style footage to tell the story.</t>
+          <t xml:space="preserve">Il calciatore che perse un dito… per colpa di un esultanza!? #calcio </t>
         </is>
       </c>
       <c r="I297" t="n">
@@ -40237,7 +41589,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>A woman, presumably a mother, is in a room with her two young children, a girl and a boy. She introduces them to the camera, explaining that they are about to go to a splash pad and want to show off their new swimsuits. The girl, wearing a colorful unicorn-themed pajama set, holds up her new swimsuit on a hanger and talks about it. The boy, wearing a grey t-shirt with a Patriots logo, then steps forward to show his new swimsuit. The mother interacts with them, asking questions and encouraging them. The video has a lighthearted and proud family atmosphere.</t>
+          <t>Say something nice 🫵#sweetkids #blessedmomma #blessedstepmomma #poolday</t>
         </is>
       </c>
       <c r="I298" t="n">
@@ -40367,7 +41719,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>A woman with tattoos and braided hair, wearing a black tank top and a baseball cap, sits in the driver's seat of a car with red leather seats. She is speaking directly to the camera, making a humorous statement about her personality. The text '✨Hot Take✨' is displayed at the top of the screen.</t>
+          <t xml:space="preserve">Hot Take: Carrying around the weight of this dumpy of a personality ✨ #relatable #fyp #explore #vlog #viral #trend #funny #humor </t>
         </is>
       </c>
       <c r="I299" t="n">
@@ -40497,7 +41849,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>A young woman with bright blue hair is sitting in the driver's seat of a car. She looks at the camera with a serious expression, then turns her head to look out the front windshield. The car's interior is visible, including the steering wheel, dashboard, and sun visors. Text is overlaid on the video, reading, 'Putting myself in timeout for letting a man who couldn't even get me off disturb my peace.' The video appears to be a humorous social media post using the concept of 'time-out' in a non-parental, adult context.</t>
+          <t xml:space="preserve">Don’t mention my fried hair 😅 i am aware #fyp #fypシ #trend #timeout #meme  </t>
         </is>
       </c>
       <c r="I300" t="n">
@@ -40635,7 +41987,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>The video is a point-of-view shot from a vehicle, likely a motorcycle, driving through the entrance and grounds of a resort. The camera pans across a well-maintained area with lush green grass, numerous palm trees, and modern buildings. Several vehicles, including a black Toyota Land Cruiser and a black pickup truck, are seen on the road. A sign for the 'IBOM HOTEL' is visible, indicating the location. The overall atmosphere is that of a tropical resort or hotel complex.</t>
+          <t xml:space="preserve">ibom resort entrance #mumstrip </t>
         </is>
       </c>
       <c r="I301" t="n">
@@ -40765,7 +42117,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>A silver Honda Civic is parked in a parking lot. The car slowly moves forward and then reverses, all while a person is visible in the driver's seat. The scene is set during the day in a commercial area with other vehicles and buildings in the background. The video is accompanied by upbeat music.</t>
+          <t xml:space="preserve">🫠 #fyp #honda #timeout #parenting #trend </t>
         </is>
       </c>
       <c r="I302" t="n">
@@ -40899,7 +42251,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>A woman in a white sweater is arranging a bouquet of yellow and white flowers in a clear glass vase on a wooden table. She places the flowers one by one into the vase. The scene is set indoors, in front of a window with white frames and beige curtains. A text overlay is present throughout the video, stating, 'Your child is not here to be fixed, they're here to awaken you.' The video ends with a close-up of the finished bouquet.</t>
+          <t xml:space="preserve">Parenting is a mirror. Your child is not just a little person you’re raising, they are also a mirror showing you where you still need healing, patience, regulation, and growth. When they trigger you, it’s rarely about them.. it’s about you.  This quote from The Conscious Parent book by Dr. Shefali Tsabary is one of the most powerful and transformative truths in modern parenting.  #consciousparenting #drshefali #motherhood #parentingtips #parenting #mom #teenmom #momsoftiktok #childrenareamirror </t>
         </is>
       </c>
       <c r="I303" t="n">
@@ -41029,7 +42381,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>A woman with long dark hair and sunglasses is shown in a close-up, selfie-style video. She is wearing a green zip-up jacket over a white shirt and is drinking from a dark-colored cup. The sun is shining brightly behind her, creating a lens flare. She looks directly at the camera with a serious expression. Text is overlaid on the video that reads, 'I don't regret the healing I gave you. You probably needed it. Eff you tho'. A song with a female vocalist plays in the background.</t>
+          <t xml:space="preserve">Could have just left me alone. #fyp #trending #foryoupage #healing #fypシ #relateable </t>
         </is>
       </c>
       <c r="I304" t="n">
@@ -41163,7 +42515,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>A woman is speaking directly to the camera in a selfie-style video. She is outdoors on a sunny day, with a building and a yellow and red structure, possibly a roller coaster, visible in the background. She is wearing a black fleece jacket and has sunglasses pushed up on her head. She is recounting a story about her goddaughter being put in timeout at a birthday party. She expresses her disbelief and frustration, stating that she wasn't consulted and that the situation wasn't her fault. Towards the end of the video, a text overlay appears, posing a question to the audience: 'Would U put another person's child in timeout if the guardian was physically present &amp; u could've spoken to them instead?'</t>
+          <t xml:space="preserve">She didn’t even ask me. Just put her in timeout and hit send #goddaughter #timeout #parenting #discipline #wtf #storytimewithreddit #kidtok #momtok </t>
         </is>
       </c>
       <c r="I305" t="n">
@@ -41301,7 +42653,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>A man wearing a maroon shirt with a rooster print, a black cap, and glasses is speaking directly to the camera in what appears to be a cafe or a casual office setting. Two women are seated at a table in the background. The man is discussing the societal expectations placed on mothers and fathers regarding their work and family responsibilities. He poses a rhetorical question about whether fathers are similarly reminded of their duty to educate their children at home, implying that this responsibility is often overlooked. The video includes on-screen text that transcribes his speech.</t>
+          <t>Bukan semua tugas ibu 😢 Ayah yang sibuk kerja tetap ayah. Ayah yang pulang larut tetap ayah. Dan ayah tetap punya ruang di hati anak — kalau mau hadir. Karena gaji bisa dicari lagi, tapi waktu bareng anak nggak akan terulang lagi. 📌 Kalau sepakat, tulis: AyahHadir = AnakBahagi❤️ Atau boleh pendapat lain ya 🤗 #parenting #tipsparenting #rumahtangga #anak #suamiistri</t>
         </is>
       </c>
       <c r="I306" t="n">
@@ -41435,7 +42787,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>A man with a beard, wearing a dark t-shirt with the 'Buffalo Bills' logo, is speaking into a microphone. He is positioned in front of a wall filled with orange Wilson basketballs. He appears to be telling a story, using expressive facial gestures and hand movements.</t>
+          <t>La rocambolesca historia de Pepe Rodríguez y la tatarabuela de #JJBarea 🔥 Podcast completo, con @atigax y @andresweiss_, en @youtube 📲 💥 #TIMEOUT | #SomosEquipo #tiktokdeportes #periodismo</t>
         </is>
       </c>
       <c r="I307" t="n">
@@ -41565,7 +42917,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>The video displays a static image of a white Adirondack chair on the deck of a cruise ship during sunset. A sign on the chair reads 'Adult Timeout Chair'. A tropical drink with an orange slice and a blue straw sits on the chair's side table, and a blue and white striped towel is draped over the armrest. The scene is serene, with the ocean in the background. The video includes a brief spoken phrase at the beginning and a sparkling light effect overlay.</t>
+          <t xml:space="preserve">I think getting in trouble is calling my name!! #Timeout #GettingInTrouble </t>
         </is>
       </c>
       <c r="I308" t="n">
@@ -41699,7 +43051,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>A woman with glasses is speaking directly to the camera, responding to a critical comment she received. The comment questions why she would 'hide from her children' and implies that her parenting is flawed. She explains that her previous video, where she was in her car, was about needing a moment to 'self-regulate' because the house was too noisy and messy. She expresses frustration with the comment, stating she is a single mother of three and is allowed to take a break. She is visibly emotional and exasperated by the criticism.</t>
+          <t xml:space="preserve">Replying to @shaunwightman  Not in the mood for mansplaining today pal. I have 3 kids that I parent on my own, quite successfully, I'm allowed a time a out. #parentsontiktok #parenting #loneparent #soloparent #singlemum #mumsoftiktok #dadsoftiktok #timeout #badmum #shitmumclub #fyp </t>
         </is>
       </c>
       <c r="I309" t="n">
@@ -41837,7 +43189,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>A person's hand holds up a two-tone baseball cap. The cap is cream-colored on the top and dark green on the brim. The word 'MISBEHAVIN'' is embroidered in a teal, stylized font across the front. The hand, with pink nail polish, rotates the hat slightly to display it from different angles. In the background, a room with a door and wooden floor is visible.</t>
+          <t xml:space="preserve">@The Brim Reapers loving this hat so much!  #misbehaving #misbehavin #babybilly #righteousgemstones #truckerhat #brimreapers </t>
         </is>
       </c>
       <c r="I310" t="n">
@@ -41967,7 +43319,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>The video is a news report from Revista SEMANA about the reopening of swimming in the River Seine in Paris. It features a female news anchor in an office setting who narrates the story. The report explains that after a century of being banned, swimming is now allowed due to a massive 1.4 billion euro cleanup project. The video includes B-roll footage of people swimming in the river, which is sectioned off with orange and yellow buoys. Police boats are present to ensure safety. The anchor mentions that the project was in the works for years and was even attempted during the previous Olympic Games, but some participants got sick. The report concludes with a lighthearted, stylized shot of the anchor in a swimsuit, holding a glass of wine and a bottle, with the Eiffel Tower in the background, under the hot Parisian sun.</t>
+          <t>Después de cien años, bañistas pueden volver a nadar en el río Sena. #Noticias #NoticiasTikTok</t>
         </is>
       </c>
       <c r="I311" t="n">
@@ -42101,7 +43453,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>The video is a promotional graphic for a blog post about parenting. It begins with a title card that reads 'HOW TO RAISE INDEPENDENT KIDS' over an image of three young children coloring. The scene transitions to a notebook-style background with puzzle pieces containing photos of children playing independently. Text on the screen explains that children can develop independence early by making small decisions, learning to take control, and problem-solving. The video concludes with a call to action to read the full article on the website 'mylifefm.com'.</t>
+          <t>Letting go can be scary, but raising confident, capable kids starts earlier than you think. Check out the blog post on How to Raise Independent Kids on our website: https://mylifefm.com/how-to-raise-independent-kids/ #independentkids #parenting</t>
         </is>
       </c>
       <c r="I312" t="n">
@@ -42231,7 +43583,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>The video shows a woman from behind, wearing a blue t-shirt and grey shorts, being guided by another person's hand on her back. She walks down a hallway and is positioned with her back against a white door, in a posture that mimics a 'time-out' for a child. The scene is set in a home environment with a fan and a small basketball hoop visible. The video is accompanied by a hip-hop song and features a text overlay that reads, 'Normalize putting your mom in timeout for having 2 baby daddies.'</t>
+          <t xml:space="preserve">@Teri </t>
         </is>
       </c>
       <c r="I313" t="n">
@@ -42365,7 +43717,8 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>The video shows two young toddler brothers in a living room. One boy is sitting on the floor, crying, while the other boy approaches him, hugs him, and tries to comfort him by patting his back and head. The scene then cuts to a man, presumably their father, speaking directly to the camera in a different location.</t>
+          <t>I Got You Brother 💙
+#brother #twins #love #adorable #kids #cute #joys #smile #onion #onions #boys #dad #father #daddy #YouTube #pregnant #repost #family #viralreels #parents #parenting #natural #naturalhair #toddler #sad #happy #hugs #emotional #athlète #atlanta</t>
         </is>
       </c>
       <c r="I314" t="n">
@@ -42497,7 +43850,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>The video is a promotional clip for a Vietnamese food stall named 'Cô Trinh Bánh Canh Cua - Hủ Tiếu Gà' located in Hóc Môn, Ho Chi Minh City. It begins with close-up shots of a person preparing bowls of 'bánh canh cua' (crab noodle soup) and 'hủ tiếu gà' (chicken vermicelli soup), showcasing the ingredients like thick white noodles, crab meat, shrimp, chicken, and a rich, orange-colored broth. The video then shows the exterior of the shop, which has moved to a new, larger location. A woman, presumably the owner, is seen working behind the counter. The video concludes with a man enjoying a bowl of the soup at an outdoor table, highlighting the food's appeal.</t>
+          <t xml:space="preserve">Đóng cửa thiệt hả ta?  #khamphahocmon #learnontiktok #ancungtiktok #banhcanhcua #hutieuga #cotrinh </t>
         </is>
       </c>
       <c r="I315" t="n">
@@ -42627,7 +43980,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>The video is a first-person perspective of someone riding a bicycle along a scenic path. The scene changes between different beautiful landscapes: first, a tree-lined avenue with pink and purple flowers overhead; second, a path through a yellow field at sunset; and third, a mountain trail with wildflowers. A basket filled with colorful flowers is attached to the front of the bicycle. Text overlays in Spanish appear sequentially on the screen, conveying a religious blessing.</t>
+          <t xml:space="preserve">#creatorsearchinsights #LIVEWithLessFollowers #PaidPartnership #LIVEWithLessFollowers #buenosdias #oracion </t>
         </is>
       </c>
       <c r="I316" t="n">
@@ -42757,7 +44110,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>A woman with blonde hair and glasses is sitting in a chair and holding a young child on her lap. She is speaking directly to the camera, while the child looks around and occasionally at the camera. The woman is holding a Minnie Mouse plush toy. The background shows a living room with a mirror on the wall.</t>
+          <t xml:space="preserve">Like why are they already being naughty.. at least let me wake up first 😫. #timeout #parenting #toddlertimeouts #parentlife #naughtykid </t>
         </is>
       </c>
       <c r="I317" t="n">
@@ -42895,7 +44248,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>The video opens with a close-up of a hand holding a piece of paper with a crude drawing of a middle finger and the handwritten text 'hi fuck you give me money'. The scene then cuts to a young girl with blonde hair in a bun, wearing a pink top and patterned pants, sitting on the floor and looking under a cabinet. The video cuts back to the note. The overall context is a humorous take on a child's frustration with the Tooth Fairy not leaving money for a lost tooth.</t>
+          <t xml:space="preserve">When your fed up waiting for the Tooth Fairy to do her job 🦷 Miss 8 saying what we all want to say 🤣 #toothfairy #timeout #trynottolaugh #naughty #parenting #ohno </t>
         </is>
       </c>
       <c r="I318" t="n">
@@ -43025,7 +44378,14 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>A woman with glasses and a green top is speaking directly to the camera against a plain white background. She is discussing the concept of a 'time-out' for children, clarifying that it is not a punishment but a calm, clear boundary to teach respect and emotional regulation. She uses hand gestures to emphasize her points and appears to be giving parenting advice.</t>
+          <t>TIME OUT PARENTS.
+My version of a Time-out isn’t about 'punishment' and I say this because the word 'punishment' is now being used with a punitive authoritarian energy. 
+However it is about respect and healthy boundaries. Not abandonment.
+It is a teachable moment when applied correctly and not to control.
+It is a moment to reset, de-escalate, and connect with assertiveness, love &amp;  guidance, not choas.
+If you’ve thrown it out with the bathwater of ‘gentle parenting,’ you’ve misunderstood its purpose and if you are raising your children with how I've taught you over the last 2 decades with emotional intelligence, healthy boundaries, empathy and to respect your children, you will hardly ever use it. Jo xx
+Note : If you seek education on identifying the different types of 'tantrums' your child expresses and you want to learn how to respond and not react, become more confident, please read my award winning educational book:
+Jo Frost Toddler Rules</t>
         </is>
       </c>
       <c r="I319" t="n">
@@ -43159,11 +44519,7 @@
           <t>Parenting tip: timeouts</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>A woman with long blonde hair, wearing a light blue top, speaks directly to the camera in what appears to be a living room. She is animated and uses hand gestures as she talks. Behind her is a colorful abstract painting on the wall. Text overlays appear on the screen, reinforcing her message about timeouts.</t>
-        </is>
-      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="n">
         <v>1753110044</v>
       </c>
@@ -43295,7 +44651,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>The video shows a group of young children, including a girl in a blue shirt and backpack, walking down a long, narrow, brightly lit hallway, possibly inside an airport or a modern building. The children are walking away from the camera, and the girl in the blue shirt turns around to look at the camera. The video has text overlays that contrast birthday goals from the 1990s with those of today's children. The 1990s goals mentioned are 'Pizza Hut and a slumber party,' while the modern goals are 'a villa in a beach resort, water slides, surfing.' The video is set to upbeat music and has a humorous, nostalgic tone.</t>
+          <t>The glow-up is real… Back in my day, we felt fancy with stuffed crust and matching pajamas. Now these kids out here planning birthdays with concierge service and panoramic ocean views. 😅💅 ➡ Tag someone who remembers the true luxury of a Blockbuster rental and a 2-liter of Sprite. Let's hear your ultimate '90s birthday memory! 🎉📼 nostalgia | parenting | 90skids | birthdayvibes | glowup | funnyparents | millennialmom | memories | childhood | slumberparty | evolution | kidsnowadays | humor | throwback | familyfun | thenandnow | parentinghumor | generationalshift | retrovibes | realtalk #parentinglife #90skid #birthdaythrowback #funnyreels #relatablemoments #momhumor #millennialparent #kidsbirthdayideas #thenvsnow #slumberpartyvibes #90saesthetic #familymemories #throwbackfun #momlifeishard #helicoptertourplease #frompizzatoplanes #funnyvideo #reellife #nostalgicvibes #lifeglowup</t>
         </is>
       </c>
       <c r="I321" t="n">
@@ -43425,7 +44781,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>The video is a humorous compilation of short clips showcasing various parenting scenarios, primarily focusing on children's meltdowns and defiant behavior. It begins with a young boy playfully throwing a ball at his father on a deck. The scene shifts to a toddler having a tantrum in a kitchen, followed by a young boy defiantly dumping a bag of chips on the floor after being told he couldn't eat them. Another clip shows a toddler refusing to sit in a timeout chair on a deck. The compilation also includes a woman speaking directly to the camera, expressing her love for 'gentle parenting' and then showing a toddler throwing food at a parent. The final clip shows a child having a tantrum in an airport. The video uses text overlays to provide context and commentary, such as 'Day 18 of quarantine' and 'When your daughter's attitude came from your husband'.</t>
+          <t>Gentle parenting never works#fyp #kidsoftiktok #gentleparenting#fail#trending</t>
         </is>
       </c>
       <c r="I322" t="n">
@@ -43559,7 +44915,16 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>A woman with long brown hair, wearing a blue and white striped shirt, sits in front of a bookshelf and speaks directly to the camera. She is discussing the ineffectiveness of timeouts as a parenting strategy. As she speaks, pink text overlays appear on the screen, highlighting key phrases from her speech such as 'Why timeouts aren't stopping the unwanted behaviors' and 'Timeouts are not teaching your kids to do better next time.' She uses hand gestures to emphasize her points, explaining that timeouts do not teach children new skills, do not build parent-child bonds, and can make children feel blamed and shamed, leading to more unwanted behavior.</t>
+          <t>Stuck using TIMEOUTS to teach your littles a lesson? 
+😩But it’s not working.. 
+😩The behaviors just keep happening on repeat..
+Here’s why.. They don’t actually TEACH your children anything. They don’t sit in a corner or their bedroom and teach themselves how to behave better next time. 
+🫣They actually just put your child in REVENGE MODE and cause even MORE unwanted behavior. 
+AND they don’t help build your bond and connection with your child…
+Does ANYONE feel good after a timeout? The child or the parent? Probably not. 🤷🏼‍♀️
+What do you do instead? 
+We teach our clients inside The Parenting With Purpose Method how to INCREASES bond and connection, INCREASE listening and cooperation, and DECREASE the tactics that just make the behavior WORSE!
+Link in bio for your next step to easier parenting! @tiaparentingcoach</t>
         </is>
       </c>
       <c r="I323" t="n">
@@ -43695,7 +45060,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>The video shows a group of young people, likely teenagers or young adults, walking through the open door of a train or subway car. They are carrying backpacks and appear to be boarding or alighting from the vehicle. The scene is set in a modern, well-lit train station or on the train itself. The text overlay at the beginning of the video reads, 'POV: You're the child whose parents ask "Where are you?" instead of "How are you?"'. This suggests a humorous take on a common parental concern, where the parent's primary question is about the child's physical location rather than their emotional state.</t>
+          <t>POV Your parents ask, “Where are you?” instead of “How are you?” Like, thanks for caring about my GPS but can we get a little emotional check-in too? 😂. Although I can’t say I blame them since we’re always on the move. 😬 If you’ve ever had this convo (or avoided it), drop a 😂 and tag your parents. family | feelings | mentalhealth | communication | empathy | relationships | emotions | wellbeing | connection | parents | understanding | support | love | growth | mindset | awareness | healing | vulnerability | honesty | selfcare #mentalhealthmatters #familytalks #emotionalwellness #checkinonfriends #parenting #communicationiskey #mindsetshift #selfawareness #relationshipgoals #wellbeing #empathy #vulnerability #growthmindset #mentalhealthsupport #healingjourney #realconversations #feelingsmatter #connection #loveandcare #selfcaretips #yourmother</t>
         </is>
       </c>
       <c r="I324" t="n">
@@ -43829,7 +45194,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>The video is a montage of a family safari experience in Rwanda. It begins with a herd of buffalo in a grassy field, followed by scenes from a safari vehicle showing tourists observing wildlife. The video features various animals including elephants, rhinos, a lion, a crocodile, a hippopotamus, zebras, a giraffe with impalas, and a honeybee. The scenes are interspersed with text overlays like 'They told me it would be unforgettable...' and 'They didn't say I'd never want to leave'. The video concludes with a shot of two brochures for 'Wilderness Magashi Camp' and a final montage of the safari scenes.</t>
+          <t>Three generations. One camp. A safari that gave us more than we ever expected. 🐘🌿 We thought we were coming for the wildlife… but @wildernmess Wilderness Magashi Camp gave us something deeper: shared wonder, quiet connection, and memories we’ll carry for a lifetime. There was something for each of us — from my mom’s quiet joy at sunrise to my child’s wide-eyed awe at every turn. This wasn’t just a safari. It was a reminder of what really matters. 📌 Save this for your future trip — and if you’re dreaming of a safari that welcomes every generation, Magashi is the one. We couldn’t recommend it more. Magashi | Rwanda | safari | familytravel | wildernmess | wilderness | 3generations | bonding | wildlife | adventure | memorymaking | nature | connection | explore | culture | slowtravel | heartfelt | storytelling | luxurycamp | wildbeauty #WildernessMagashi #rwandasafari #wildernmess #familyadventure #generationaltravel #luxurysafari #exploreafrica #multigentravel #meaningfulmoments #travelwithfamily #authentictravel #safariexperience #bucketlisttrip #travelrecommendation #travelwithheart #natureconnection #travelwithkids #unforgettableviews #safarivibes #sharedstories</t>
         </is>
       </c>
       <c r="I325" t="n">
@@ -43963,7 +45328,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>The video is a fast-paced travel montage showcasing various adventure and cultural experiences in Rwanda. It begins with a scene of two people in protective gear observing a large gorilla in a lush green forest, accompanied by text that reads, 'Think Rwanda is just about gorillas?! Think again!'. The montage continues with a giraffe walking across a savanna, a person taking a photo of zebras from a safari vehicle, a woman tracking wild chimpanzees in a dense forest, a person ziplining through a misty, lush forest, and a display of gorilla skeletons at the Ellen DeGeneres Campus. The video concludes with a shot of people relaxing at a luxury tea plantation lodge. The overall theme is to promote Rwanda as a destination with diverse attractions beyond just gorilla trekking.</t>
+          <t>Think Rwanda is just about gorillas?! 🦍 This country is bursting with adventure, beauty, and culture you don’t want to miss: ✔ Chimp trekking in Nyungwe ✔ Zip lining through lush rainforests ✔ The iconic Canopy Walk ✔ Visiting the Ellen DeGeneres Campus at Dian Fossey Gorilla Fund ✔ Traditional safari magic ✔ Staying at a stunning tea plantation 🍃 Rwanda blew my mind — and it’ll blow yours too. 💥 Save this for your next bucket list trip &amp; tag a friend who needs to see the real Rwanda! travel | adventure | Rwanda | gorillas | safari | Africa | nature | chimpanzees | ziplining | canopywalk | culture | wildlife | bucketlist | travelguide | wanderlust | uniqueplaces | exploration | ecotourism | nationalparks | teaplantation #VisitRwanda #RwandaTravel #AfricanAdventure #WildlifeExperience #TravelAfrica #BucketListTrips #SafariExperience #TravelDeeper #EcoTourism #ChimpanzeeTracking #CanopyWalkway #ZipLiningFun #RwandaSafari #HiddenGems #SustainableTravel #ExploreMore #TeaPlantationStay #NatureLovers #RwandaRevealed #TravelBeyondGorillas</t>
         </is>
       </c>
       <c r="I326" t="n">
@@ -44093,7 +45458,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>The video is a travel-themed montage that humorously suggests alternative vacation destinations for a 'CEO' (Chief Exploration Officer) instead of attending a Coldplay concert. It begins with a scene of a woman in an airplane's business class seat, then rapidly cuts to a series of scenic aerial shots of various exotic travel locations. Each location is introduced with a text overlay, including Vilaflor (Spain), Lapland (Finland), South Africa, Maldives, Madagascar, Hawaii, Costa Rica, and French Polynesia. The video uses upbeat music and quick cuts to create a vibrant and aspirational mood.</t>
+          <t>BEST places to go with your CEO (Chief Exploration Officer) instead of a Coldplay concert 🎶✈ Because who needs Fix You when the WiFi is weak and the views are strong? 😎 🌊 Maldives – For when you wanna disappear with your fave human and 47 coconut drinks. 🌺 Sri Lanka – Tea plantations, ancient ruins, and elephants that judge your outfit. 🛵 Vietnam – Pho dates, scooter rides, and views that slap harder than jet lag. 🐾 Madagascar – Real-life Madagascar but with fewer penguins and more lemur selfies. 🌴 French Polynesia – Overwater bungalows that make you question capitalism. 🌋 Hawaii – Volcanoes, shaved ice, and sunsets that feel illegal. 🌿 Costa Rica – Jungle zip-lining = relationship trust test unlocked. 🐘 South Africa – Safari by day, wine by night, wild vibes always. ❄ Lapland – Reindeer rides + Northern Lights = CEO-approved magic. 💼 Tag your favorite Chief Exploration Officer &amp; start planning your escape 🧳 📌 Save this for when Ticketmaster betrays you again 😂 travel | adventure | softlife | CEO | couplesgoals | bucketlist | tropical | vacation | destinations | wanderlust | romantic | explore | luxury | getaway | honeymoon | nature | experience | memories | fun | lifestyle #ceogoals #softlifeseason #travelwithbae #exploremore #romanticgetaway #luxurytravel #bucketlisttrips #wanderlustdaily #travelhumor #adventureawaits #passportready #vacaymood #tropicalescape #laplandmagic #maldivesdreaming #couplesbucketlist #reallifevacay #travelreels #funnytravel #relationshipgoals</t>
         </is>
       </c>
       <c r="I327" t="n">
@@ -44223,7 +45588,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>The video shows a baby gorilla in a lush green forest environment. The gorilla is initially seen from behind, then turns to face the camera. It raises its arms and begins to beat its chest, a behavior often associated with adult gorillas. The video is overlaid with text that reads, 'Ever seen a baby gorilla beat his chest?' followed by 'Wait for it...'. The background consists of dense green foliage, and the overall scene captures a moment of wildlife observation.</t>
+          <t>Ever seen a baby gorilla beat his chest? 🦍✨ After trekking for hours through Rwanda’s stunning forests, witnessing this powerful yet adorable moment was hands down one of the most enchanting experiences I’ve ever had in nature. The journey through lush greenery, the sounds of the wild, and the close encounter with these incredible creatures made every step worth it. If you love adventure and wildlife, Rwanda’s gorilla trekking should be at the top of your bucket list. Ready to explore? Drop a 🌍 in the comments if you want to join this wild experience! adventure | wildlife | gorillas | Rwanda | trekking | nature | conservation | forest | travel | bucketlist | exploration | jungle | animals | ecofriendly | memories | wild | endurance | travelgoals | safari | discovery #gorillatrekking #Rwanda #wildlifephotography #adventuretime #naturelovers #ecotourism #travelbucketlist #junglevibes #conservation #travelgram #wildlifeadventure #exploretheworld #safariadventure #naturephotography #bucketlisttravel #travelinspo #animalencounter #outdoorlife #wanderlust #travelstories</t>
         </is>
       </c>
       <c r="I328" t="n">
@@ -44357,7 +45722,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>The video shows a young boy sitting on the top bunk of a white bunk bed in his room. He is wearing a blue patterned shirt, red pants, and green socks. Initially, he looks around and then begins to sing and dance enthusiastically, gesturing with his hands. The video is presented as a screen recording, with text overlays commenting on his actions, such as 'POV: you're on a mandatory break in your room and realize you're on camera' and 'Immediately goes into song about loving the whole family.' The boy's performance is playful and energetic, and the text overlays suggest he is trying to look good for the camera during what appears to be a time-out. The video ends with the boy still singing and dancing.</t>
+          <t xml:space="preserve">Parenting always comes with unexpected moments.  I was so frustrated with him prior to this and honestly, he saw his cards and played them.  So freaking smart but also hilarious.  He still had to finish his break but I got to listen to some jams about loving our… minus Slugo apparently 😂 #boymom #parenting #kindergarten #timeout #parents #funnymoments </t>
         </is>
       </c>
       <c r="I329" t="n">
@@ -44487,7 +45852,9 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>The video is a compilation of short interviews with various children, all of whom are being asked the question, 'What does a best friend mean to you?'. The children are in different settings, including what appears to be an occupational therapy clinic or a gym, with some sitting on a trampoline, others on a swing, and one climbing a rope ladder. They are all holding a microphone and speaking directly to the camera, sharing their personal definitions of a best friend. The video is presented as a celebration of friendship, likely for an event like National Friends Day.</t>
+          <t>What does a best friend mean to you? 
+We asked ours and here's what they said 🥹
+#occupationaltherapy #friends #friendsday #happykids</t>
         </is>
       </c>
       <c r="I330" t="n">
@@ -44659,7 +46026,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>The video is a humorous social media clip filmed inside an airplane cabin. It begins with a woman and a man walking down the aisle, looking somewhat exasperated. The scene then cuts to show their two children, a boy and a girl, each sitting comfortably in spacious, lie-flat business class seats. The children appear relaxed and happy, with the boy holding headphones and the girl reading a magazine. The text overlay 'When your kids are in business class and you're not' is displayed throughout, highlighting the comedic contrast between the parents' economy-class experience and their children's luxury. The video ends with a shot of the children enjoying their seats, emphasizing the joke.</t>
+          <t>Well, guess who’s in business class now😎 Karma has a sense of humor—and so does Emma 😅✈ Totally joke — we travel in economy or business class together, we stick to one, no one left behind! ❤✈ revenge | familytravel | parentingwin | businessclass | siblings | travel | luxury | humor | bonding | adventure | memories | love | fun | jetset | travelwithkids | paybacktime | lifestyle | travelgram | familygoals | laugh #familytravel #businessclasslife #travelwithkids #parentingwin #jetsetlife #luxurylifestyle #travelreels #siblinggoals #funnyreels #paybacktime #travelvibes #familyfun #airportlife #travelhumor #travelcontent #momlife #dadlife #travelstories #familybonding #travelgram</t>
         </is>
       </c>
       <c r="I331" t="n">
@@ -44789,7 +46156,8 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>The video shows two young twin boys standing on a porch in front of a red door. They are dressed identically in black long-sleeved shirts with red collars, yellow shorts, white socks, and black shoes, and are both wearing blue backpacks. The boys are posing for the camera, smiling, and making playful, synchronized movements like dancing and looking up. An adult male voice can be heard off-camera, telling them to smile and come on. The on-screen text reads, 'It's always that 1 Twin!!' with two laughing emojis, humorously highlighting that one twin is more expressive than the other.</t>
+          <t>It’s Always 1 Twin
+#twins #twin #smile #cheese #family #adorable #toddlers #toddler #cute #joy #happy #happiness #love #YouTube #viralreels #parents #parenting #brother #brothers #siblings #athlete  #dad #daddy #father #memories #childhood #parenting #naturalhair #curlyhair #dance</t>
         </is>
       </c>
       <c r="I332" t="n">
@@ -44917,7 +46285,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>The video is a montage of stunning wildlife photography taken in Africa. It begins with a first-person perspective of a person in a green hat and face mask, holding a camera and filming a group of gorillas in a lush, green forest. The scene then transitions into a rapid slideshow of professionally captured, high-quality photos of various African animals. These include a mother leopard with her cub, a male lion, a rhinoceros, a baby elephant, a herd of antelope, a zebra, a crocodile, a close-up of a gorilla's face, a giraffe, and African wild dogs. The overall theme is the beauty and majesty of African wildlife in their natural habitats.</t>
+          <t>These aren’t just safari photos—they're moments that made my heart pause. 🐘🦁🦒 To stand in the wild, watching these majestic creatures in their natural home—it’s humbling, grounding, and unforgettable. Years of traveling led me here, to the raw, untouched beauty of nature. Which one’s your favorite? Drop the slide number below! 👇 ravel | photography | memories | wanderlust | explore | journey | adventure | moments | beauty | perspective | vibes | globe | culture | escape | nature | experience | camera | storytelling | favorites | magic #travelphotography #whatiseevswhatcamera #travelmoments #wanderlustdaily #exploremore #aroundtheworld #capturedmoments #vacayvibes #travelshots #passportlife #travelpics #visualdiary #travelcaptures #globetrotterlife #adventuretime #lifewelltraveled #travellove #pictureperfect #memorylane #travelgram</t>
         </is>
       </c>
       <c r="I333" t="n">
@@ -45047,7 +46415,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>A young boy is sitting in a luxurious airplane seat, likely in business or first class. A flight attendant in a red hat and uniform approaches him with a tray of drinks. The boy is handed a glass of orange juice and a glass of water. The boy smiles and appears to be enjoying the service. The video is accompanied by a pop song and has text overlayed on the screen.</t>
+          <t>Just leaving this here as evidence 😎 👇 Parents, back me up — we’re out here giving core memories for free! 🎯 Tag a parent who needs to document the “rough childhood” too — and save this for your receipts folder! parenting | momlife | dadlife | childhoodmemories | familyfun | parenthumor | travelwithkids | funnyreels | modernparenting | photodump | familytime | humor | kidsbeingkids | memories | childhoodunplugged | familyvibes | parentinglife | vacationmode | growingup | realparenting #parentinghumor #momlife #dadlife #familymemories #funnyreels #reallifeparenting #familytravel #kidsoftiktok #relatableparenting #modernmom #raisingkids #corememories #parentlife #familyfun #travelwithkids #childhoodmemories #honestparenting #parenthood #funnyvideos #reelmoments</t>
         </is>
       </c>
       <c r="I334" t="n">
@@ -45177,7 +46545,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>The video shows four young women in matching green shirts and black shorts standing together on a paved path next to a chain-link fence on a sunny day. They are all smiling and laughing. The woman in the foreground, wearing sunglasses, is speaking and gesturing with her hands. The other three women are looking at her and reacting with amusement. The text overlay on the video reads, 'when the kids start calling us start unc, chopped, chuzz'.</t>
+          <t>30 minute time out incoming…</t>
         </is>
       </c>
       <c r="I335" t="n">
@@ -45307,7 +46675,8 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>The video features two young twin boys having a conversation while sitting on a bed. One boy, wearing a blue Superman t-shirt, accuses the other, in a white Apollo t-shirt, of taking a toy jeep from him. The boy in the white shirt denies it, claiming he found it on a Range Rover. The boy in the blue shirt then accuses him of starting a 'fussing' match. The interaction escalates playfully, with the boy in the blue shirt jumping on the bed and tackling his twin, who laughs. The scene ends with the boy in the blue shirt playfully wrestling his twin on the floor, with text overlaying the scene.</t>
+          <t>Twin Treat Me How a you Want 2 be Treated 
+#love #wins #treat #toddlers #joy #communication #family #mischief #parenting #positiveparenting #smile #onion #story #adorable #kids #cute #problemsolving #curlyhair #natural #fro #baby #parents #lesson #happiness #YouTube #toy #share #comedy #drama #hugs</t>
         </is>
       </c>
       <c r="I336" t="n">
@@ -45452,7 +46821,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>The video is a response to a viewer's comment asking about the difference between a 'time out' and a 'calm down corner'. The creator, a man, explains that the traditional 'time out' he experienced as a child involved being isolated in a corner with no interaction or explanation. He contrasts this with the modern 'calm down corner' or 'time in', where parents sit with their children to help them process their emotions. He then shows several posters he uses in his home, including a 'Feelings Thermometer', a list of 'Emotions', 'Breathing Exercises', and affirmations. The video concludes with a scene of him sitting on a couch with a young child, talking to her and helping her calm down, demonstrating the 'time in' approach.</t>
+          <t xml:space="preserve">Replying to @BrrrMrrr things have changed a bit from the times of time outs #calmdowncorner #timeout #parenting #preschool #toddlers </t>
         </is>
       </c>
       <c r="I337" t="n">
@@ -45586,7 +46955,8 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>The video is a personal vlog featuring a man speaking directly to the camera from inside a car. He shares that he is turning 44 and has not seen his sons in 359 days. He explains that he went to court to protect them from abuse, but his videos were deemed child exploitation, and he was labeled unfit. The video then cuts to footage of his two young twin sons playing together on a sidewalk in a suburban neighborhood. They are seen laughing, hugging, holding hands, and running. The man's shirt has a logo for 'The Hurt Fathers Adv Corp.' The video is overlaid with the text 'Love Conquers All 💞' and various hashtags related to parenting, family, and love.</t>
+          <t>Love Conquers All 💞
+#twins #love #twin #falldown #oinion #hug #smile #hurt #cry #joy #story #God #parents #parenting #toddler #toddlerfashion #fashion #dad #daddy #YouTube #parenting #giving #kids #emotional #emotionalintelligence #family #vlog #familyvlog #support #postiveparenting #baby</t>
         </is>
       </c>
       <c r="I338" t="n">
@@ -45714,7 +47084,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>The video features a woman, identified as Rachael-The Considerate Momma, discussing her parenting philosophy on timeouts. She begins by showing a scene of herself calmly holding her child, emphasizing connection and communication. She then transitions to a kitchen setting where she speaks directly to the camera, explaining that her approach is a combination of a 'time out' (a place for the child to be alone) and a 'time in' (a time for conversation and connection). She argues that traditional timeouts are ineffective for young children because their brains, particularly the prefrontal cortex responsible for self-regulation, are not fully developed until around age 8. She promotes an alternative method that focuses on building emotional intelligence and self-regulation skills, showing a product called a 'Calm Down Corner' kit that she uses with her children. The video includes text overlays summarizing her points and displays positive customer reviews.</t>
+          <t xml:space="preserve">🌟Timeout Alternative🌟 that builds emotional intelligence, self-regulation &amp; conflict resolution skills + teaches children how to correct their own behavior. 🎥 @Libby </t>
         </is>
       </c>
       <c r="I339" t="n">
@@ -45852,7 +47222,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>The video shows a woman and her mother sitting in the business class cabin of an airplane. The daughter asks her mother how long the flight is. The mother replies that it is about 15 hours. The daughter then expresses relief, saying, "Oh, that's not bad," and thanks Singapore Airlines. The scene is set in a luxurious, spacious airplane seat with a pillow and blanket, suggesting a comfortable long-haul flight.</t>
+          <t>No problem when comfort is this good. ✈💼. It actually leaves you wishing the flight was longer!  #iykyk Shoutout to Singapore Airlines for turning a 15-hour journey into a smooth, luxurious experience. 🙌 📌 Tag your travel buddy and start planning your next big trip today. travel | luxury | businessclass | comfort | aviation | singaporeairlines | lifestyle | experience | wanderlust | globetrotter | premiumtravel | bucketlist | journey | flightlife | travelgoals | worldtraveler | airliner | smoothride | elegance | longhaul #travelgram #businessclasslife #singaporeairlines #luxurytravel #frequentflyer #aviationdaily #travellifestyle #globetrotter #travelmore #travelcomfort #airplanemode #wanderlustlife #premiumexperience #jetsetter #longhaulflight #flyinginstyle #airlineexperience #bucketlisttravel #flybetter #traveldiaries</t>
         </is>
       </c>
       <c r="I340" t="n">
@@ -45989,7 +47359,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>A woman with curly hair is sitting on the floor in a bedroom, filming herself with a phone. She is talking directly to the camera, explaining that it's day five of solo parenting and that she has put herself in timeout. She says her kids left her alone and went to set a timer for her. She appears to be sharing a humorous anecdote about her parenting experience. A ceiling fan is spinning above her, and a white door is visible in the background.</t>
+          <t xml:space="preserve">remember how on day 3 I posted a video about how good i was doing? 😭😂 day 4 and 5 HUMBLED ME QUICK. 17 more to go 😅 #parenting #timeout #soloparenting #sahm #blacksahm </t>
         </is>
       </c>
       <c r="I341" t="n">
@@ -46123,7 +47493,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>A man with a shaved head and a light blue t-shirt is sitting on a couch and talking to the camera. He is smiling and laughing. He holds up a small, fluffy, light-colored dog. He is talking about the dog, which he refers to as 'he,' and says that it is in 'time out' for nipping at another dog's tail.</t>
+          <t xml:space="preserve">@Life With Bianca Marie🌸 Now that is some good parenting! He just needed a moment to reflect on his actions! #fish #timeout #good #parenting #petsoftiktok </t>
         </is>
       </c>
       <c r="I342" t="n">
@@ -46253,7 +47623,8 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>A man, identified as David Coleman, a clinical psychologist, speaks directly to the camera in a home office setting. He is wearing a blue t-shirt and is positioned in front of a large black microphone. The background features a wooden paneled ceiling and a white bookshelf. He addresses a common parenting challenge: a 12-year-old child who is no longer listening to advice. He explains that this is a normal phase of adolescence where children seek independence. He suggests that instead of giving direct advice, parents should ask their children if they want to hear their ideas, framing it as an invitation rather than a command. He also advises parents to be aware that even if their child chooses not to listen, it's not a license for them to fix the child's problems, and they should be ready to support them if needed.</t>
+          <t>Q&amp;A What to when your 12 year old stops listening to you and won’t take your advice…
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #advice #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I343" t="n">
@@ -46385,7 +47756,16 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>A woman, identified as a child psychologist, sits in a white chair against a solid blue background and speaks directly to the camera. She is wearing a cream-colored, tiered blouse and matching pants. She uses hand gestures as she explains the proper use of time-outs for children. Text overlays appear on the screen, highlighting key phrases from her speech such as 'Do time-outs work?', 'if they are implemented as they were designed to be implemented', and 'Time-outs are time limited.' She discusses the intended purpose of time-outs, which is to ensure a child's safety during specific behaviors like aggression or destruction of property, and emphasizes that they should be short (no more than five minutes), free of distractions, and not used as a 'cool-down' period. She also states that the consequence is over when the time is up and the child should be allowed to re-engage in appropriate behaviors.</t>
+          <t>Do time-outs actually work? Child psychologist Dr. Kristin Carothers explains when they help — and when they don’t.
+Questions about learning and thinking differences? Get answers and expert-vetted resources by asking the AI-powered Understood Assistant:
+https://www.understood.org/en/assistant?utm_medium=organic&amp;utm_source=youtube&amp;utm_campaign=assistant-agn-prod&amp;utm_content=video
+Understood is a nonprofit organization dedicated to empowering people with learning and thinking differences, like ADHD and dyslexia. If you want to help us continue this work, donate at https://understood.org/give. 
+For more resources, support, and excellent memes, subscribe to our YouTube channel or follow us on:
+Instagram: https://www.instagram.com/understoodorg/
+Facebook: https://www.facebook.com/Understood/
+TikTok: https://www.tiktok.com/@understood.org
+Pinterest: https://www.pinterest.com/understoodorg/
+ #ParentingTools #DisciplineTips #TimeOuts #MomLife #Discipline</t>
         </is>
       </c>
       <c r="I344" t="n">
@@ -46523,7 +47903,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>The video displays a large, custom-built, blue and black sound system. The system consists of a subwoofer cabinet with two large woofers at the base, a smaller amplifier or crossover unit in the middle, and a three-box line array stack on top. The entire setup is stationary and appears to be in a room with a tiled floor and a plain wall. The video is a static shot of the equipment, likely intended to showcase its design and size.</t>
+          <t xml:space="preserve">Paket 8 inc harga 1 650 Ruedy tidak perlu po pemesanan wa ada di bio#horegmania_official #soundviral #horegjawatimur #horeg #miniatursoundsystem </t>
         </is>
       </c>
       <c r="I345" t="n">
@@ -46657,7 +48037,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>The video shows two young girls, aged 4 and 6, on a business class flight. The first girl, wearing headphones, smiles and holds up a water bottle. The second girl, wearing a blue baseball cap, sits in a spacious seat, smiling and waving at the camera. The on-screen text explains that while the children may not remember the trip, the parent will never forget their joyful reaction to receiving free airline accessories. The overall scene is one of a happy family vacation.</t>
+          <t>It’s not just about the destination—it’s about the little moments that stay in our hearts forever. 💛 What’s one unforgettable travel memory you’ll always hold close? Share it in the comments! 🌍👇 travel | family | memories | journey | adventure | wanderlust | kids | happiness | experience | vacation | joy | moments | together | trip | explore | lifestyle | gratitude | love | connection | inspiration #familytravel #travelmemories #wanderlustfamily #joyfulmoments #adventurewithkids #vacationvibes #makingmemories #travelwithfamily #happytravels #exploretheworld #travelgram #familylove #travelinspo #unforgettablemoments #kidstraveltoo #traveljoy #familybonding #adventuretime #traveladdict #cherisheverymoment</t>
         </is>
       </c>
       <c r="I346" t="n">
@@ -46791,7 +48171,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>A man is sitting in a folding chair on a wooden dock at night. He leans back to relax, but the chair tips over backwards, causing him to fall into the water with a large splash. The video is presented as a humorous fail.</t>
+          <t>Sit back, relax, and enjoy some dock water...  😩 🤣 #lake #lakelife #dock #brofail #fail</t>
         </is>
       </c>
       <c r="I347" t="n">
@@ -46921,7 +48301,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>The video displays a detailed, blocky model of a red Ferrari Formula 1 car, constructed in the style of the video game Minecraft. The camera pans around the vehicle, showcasing its intricate design, including the chassis, wheels, and aerodynamic components, all built from colorful blocks on a flat, grassy plain.</t>
+          <t xml:space="preserve">F1 Ferrari car | Minecraft #minecraft #vanilla #build #f1 #ferrari </t>
         </is>
       </c>
       <c r="I348" t="n">
@@ -47051,7 +48431,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>A woman is sitting at a table, holding a large chocolate-filled biscuit in one hand and a cup of tea in the other. She appears excited and is talking about the biscuit, showing it to the camera from different angles. She breaks the biscuit in half to reveal the chocolate filling and continues to talk about it while occasionally taking bites. The setting appears to be a casual indoor environment, possibly a kitchen or dining area.</t>
+          <t>Taste testing Morrisons new giant bourbon biscuit  ##newin##fyp##snacktok##parenting##timeout</t>
         </is>
       </c>
       <c r="I349" t="n">
@@ -47177,7 +48557,8 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in what appears to be his office. He is addressing a question from a parent about their daughter who is talking to AI characters and claims to have an AI boyfriend. He advises the parent to engage with their daughter in a curious and non-judgmental way to understand her experience, rather than ridiculing her. He suggests having an open conversation about what AI is and encouraging her to spend more time with real people. The video is a Q&amp;A session, likely for a social media platform.</t>
+          <t>Q&amp;A How do I get my daughter to stop talking to AI characters? Thanks to everyone who submitted questions. This one seems particularly timely and wouldn’t (couldn’t??) have been asked 2 years ago. 
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #AI #tipsparenting #parentinglife #dad #familytime #aichatbots #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I350" t="n">
@@ -47301,7 +48682,9 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>The video begins with a young child sitting in a small pink chair on a wooden deck, appearing to be in distress and crying. An adult in a red tracksuit is partially visible. The scene then cuts to a woman with short brown hair, wearing a white blouse, speaking directly to the camera from an indoor setting. She is explaining why timeouts are often ineffective as a parenting tool, emphasizing that the timing is crucial and that using a timeout after an argument or negotiation is too late for the child to learn. She suggests that consequences should be immediate and calm, and that the child's brain learns through patterns. The video uses on-screen text to highlight key points of her message.</t>
+          <t>Does timeout not work for your child? You’re not failing - the method is. Here’s why timeouts don’t work and what you can do instead to truly reach your child. 
+Follow for more proven parenting strategies that actually work. 
+#Parenting #DeborahTillman #PurposedParenting #ParentingTools #ParentingTipsThatWork  #ParentingCoach #ParentingHelp</t>
         </is>
       </c>
       <c r="I351" t="n">
@@ -47435,7 +48818,11 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>The video depicts a humorous family scene. A young boy is standing with his back to the camera, facing a wall at the bottom of a staircase, as if in time-out. A woman, presumably his mother, walks past him and tells him he is in time-out. A man, presumably his father, then walks down the stairs, holding a PlayStation 5 controller. He tells the boy it's okay and that he can play his game. The boy is visibly excited and happy. The father then turns around and walks back up the stairs, and the boy follows him. The father then stands with his back to the camera, facing the wall, and the boy stands beside him, also facing the wall. The father then says he got an hour, implying he is now in time-out as well.</t>
+          <t>Mom put Ben in time out… but then Dad let him leave to play his game 🤦‍♂️😂 Somehow Dad ended up in time out TOO!
+Who do you think deserved it more — Ben or Dad?
+👉 Comment below: What’s the last thing YOU did that put you in time out?
+Don’t forget to LIKE 👍, SUBSCRIBE 🔔, and join the fun with our family every week!
+😂 #FamilyFun #TimeOut #theicefamily</t>
         </is>
       </c>
       <c r="I352" t="n">
@@ -47561,7 +48948,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>The video shows two men, one older and one younger, crouching on a patio. The older man, wearing a backwards cap and glasses, holds a garden hose from which water is flowing. He speaks to the younger man, gesturing with his free hand. The younger man listens and then responds. The older man then brings the stream of water to his mouth and pretends to drink it. The text overlay reads 'POV: teaching them the ways of the 90s'.</t>
+          <t>Dads in the 90s #90skids #67kid #oraltraditions #parenting #dadsoftiktok #funny</t>
         </is>
       </c>
       <c r="I353" t="n">
@@ -47685,7 +49072,28 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>The video shows a woman sitting on a pebble beach, looking out at the sea. She is wearing a bright orange top and blue shorts. The camera pans around her, showing the vast, empty beach and the ocean waves crashing on the shore. Text overlays appear on the screen, describing the weather as chilly and windy but noting that the sun is shining and they have the beach to themselves. The woman is later seen standing and walking along the beach. The overall scene is serene and peaceful, with the sound of the waves in the background.</t>
+          <t>We were at the same beach 2 weeks ago and it was aw so busy you could barely find a place to sit. It was such a treat having the whole beach to ourselves ❤️🌊
+#beachlife 
+#outdoorliving 
+#autumnvibes🍁 
+#listeningtothewaves 
+#oceancalm 
+#meditative 
+#calmyourmind 
+#englishbeaches 
+#characterbuilding
+#icebath 
+#icebaths 
+#mumlifeuk 
+#homeeduk 
+#homeeducationuk 
+#homeedlife 
+#homeeducators 
+#holidays 
+#holiday 
+#devon 
+#autumnactivities 
+#tuesdaythoughts</t>
         </is>
       </c>
       <c r="I354" t="n">
@@ -47810,7 +49218,8 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in a home office setting, addressing a viewer's question about their three-year-old daughter who only wants to be helped by her mother and refuses her father's assistance. He explains that this is a common phase for children and advises parents to build a connection with the disfavored parent by involving them in activities the child enjoys, such as chores or bedtime routines, to encourage bonding.</t>
+          <t>Q&amp;A what can you do if your toddler only wants one parent and shuns the other?
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #parentingadvice</t>
         </is>
       </c>
       <c r="I355" t="n">
@@ -47938,7 +49347,8 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>A bald man in a pink t-shirt, identified as David Coleman, a clinical psychologist, speaks directly into a large black microphone. He is in a room with a slanted wooden ceiling. He is answering a viewer's question about how to discipline a two-year-old child for hitting her younger sister. He explains that 'discipline' might not be the right word and suggests intervening physically to stop the hitting, removing the child from the situation, and then talking to her about her feelings, such as jealousy or frustration, that might be causing the behavior.</t>
+          <t>Q&amp;A How do you discipline a 2 year old for hitting her little sister?
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I356" t="n">
@@ -48070,7 +49480,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>A woman, identified as Melissa, a teacher with experience since the early 90s, speaks directly to the camera in what appears to be a classroom or office. She is giving advice on how to handle parents who are angry about their child being placed in a timeout. She explains that the key is to calmly state the purpose of a timeout, which is not punishment but a 'short break to reset' to help a child learn self-regulation. She suggests reframing the conversation to reassure parents and invite them to collaborate on strategies that work both at school and at home, emphasizing that they are on the same team.</t>
+          <t>when parents are against timeouts, use these strategies to explain their purpose</t>
         </is>
       </c>
       <c r="I357" t="n">
@@ -48198,7 +49608,8 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>A clinical psychologist named David Coleman is speaking directly to the camera in what appears to be a home office. He is addressing a question from a viewer about how to stop their 12-year-old child from swearing frequently. He suggests understanding the context of the swearing—whether it's to get a reaction, to fit in with peers, or if it's become an unconscious habit. He advises parents to give a consistent and firm message that such language is not acceptable in the home, and to calmly comment on the swearing every time it happens without getting angry, so the child realizes it's not getting a reaction.</t>
+          <t>Q&amp;A. How do you stop a 12-year-old swearing all the time?
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #swearing #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I358" t="n">
@@ -48330,7 +49741,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>A woman, identified as Melissa, a teacher, speaks directly to the camera in what appears to be a classroom or office. She is giving advice on how to handle parents who are angry about giving their child a timeout. She suggests starting the conversation by calmly explaining the purpose of a timeout, emphasizing that it is not about punishment but about teaching self-regulation and giving the child a break to reset. She advises teachers to reframe the conversation as a collaborative effort with parents to help the child succeed, using kind words and focusing on shared goals.</t>
+          <t>when parents are against timeouts, use these strategies to explain their purpose</t>
         </is>
       </c>
       <c r="I359" t="n">
@@ -48464,7 +49875,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>A young boy is sitting on a small, green and white chair, facing a closed white door in a room. He is in a timeout position. A potted plant is visible next to him. In the foreground, there is a blue and white children's table and chair. Text is overlaid on the video, stating, 'Let's normalize Gentle parenting FIRST then if that doesn't work Chancia time !'. The audio consists of a simple, repetitive melody played on a keyboard.</t>
+          <t xml:space="preserve">What would you do if your kid said I hate you ? I gentle parent first and if that doesn’t work best believe I will be spanking his butt next 😆  #gentleparenting #timeout #creatorsearchinsights #SEO #fyp </t>
         </is>
       </c>
       <c r="I360" t="n">
@@ -48590,7 +50001,8 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>A bald man, identified as David Coleman, a clinical psychologist, speaks directly into a microphone in what appears to be a home office. He is wearing an orange sweater and is addressing a question from a viewer about how to handle their 10-year-old son who acts sassy and rude when his friends are around. The psychologist explains that this behavior is likely a performance for his friends and suggests a strategy of addressing the behavior privately rather than publicly. He recommends taking the child aside after the event to discuss the inappropriate words and to talk to him about the fact that he only acts that way around his friends.</t>
+          <t>Q&amp;A responding to a 10-year-old who is sassy and rude to you in front of his friends…
+#davidcoleman #drdavidcoleman #psychology #positiveparenting #emotions #teenagers #parent #parenting #motherhood #momlife #kids #family #parenthood #parentingtips  #parents #children #mom #dadlife #fatherhood #mumlife #toddler #tipsparenting #parentinglife #dad #familytime #toddlerlife #mentalhealth #adolescence #parentingadvice</t>
         </is>
       </c>
       <c r="I361" t="n">
@@ -48722,7 +50134,23 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>A woman, identified as Lisa Bunnage from 'BratBusters Parenting', speaks directly to the camera in what appears to be a home setting. She is discussing parenting strategies and alternatives to the traditional 'time-out' method. Text overlays appear on the screen, reinforcing her points about using 'consistent corrective actions' for toddlers and a 'behavior board' for children aged three and above. She explains that for toddlers, if they misbehave, you say 'no' and remove them from the fun. For older children, you establish a rule and two consequences, such as doing a chore or a media blackout. The video is an educational piece on parenting techniques.</t>
+          <t>Learn more at https://www.bratbusters.com
+Courses &amp; Resources:
+➡️ Toddler BratBusters Bootcamp (16-35 Months Old) https://bratbusters.podia.com/toddler-bootcamp 
+➡️ BratBusters Bootcamp (3-12 Years Old) https://bratbusters.podia.com/126b3bf6-b5aa-4088-a040-0bb54beb82c8  
+➡️ Private Coaching https://bratbusters.com/coaching/  
+➡️ Get Your Behaviour Board Now https://bratbusters.podia.com/behaviour-board
+About BratBusters Parenting:
+I’m Lisa Bunnage, a mother, grandmother, and parenting coach. If you’re a parent who wants to get mutual respect with your children, and learn how to become a calm leader, this is the place for you. 
+Let’s Connect: 
+Instagram: https://www.instagram.com/bratbustersparenting/?hl=en  
+TikTok: https://www.tiktok.com/@bratbustersparenting?lang=en  
+YouTube: https://www.youtube.com/@BratBustersParenting  
+Facebook: https://www.facebook.com/BratBustersParenting 
+Website: https://bratbusters.com/  
+Disclaimer: 
+I am a parenting coach and a mom. I am not a licensed psychologist or counsellor. My services do not replace the care of psychologists or other healthcare professionals. Coaching is in no way to be construed or substituted as psychological counselling or any other type of therapy or medical advice.
+Please read full disclaimer here https://bratbusters.com/disclaimer/</t>
         </is>
       </c>
       <c r="I362" t="n">
@@ -48856,7 +50284,8 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>The video features two young, identical twin boys standing on the front porch of a house with a red door and a Christmas wreath. They are dressed in matching outfits: black leather jackets with grey fur collars, grey hoodies with the text 'COOLER VERSION OF DAD', and camouflage pants. The boys are engaged in a playful argument, seemingly about who is responsible for a mischievous act. One boy blames the other, who then deflects the blame by claiming he was told to do it by someone else. The conversation is presented with on-screen text that reads 'Adorable Twins Being Mischievous' and includes subtitles for their dialogue. The overall scene is lighthearted and humorous.</t>
+          <t>Adorable Twins Being Mischievous 
+#mischevious #twins #mischief #timeout #trouble #smile #lesson #parents #parenting #kids #funny #grandma #grandparents #curlyhair #naturalhair #youtube #viralreeĺs #love #adorable #twin #repost #emotional #joy #talentagent #celebrity #athlete #childhoodmemories #childhood #church #daddy</t>
         </is>
       </c>
       <c r="I363" t="n">
@@ -49000,7 +50429,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>The video is a commentary by a man in blue scrubs, identified as Dr. Abdi, a pediatrician. He is reviewing a viral TikTok video about a child being put in timeout. The embedded TikTok video shows a young girl being told to stand in a corner by her mother, and then her father questioning the mother about the punishment. The pediatrician discusses the situation, expressing his disapproval of the timeout method used in the video.</t>
+          <t xml:space="preserve">Don't Move From There, You are in the TIMEOUT #BABY #Parenting #drabdi #Pediatrician #ድሬዳዋ </t>
         </is>
       </c>
       <c r="I364" t="n">
@@ -49138,7 +50567,11 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>A woman with short, lavender-colored hair and glasses speaks directly to the camera in what appears to be a home office. She is wearing a white sleeveless top with black trim. Throughout the video, she uses expressive hand gestures and facial expressions to emphasize her points. Text overlays appear on the screen, including the name of her brand 'The Empowered Parent' at the top, a promotional banner for a 'Cooperation Toolkit' at the top, and subtitles of her speech in the middle. The background shows a room with a desk, a chair, and framed certificates on the wall. The video concludes with a promotional slide for her 'Cooperation Toolkit'.</t>
+          <t>Let’s be real. Timeouts don’t teach kids anything except how to shove their big feelings down so they don’t upset us. Ouch, right? 😬
+Your child doesn’t need isolation when they’re melting down, they need your calm leadership and co-regulation. That’s how they actually build the skills to handle big emotions.
+If you’re ready to ditch the timeout cycle but don’t know what to do instead, my Cooperation Toolkit will give you the exact strategies to move from power struggles → to connection → to natural cooperation (no bribes, yelling, or punishment needed 🙌).
+👉 https://theempoweredparent.thrivecart.com/cooperation-kickstart-toolkit/ or Click 🔗in my bio!
+#respectfulparenting #gentleparentingtips #parentcoach #timeoutalternatives #positiveparenting #millennialmomlife #consciousparenting #ParentingCoach #GentleParenting #PeacefulParenting #mindfulparenting #cyclebreaker #parentcoach</t>
         </is>
       </c>
       <c r="I365" t="n">
@@ -49276,7 +50709,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>A man, identified as Tony from 'Growing Dad', is speaking directly to the camera in what appears to be a home office or playroom. He is responding to a comment about 'gentle parenting' and the use of a 'time-out corner'. He explains that he doesn't use time-outs for minor issues that cause big feelings, like a child's blocks falling or being asked to brush their teeth. He states that when his child is upset, he takes them to a 'calm down corner' to process their emotions together, using deep breaths. He clarifies that he only uses time-outs for serious boundary issues, like not listening. He concludes by saying he has left posters and a link about this topic.</t>
+          <t xml:space="preserve">Replying to @malislittlelife we can save punishments for things that need punishments #parenting #calmdowncorner #timeout #tantrums </t>
         </is>
       </c>
       <c r="I366" t="n">
@@ -49410,7 +50843,8 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>A woman with a filter that makes her eyes appear unnaturally large is holding a cup of coffee. She is looking at the camera and making various facial expressions, including smiling, frowning, and looking confused. She is also gesturing with her hand. The text overlay on the video reads 'POV Every conversation with my pre teen'.</t>
+          <t>Get to the point son. 
+#spititout #parenting #preteen #relatable #momhumor #funny #viral #momlife</t>
         </is>
       </c>
       <c r="I367" t="n">
@@ -49542,7 +50976,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>A young woman with blonde hair, wearing a white t-shirt, is speaking directly to the camera in a close-up shot. She is asking her audience a question about the age at which people start using time-outs as a parenting strategy. She gestures with her hand as she speaks. The background is a room with a dark curtain. The video has text overlay that reads, 'Okay but what age did you start doing time outs if you even do them at all??? genuinely am wondering what the consensus is on this'.</t>
+          <t xml:space="preserve">What’s the consensus?? #momtok#timeout#foryou#parenting  </t>
         </is>
       </c>
       <c r="I368" t="n">
@@ -49672,7 +51106,8 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>A young child is standing in a corner of a room with their hands on the wall, facing away from the camera. A woman, presumably the mother, walks past and tells the child they are in time out. The child then turns to face the wall. A man, presumably the father, enters the room with a dog and speaks to the child, asking how long they have been in time out. The child replies '20 minutes'. The man then asks how they got a whole hour, and the child replies 'Bruh'. The man then walks away.</t>
+          <t>That’s what he gets for not minding his business😂 
+#couples #family #mom #dad #antxana</t>
         </is>
       </c>
       <c r="I369" t="n">
@@ -49810,7 +51245,11 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>The video is an educational episode titled 'Are Time-Outs Effective?' from a series called 'Positive Behavior Support 101'. The visual is a static slide with a dark blue background. At the top, the title 'ARE TIME-OUTS EFFECTIVE?' is displayed in large, white, handwritten-style font. Below the title is a white box with the heading 'Extinguish'. Inside this box, a bulleted list details strategies for extinguishing problem behaviors, including 'Do not allow the problem behavior to be reinforced so that it weakens over time', 'Don't acknowledge/ignore', 'Visual cues- eye contact, no affect', 'Physical cues- turn back, continue activity', 'Time outs', and 'Don't make up by saving dessert, etc.'. At the bottom of the slide, 'EPISODE #7' is written in the same white font. The speaker, Jill Anne Castle, explains that time-outs can be effective if used for the correct function, but warns that giving a child a time-out to escape work is actually rewarding the behavior and will make it more likely to happen again.</t>
+          <t>(Episode 7) Positive Behavior Support  101
+Listen here:
+https://www.youtube.com/watch?v=kp6DO3StVho&amp;feature=youtu.be
+Or available on all podcast platforms "Talks Too Much" with Jill Anne Castle
+#parenting  #parentingadvice  #parentingtips #parenthood #parentingsupport #parentingjourney #behaviorissues #behaviorsolutions #positivebehavior #specialneeds #rarediseases #problembehavior #timeout</t>
         </is>
       </c>
       <c r="I370" t="n">
@@ -49946,7 +51385,8 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>A young man with short brown hair and a grey Henley shirt is speaking directly to the camera in a room with a large wooden bookshelf behind him. He is discussing his past experiences with the parenting strategy of 'time out'. He explains that he once believed it was a 'natural consequence' for a 'troublesome kid' and that he is still learning about it. He then presents a different perspective, arguing that putting a child in time out removes them from the 'safest person in their life' and that this is 'not helpful'. He suggests that a better approach is to 'figure out a different way of doing that' and to 'show them how to cope' and 'use their emotions'. Throughout the video, text overlays appear on the screen, highlighting key phrases from his speech. The OpusClip logo is visible in the top left corner.</t>
+          <t>Watch the rest of the video here: https://youtu.be/v05NYg1gJ2c
+#psycology  #parenting #trauma #children#parenting #discipline #kids #children</t>
         </is>
       </c>
       <c r="I371" t="n">
@@ -50082,7 +51522,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>A young man with glasses is singing into a black microphone. He is wearing a black collared shirt. The background is a room with a white door and a brick wall. The text overlay at the top of the screen reads, 'If Hugh Jackman covered Paparazzi'. The man is performing a parody of Lady Gaga's song 'Paparazzi', incorporating lyrics and themes related to Hugh Jackman.</t>
+          <t xml:space="preserve">#gaga #hughjackman #impression @ladygaga #parody </t>
         </is>
       </c>
       <c r="I372" t="n">
@@ -50214,11 +51654,7 @@
           <t>#original #art #sketch #draw #tablet #toys #timeout #parenting #manga #viral #timelapse #monster #$</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>The video shows a time-lapse of a person drawing a cartoonish, muscular monster on a white sheet of paper. The artist uses a yellow pencil to sketch the outline of the creature's head, body, arms, and legs. They then add details like eyes, a nose, and a wide, toothy mouth. The artist uses a blue pencil to add shading and texture, particularly on the creature's arms and body, to give it a more defined and three-dimensional appearance. The drawing progresses from a simple outline to a more detailed and shaded character.</t>
-        </is>
-      </c>
+      <c r="H373" t="inlineStr"/>
       <c r="I373" t="n">
         <v>1759157705</v>
       </c>
@@ -50342,7 +51778,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>An older Black woman, wearing blue and white patterned pajamas, is sitting on a couch and talking animatedly. A young Black boy is sitting on her lap, looking at the camera. The woman appears to be recounting a story, gesturing with her hands and changing her facial expressions. In the foreground, there is a crocheted orange pumpkin decoration. The text overlay on the video reads, 'She always taking up for him.'</t>
+          <t>Kaylon got mad because I put him in time out… Ran and told grandma now she feels she has to straighten me…. #fyp #greatgrandmother #timeout #soloparenting #softparenting</t>
         </is>
       </c>
       <c r="I374" t="n">
@@ -50478,7 +51914,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>The video features a woman, Chels, in her home, discussing her parenting approach. She begins by stating her intention to use a 'spanking' and a '3 minute timeout' on her child, Brody, who is screaming. However, she then explains that she changed her mind. She describes how Brody ran away, seemingly to get attention, and she decided not to chase him or punish him. Instead, she turned around, invited him back, and offered a 'positive activity.' The video then cuts to her holding Brody, who is now calm and happy. She concludes by emphasizing that parenting doesn't always have to end in a stressed-out parent and a crying child, and that children have big emotions that should be guided through positive behaviors.</t>
+          <t xml:space="preserve">Controversial topic, but i think it’s important #parenting #spanking #timeout #positveenergy #redirection </t>
         </is>
       </c>
       <c r="I375" t="n">
@@ -50614,11 +52050,7 @@
           <t>Time Out! 🙋‍♀️| #shorts #timeout #momlife</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>The video is a compilation of short clips from the TV show 'Friends,' featuring the characters Monica, Chandler, and their young son, Cooper. The scenes depict a typical family interaction where Chandler is trying to have a conversation with Monica, but their son Cooper is being disruptive. Monica expresses her frustration, and Chandler suggests a 'time out' for Cooper. The video uses these clips to humorously illustrate the challenges of parenting and the concept of a 'time out' for children.</t>
-        </is>
-      </c>
+      <c r="H376" t="inlineStr"/>
       <c r="I376" t="n">
         <v>1759546500</v>
       </c>
@@ -50748,7 +52180,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>The video is a point-of-view (POV) vlog-style clip from the day after a live show. It features a woman, identified as Snooki, in a hotel room. The video shows her in a relaxed state, with scenes of her on a bed, a suitcase being packed, and food and drinks from a meal laid out on a table and on the bed. The overall theme is a candid look at her post-event downtime.</t>
+          <t xml:space="preserve">That was fun </t>
         </is>
       </c>
       <c r="I377" t="n">
@@ -50876,11 +52308,7 @@
           <t>October 5, 2025</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>The video shows a large audience in an auditorium watching a presentation on a big screen. The presentation features a man in a blue shirt, who appears to be a speaker or presenter. He is shown speaking animatedly, gesturing with his hands, and at one point, he is seen holding a baby. The audience is seated and appears to be listening attentively. The video seems to be a recording of a live event, possibly a conference or seminar.</t>
-        </is>
-      </c>
+      <c r="H378" t="inlineStr"/>
       <c r="I378" t="n">
         <v>1759715375</v>
       </c>
@@ -51014,7 +52442,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>A woman with blue eyes and dark hair is speaking directly to the camera in a close-up shot. She is wearing a silver necklace and has a tattoo on her chest. Her facial expressions change as she talks, conveying a sense of fatigue and emotional strain. She appears to be in a bathroom, with a white tiled wall visible in the background.</t>
+          <t xml:space="preserve">parenting 🫣 #timeout #parenting #singlemum #emotions #learning </t>
         </is>
       </c>
       <c r="I379" t="n">
@@ -51152,7 +52580,11 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>The video is a static presentation slide for an episode titled 'Reinforcing Behavior' from a series called 'Talks Too Much with Jill Anne Castle'. The slide has a dark blue background with white text. It displays the episode title, 'Episode #7', and a list of bullet points under the heading 'Reinforce'. The points include: 'The new replacement behavior so it strengthens over time', 'Continually at first &amp; time between', 'Fade reinforcement to intermittent after behavior is established', 'Keep function in mind', 'Effective praise', 'Don't respond to compliance with gratitude', 'Tangible/ token economies', and 'Rewards built in to environment'. The slide remains on screen for the entire duration of the video.</t>
+          <t>(Episode 7) Positive Behavior Support  101
+Listen here:
+https://youtu.be/kp6DO3StVho?si=ysDYxdnK0kNzM9KW
+Or available on all podcast platforms "Talks Too Much" with Jill Anne Castle
+#parenting  #parentingadvice  #parentingtips #parenthood #parentingsupport #parentingjourney #behaviorissues #behaviorsolutions #positivebehavior #specialneeds #rarediseases #problembehavior #timeout</t>
         </is>
       </c>
       <c r="I380" t="n">
@@ -51288,7 +52720,13 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>The video is an animated infographic that discusses the parenting strategy of 'time-outs'. It begins by questioning their effectiveness, then defines what a time-out is, and explains why parents use it. The video presents research findings, suggesting that while time-outs can temporarily stop behavior, they may negatively affect the parent-child bond and don't always teach self-regulation. It then proposes 'better alternatives' such as 'Time-In' (sitting together and talking), a 'Calm Corner' (a quiet, comforting space), and 'Teaching coping skills'. The video concludes with a 'Practical Tip' to reframe the language from 'Go to time-out!' to 'Let's take a calm break together.' The entire video is presented in a calm, educational style with simple illustrations.</t>
+          <t>Time-outs are a common discipline strategy for many parents. But are they truly effective for long-term emotional growth and behavior?
+In this video, we break down:
+✔ What time-outs are and why parents use them
+✔ What research actually says about their impact on kids
+✔ Gentle parenting alternatives like time-ins, calm corners, and coping skills that work better for emotional regulation and connection 💛
+🌱 Let’s raise emotionally strong and connected children — one mindful step at a time.
+#GentleParenting #ParentingTips #PositiveDiscipline #TimeOutAlternatives #MindfulParenting #ParentingAdvice #ParentingIndia #ParentingForBeginners #ChildDevelopment #LittleRootsLab #WisdomWednesday #PoojaECE #EmotionalGrowth</t>
         </is>
       </c>
       <c r="I381" t="n">
@@ -51424,7 +52862,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>A woman with long, curly hair, wearing a light-colored sweater and dark pants, walks into a room with a gray geometric-patterned rug. She approaches a small, tufted ottoman, sits down on it, and then turns to face the door, placing her hands on her hips. The room is decorated with a potted fiddle-leaf fig plant, a gray beanbag chair, and a framed picture on the wall. A text overlay on the video reads, 'Putting myself in timeout for telling my kids we were going to Great Wolf Lodge two weeks before the trip 😅'. The video is set to background music.</t>
+          <t xml:space="preserve">Created my own problem! 😅 #momlife #MomsofTikTok #momhumor #kidsbelike #parenting </t>
         </is>
       </c>
       <c r="I382" t="n">
@@ -51558,7 +52996,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>A woman with short, graying hair and blue eyes, wearing a black hoodie, speaks directly to the camera in a close-up, vertical video. She is outdoors, with a wooden fence behind her. As she talks, text overlays appear on the screen, highlighting key phrases from her speech such as 'Why Time Outs Don't Work (and What to Do Instead)', 'SENT YOUR CHILD TO THE NAUGHTY STEP', 'DISCONNECTS', 'THE LOGICAL PART OF THE BRAIN', 'ISOLATE THEM WE'RE REMOVING THE ONE THING THAT HELPS', 'TIME OUTS OFTEN MAKE BEHAVIOUR WORSE', 'SO WHAT HELPS INSTEAD?', 'SIT NEARBY STAY CALM AND MODEL REGULATION', 'SLOW BREATHS TOGETHER', 'ONCE THEY'RE CALM THEN YOU TALK ABOUT WHAT HAPPENED', 'THAT'S WHEN LEARNING ACTUALLY STICKS', 'IF YOU NEED SPACE TOO THAT'S OKAY', 'TAKE A CO-REGULATION BREAK', 'STEP BACK FOR A FEW BREATHS THEN RECONNECT AND REMEMBER A REWARD FOR GOOD BEHAVIOUR', and 'IT'S THE TOOL THAT MAKES GOOD BEHAVIOUR POSSIBLE'. She uses hand gestures to emphasize her points. A blue banner at the bottom of the screen consistently says 'Subscribe for personalised content 😊'.</t>
+          <t>Time outs and the naughty step don’t “teach a lesson” — they trigger the stress response and disconnect the child from the part of the brain that can learn. +🧩 Use time in instead — stay near, offer calm presence, co-regulate. +🫁 Try slow breaths together. +🫶 Once calm, talk and reflect. +💛 If you need space too, take a co-regulation break — step back, then reconnect. +Connection isn’t a reward. It’s the repair tool. #timein #parentingstrategies #neuroscienceofparenting #gentleparenting #walkerstherapy</t>
         </is>
       </c>
       <c r="I383" t="n">
@@ -51696,7 +53139,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>The video is a step-by-step tutorial on how to make homemade ketchup. It begins with a pot of water being heated on a charcoal stove. Ingredients are added sequentially: chopped tomatoes, onions, and garlic. The pot is covered and the ingredients are cooked. After cooking, the mixture is transferred to a bowl and mashed by hand. The mashed mixture is then strained into a clean pot. Sugar, honey, salt, and vinegar are added to the strained liquid. The mixture is stirred and brought to a boil. The final product is a bowl of homemade ketchup served with french fries.</t>
+          <t xml:space="preserve">@Bara Musso CI #cuisine #cuisineivoirienne🇨🇮🇨🇮🇨🇮 #cuisineafricaine #cuisinedumonde #cotedivoire🇨🇮 </t>
         </is>
       </c>
       <c r="I384" t="n">
@@ -51826,7 +53269,11 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>The video displays a static presentation slide with a dark blue background. The title at the top reads 'REINFORCING BEHAVIOR' in a white, handwritten-style font. Below the title is a white box with the heading 'Reinforce' and a bulleted list of six points related to behavior modification. At the bottom of the slide, the text 'EPISODE # 7' is visible. The slide remains unchanged throughout the video.</t>
+          <t>(Episode 7) Positive Behavior Support  101
+Listen here:
+https://www.youtube.com/watch?v=kp6DO3StVho
+Or available on all podcast platforms "Talks Too Much" with Jill Anne Castle
+#parenting  #parentingadvice  #parentingtips #parenthood #parentingsupport #parentingjourney #behaviorissues #behaviorsolutions #positivebehavior #specialneeds #rarediseases #problembehavior #timeout</t>
         </is>
       </c>
       <c r="I385" t="n">
@@ -51946,7 +53393,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>The video shows a woman in a white robe sweeping a floor covered in a white powdery substance, likely flour. She looks exasperated. The scene then cuts to a baby sitting inside a large black bag, which is hanging from a glass door. The baby is wearing a pacifier. The video has a humorous tone, suggesting the baby is being put in a 'time out' for making a mess.</t>
+          <t>The best local &amp; breaking news source in the US, featuring local weather, alerts, deals, events and more.</t>
         </is>
       </c>
       <c r="I386" t="inlineStr"/>
